--- a/src/attributions/attributions_saliency_traj_270.xlsx
+++ b/src/attributions/attributions_saliency_traj_270.xlsx
@@ -1004,5692 +1004,5692 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0002369937574258074</v>
+        <v>0.0003239169891458005</v>
       </c>
       <c r="B2" t="n">
-        <v>3.155574813717976e-05</v>
+        <v>0.004250590223819017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002317773032700643</v>
+        <v>0.0001597603550180793</v>
       </c>
       <c r="D2" t="n">
-        <v>5.394410982262343e-05</v>
+        <v>0.001600762363523245</v>
       </c>
       <c r="E2" t="n">
-        <v>1.235606396221556e-05</v>
+        <v>0.0006855383398942649</v>
       </c>
       <c r="F2" t="n">
-        <v>7.877641110098921e-06</v>
+        <v>0.002036700956523418</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001352064864477143</v>
+        <v>0.0005684955976903439</v>
       </c>
       <c r="H2" t="n">
-        <v>5.191605305299163e-05</v>
+        <v>0.0008109053014777601</v>
       </c>
       <c r="I2" t="n">
-        <v>8.218430593842641e-05</v>
+        <v>0.0006202994263730943</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000207025179406628</v>
+        <v>5.186034104553983e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>7.951836778374854e-06</v>
+        <v>0.004249935504049063</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000240266410401091</v>
+        <v>0.0001711622171569616</v>
       </c>
       <c r="M2" t="n">
-        <v>1.895446803246159e-05</v>
+        <v>0.0009978080634027719</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001379126042593271</v>
+        <v>0.0002541684953030199</v>
       </c>
       <c r="O2" t="n">
-        <v>5.434278136817738e-06</v>
+        <v>0.002039974322542548</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0001684590533841401</v>
+        <v>0.000580378866288811</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.931248622597195e-05</v>
+        <v>7.888289837865159e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001192821146105416</v>
+        <v>0.0005658281734213233</v>
       </c>
       <c r="S2" t="n">
-        <v>1.168165454146219e-05</v>
+        <v>0.0001092289894586429</v>
       </c>
       <c r="T2" t="n">
-        <v>7.90996928117238e-05</v>
+        <v>0.0004833624698221684</v>
       </c>
       <c r="U2" t="n">
-        <v>2.397668504272588e-05</v>
+        <v>0.0003657473425846547</v>
       </c>
       <c r="V2" t="n">
-        <v>2.681733167264611e-05</v>
+        <v>2.588432107586414e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>5.298747964843642e-06</v>
+        <v>0.000676369818393141</v>
       </c>
       <c r="X2" t="n">
-        <v>5.350812716642395e-05</v>
+        <v>4.859996261075139e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.993068614567164e-06</v>
+        <v>2.913080243160948e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.305195999331772e-05</v>
+        <v>0.0004256642714608461</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.023710855311947e-06</v>
+        <v>0.000289958727080375</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.374080941081047e-05</v>
+        <v>0.000383938750019297</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.072627401299542e-05</v>
+        <v>0.0002024896966759115</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.833045098464936e-05</v>
+        <v>0.0004555884515866637</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.316966417012736e-05</v>
+        <v>9.182411304209381e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.336734254044131e-07</v>
+        <v>0.0001596505026100203</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.812694765452761e-05</v>
+        <v>0.0002004160051001236</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.842944225762039e-06</v>
+        <v>5.565257743000984e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.394422522746027e-05</v>
+        <v>0.0002501753042452037</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5.961266651866026e-05</v>
+        <v>1.362206239718944e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.870602449751459e-05</v>
+        <v>0.0002577794948592782</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.301861139945686e-05</v>
+        <v>0.0004448996332939714</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.227614095318131e-05</v>
+        <v>0.0003925448399968445</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.510097303660586e-05</v>
+        <v>0.0001387703960062936</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.514274026703788e-05</v>
+        <v>0.0001929068675963208</v>
       </c>
       <c r="AP2" t="n">
-        <v>4.043099033879116e-05</v>
+        <v>0.0004336303973104805</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.583327270462178e-06</v>
+        <v>5.030469037592411e-05</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.164843519698479e-06</v>
+        <v>4.663582149078138e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.047257334605092e-06</v>
+        <v>0.0002611452364362776</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0001237677497556433</v>
+        <v>0.0008220210438594222</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.864307993557304e-05</v>
+        <v>0.002837383886799216</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0001165118446806446</v>
+        <v>0.0004015144659206271</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.512904368108138e-05</v>
+        <v>2.121376019204035e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.054284777841531e-05</v>
+        <v>0.001007813843898475</v>
       </c>
       <c r="AY2" t="n">
-        <v>7.423885836033151e-05</v>
+        <v>0.00123815075494349</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.120732122217305e-05</v>
+        <v>0.0007425236981362104</v>
       </c>
       <c r="BA2" t="n">
-        <v>6.441915320465341e-05</v>
+        <v>0.0001948144927155226</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.271609941497445e-05</v>
+        <v>0.0002772526349872351</v>
       </c>
       <c r="BC2" t="n">
-        <v>5.574808892561123e-05</v>
+        <v>8.141968282870948e-05</v>
       </c>
       <c r="BD2" t="n">
-        <v>6.240033599169692e-06</v>
+        <v>0.001102151582017541</v>
       </c>
       <c r="BE2" t="n">
-        <v>8.701124170329422e-05</v>
+        <v>0.0003164160007145256</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.755859481520019e-05</v>
+        <v>1.978341606445611e-05</v>
       </c>
       <c r="BG2" t="n">
-        <v>5.128030170453712e-05</v>
+        <v>0.001605412224307656</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.297784885740839e-05</v>
+        <v>0.0008772582514211535</v>
       </c>
       <c r="BI2" t="n">
-        <v>3.944979835068807e-05</v>
+        <v>0.000203725605388172</v>
       </c>
       <c r="BJ2" t="n">
-        <v>6.306187424343079e-05</v>
+        <v>0.0002716131275519729</v>
       </c>
       <c r="BK2" t="n">
-        <v>5.237610093900003e-05</v>
+        <v>0.0006071433308534324</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.445956488372758e-05</v>
+        <v>0.0004106939886696637</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.716898623271845e-05</v>
+        <v>0.0007908111438155174</v>
       </c>
       <c r="BN2" t="n">
-        <v>3.537537122610956e-05</v>
+        <v>4.74242988275364e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.680939360288903e-05</v>
+        <v>5.381828668760136e-05</v>
       </c>
       <c r="BP2" t="n">
-        <v>5.684770076186396e-05</v>
+        <v>0.0004690869245678186</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.493126092100283e-05</v>
+        <v>0.0003563021309673786</v>
       </c>
       <c r="BR2" t="n">
-        <v>4.178239760221913e-05</v>
+        <v>4.656086093746126e-05</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.79550115717575e-05</v>
+        <v>0.0002856167266145349</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.678512126090936e-05</v>
+        <v>5.060972034698352e-05</v>
       </c>
       <c r="BU2" t="n">
-        <v>8.144685853039846e-05</v>
+        <v>0.0003534492279868573</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.695130049483851e-05</v>
+        <v>0.001360304653644562</v>
       </c>
       <c r="BW2" t="n">
-        <v>5.979659545118921e-05</v>
+        <v>4.372015246190131e-05</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.42319321539253e-05</v>
+        <v>0.000252248311880976</v>
       </c>
       <c r="BY2" t="n">
-        <v>2.090417729050387e-05</v>
+        <v>0.0002925514127127826</v>
       </c>
       <c r="BZ2" t="n">
-        <v>4.603188062901609e-05</v>
+        <v>0.0003659462963696569</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.999292726395652e-05</v>
+        <v>0.0001725729380268604</v>
       </c>
       <c r="CB2" t="n">
-        <v>2.324889646843076e-05</v>
+        <v>0.0001722794695524499</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.105134808516596e-05</v>
+        <v>0.0003010940563399345</v>
       </c>
       <c r="CD2" t="n">
-        <v>4.511496081249788e-05</v>
+        <v>0.0001718302955850959</v>
       </c>
       <c r="CE2" t="n">
-        <v>4.63064388895873e-05</v>
+        <v>0.0007281469879671931</v>
       </c>
       <c r="CF2" t="n">
-        <v>5.019981472287327e-05</v>
+        <v>8.321656059706584e-05</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.978317959583364e-05</v>
+        <v>0.0002727195387706161</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.153597258962691e-05</v>
+        <v>8.309574332088232e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.889724262582604e-05</v>
+        <v>0.0003032362437807024</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.681281668832526e-05</v>
+        <v>0.0003987399977631867</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.271666016895324e-05</v>
+        <v>3.511750037432648e-05</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.725890110217733e-06</v>
+        <v>0.0001489206333644688</v>
       </c>
       <c r="CM2" t="n">
-        <v>9.245100955013186e-06</v>
+        <v>0.001036742702126503</v>
       </c>
       <c r="CN2" t="n">
-        <v>7.676416134927422e-05</v>
+        <v>0.0004338602884672582</v>
       </c>
       <c r="CO2" t="n">
-        <v>2.626070272526704e-05</v>
+        <v>9.06859349925071e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>3.161884887958877e-05</v>
+        <v>0.001455682562664151</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.79278244508896e-05</v>
+        <v>0.0004086469125468284</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.453091838106047e-06</v>
+        <v>1.484333188273013e-05</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.275896986247972e-05</v>
+        <v>0.000908619724214077</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.095358857128303e-05</v>
+        <v>0.0008157858974300325</v>
       </c>
       <c r="CU2" t="n">
-        <v>6.769353785784915e-05</v>
+        <v>9.69568282016553e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>3.85480307159014e-05</v>
+        <v>0.0001268402847927064</v>
       </c>
       <c r="CW2" t="n">
-        <v>3.329629544168711e-05</v>
+        <v>0.0006513180560432374</v>
       </c>
       <c r="CX2" t="n">
-        <v>5.029540625400841e-05</v>
+        <v>9.498174767941236e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.51905839832034e-05</v>
+        <v>0.0004189394530840218</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2.023694105446339e-05</v>
+        <v>0.0001691630895948038</v>
       </c>
       <c r="DA2" t="n">
-        <v>6.799557013437152e-06</v>
+        <v>0.0003238806675653905</v>
       </c>
       <c r="DB2" t="n">
-        <v>3.667363489512354e-05</v>
+        <v>0.0003589086991269141</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.015401539916638e-05</v>
+        <v>0.0001085835319827311</v>
       </c>
       <c r="DD2" t="n">
-        <v>2.634847533045104e-06</v>
+        <v>7.665306475246325e-05</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.03603740374092e-05</v>
+        <v>0.0003552196139935404</v>
       </c>
       <c r="DF2" t="n">
-        <v>7.543213723693043e-05</v>
+        <v>0.0009630664135329425</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.458138260408305e-05</v>
+        <v>0.0001111107194446959</v>
       </c>
       <c r="DH2" t="n">
-        <v>8.870686542650219e-06</v>
+        <v>0.0008700695470906794</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.75099412444979e-05</v>
+        <v>0.001356686581857502</v>
       </c>
       <c r="DJ2" t="n">
-        <v>7.993876351974905e-07</v>
+        <v>0.0004992969916202128</v>
       </c>
       <c r="DK2" t="n">
-        <v>3.499266313156113e-05</v>
+        <v>7.175661448854953e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.459134182368871e-05</v>
+        <v>0.0003387095930520445</v>
       </c>
       <c r="DM2" t="n">
-        <v>6.975579890422523e-05</v>
+        <v>0.0008499647374264896</v>
       </c>
       <c r="DN2" t="n">
-        <v>8.271610568044707e-06</v>
+        <v>0.0001047014375217259</v>
       </c>
       <c r="DO2" t="n">
-        <v>5.306240564095788e-05</v>
+        <v>8.514587534591556e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.338303536613239e-05</v>
+        <v>0.0007422839407809079</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.408617729088292e-05</v>
+        <v>0.0002541846770327538</v>
       </c>
       <c r="DR2" t="n">
-        <v>3.019284486072138e-05</v>
+        <v>0.0008415685733780265</v>
       </c>
       <c r="DS2" t="n">
-        <v>8.713231181900483e-06</v>
+        <v>0.0009030424989759922</v>
       </c>
       <c r="DT2" t="n">
-        <v>7.302649919438409e-06</v>
+        <v>0.0002677012525964528</v>
       </c>
       <c r="DU2" t="n">
-        <v>4.161026299698278e-05</v>
+        <v>6.384966400219128e-05</v>
       </c>
       <c r="DV2" t="n">
-        <v>3.820201163762249e-05</v>
+        <v>0.0001361474569421262</v>
       </c>
       <c r="DW2" t="n">
-        <v>5.209726623434108e-06</v>
+        <v>0.0001869634870672598</v>
       </c>
       <c r="DX2" t="n">
-        <v>8.297984095406719e-06</v>
+        <v>0.0004868094401899725</v>
       </c>
       <c r="DY2" t="n">
-        <v>7.188999006757513e-06</v>
+        <v>9.223078086506575e-05</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.487199890310876e-05</v>
+        <v>0.0006049284711480141</v>
       </c>
       <c r="EA2" t="n">
-        <v>2.956261596409604e-05</v>
+        <v>0.0001875524903880432</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.374735256831627e-05</v>
+        <v>0.0005338888731785119</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.439230345567921e-05</v>
+        <v>0.000335641932906583</v>
       </c>
       <c r="ED2" t="n">
-        <v>5.592733214143664e-05</v>
+        <v>0.0006370918708853424</v>
       </c>
       <c r="EE2" t="n">
-        <v>7.849723260733299e-06</v>
+        <v>0.0005979796405881643</v>
       </c>
       <c r="EF2" t="n">
-        <v>6.93512411089614e-05</v>
+        <v>0.000311558076646179</v>
       </c>
       <c r="EG2" t="n">
-        <v>3.544401988619938e-05</v>
+        <v>0.0007544430554844439</v>
       </c>
       <c r="EH2" t="n">
-        <v>4.728562998934649e-05</v>
+        <v>1.564403646625578e-05</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.036039702739799e-05</v>
+        <v>0.0002442237455397844</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.024040466290899e-05</v>
+        <v>0.0001335856213700026</v>
       </c>
       <c r="EK2" t="n">
-        <v>6.891230441397056e-06</v>
+        <v>0.0002893488563131541</v>
       </c>
       <c r="EL2" t="n">
-        <v>2.197443609475158e-05</v>
+        <v>0.000409670319641009</v>
       </c>
       <c r="EM2" t="n">
-        <v>4.502656884142198e-05</v>
+        <v>0.0001853608846431598</v>
       </c>
       <c r="EN2" t="n">
-        <v>2.950141788460314e-05</v>
+        <v>5.55438527953811e-05</v>
       </c>
       <c r="EO2" t="n">
-        <v>6.1701939557679e-06</v>
+        <v>0.000261501525528729</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.00275719887577e-05</v>
+        <v>0.0005641813622787595</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.319141574640526e-05</v>
+        <v>0.0002036699734162539</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.095899642677978e-05</v>
+        <v>0.000280192238278687</v>
       </c>
       <c r="ES2" t="n">
-        <v>3.51414128090255e-05</v>
+        <v>0.0001068534256774001</v>
       </c>
       <c r="ET2" t="n">
-        <v>5.326535028871149e-05</v>
+        <v>2.679823955986649e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>8.323862857650965e-05</v>
+        <v>0.0003113289712928236</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.620964758330956e-05</v>
+        <v>0.0005301663186401129</v>
       </c>
       <c r="EW2" t="n">
-        <v>2.92258700937964e-05</v>
+        <v>0.0004580599197652191</v>
       </c>
       <c r="EX2" t="n">
-        <v>3.637544068624265e-05</v>
+        <v>0.0002940980484709144</v>
       </c>
       <c r="EY2" t="n">
-        <v>3.140034823445603e-05</v>
+        <v>0.000579921412281692</v>
       </c>
       <c r="EZ2" t="n">
-        <v>5.525213418877684e-05</v>
+        <v>3.452009696047753e-05</v>
       </c>
       <c r="FA2" t="n">
-        <v>2.261125155200716e-05</v>
+        <v>0.0001491189759690315</v>
       </c>
       <c r="FB2" t="n">
-        <v>3.056334207940381e-06</v>
+        <v>9.224565292242914e-05</v>
       </c>
       <c r="FC2" t="n">
-        <v>3.19659056913224e-06</v>
+        <v>0.0004271105863153934</v>
       </c>
       <c r="FD2" t="n">
-        <v>3.768243186641484e-05</v>
+        <v>0.0004050499410368502</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.512358903710265e-05</v>
+        <v>1.014977442537202e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>8.53833626024425e-06</v>
+        <v>0.0001976229250431061</v>
       </c>
       <c r="FG2" t="n">
-        <v>4.409660323290154e-05</v>
+        <v>6.859393033664674e-05</v>
       </c>
       <c r="FH2" t="n">
-        <v>2.740211130003445e-06</v>
+        <v>0.0003271954774390906</v>
       </c>
       <c r="FI2" t="n">
-        <v>3.111497062491253e-05</v>
+        <v>0.0002721641794778407</v>
       </c>
       <c r="FJ2" t="n">
-        <v>6.582182686543092e-05</v>
+        <v>0.001157982274889946</v>
       </c>
       <c r="FK2" t="n">
-        <v>3.062988980673254e-05</v>
+        <v>0.0004796925932168961</v>
       </c>
       <c r="FL2" t="n">
-        <v>6.495092384284362e-05</v>
+        <v>0.0002941952843684703</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.652963409374934e-06</v>
+        <v>0.0002869662712328136</v>
       </c>
       <c r="FN2" t="n">
-        <v>5.669365418725647e-05</v>
+        <v>0.0001034623128362</v>
       </c>
       <c r="FO2" t="n">
-        <v>3.503606421872973e-05</v>
+        <v>0.0001657703542150557</v>
       </c>
       <c r="FP2" t="n">
-        <v>4.414411523612216e-05</v>
+        <v>0.0007367975194938481</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001577279763296247</v>
+        <v>0.0003107880474999547</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.482661173213273e-05</v>
+        <v>0.0001134413614636287</v>
       </c>
       <c r="FS2" t="n">
-        <v>4.027959948871285e-05</v>
+        <v>0.0005493333446793258</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.987635187106207e-05</v>
+        <v>0.0001607216108823195</v>
       </c>
       <c r="FU2" t="n">
-        <v>3.316453876323067e-05</v>
+        <v>0.0001910647697513923</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.717285158520099e-06</v>
+        <v>0.0003664750838652253</v>
       </c>
       <c r="FW2" t="n">
-        <v>1.347996112599503e-05</v>
+        <v>0.0001910056453198195</v>
       </c>
       <c r="FX2" t="n">
-        <v>3.730563912540674e-05</v>
+        <v>7.449093391187489e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>4.179563256911933e-05</v>
+        <v>0.0008828742429614067</v>
       </c>
       <c r="FZ2" t="n">
-        <v>6.585048140550498e-06</v>
+        <v>6.475562986452132e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.626820812816732e-05</v>
+        <v>3.99210985051468e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.077038905350491e-05</v>
+        <v>5.28642995050177e-05</v>
       </c>
       <c r="GC2" t="n">
-        <v>3.430258948355913e-05</v>
+        <v>0.0001549374719616026</v>
       </c>
       <c r="GD2" t="n">
-        <v>7.087362610036507e-05</v>
+        <v>0.0003909478546120226</v>
       </c>
       <c r="GE2" t="n">
-        <v>2.485403820173815e-05</v>
+        <v>0.0004366911016404629</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.445516136300284e-05</v>
+        <v>9.000000864034519e-05</v>
       </c>
       <c r="GG2" t="n">
-        <v>3.259180857639876e-06</v>
+        <v>0.000280030770227313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.770093801198527e-05</v>
+        <v>4.447947787866724e-09</v>
       </c>
       <c r="B3" t="n">
-        <v>1.787660403351765e-05</v>
+        <v>1.877490340973509e-08</v>
       </c>
       <c r="C3" t="n">
-        <v>4.960409683008038e-07</v>
+        <v>8.546280350074653e-11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.795983189367689e-05</v>
+        <v>1.900206747507127e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>1.602969859959558e-05</v>
+        <v>2.427917866754115e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>1.108658489101799e-05</v>
+        <v>2.562860812460599e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>1.575402347953059e-05</v>
+        <v>2.215305272557089e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>5.400458576332312e-06</v>
+        <v>4.775083883856723e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>1.569098571962968e-06</v>
+        <v>4.084477200905212e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>4.122842437936924e-05</v>
+        <v>5.575553352343832e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>9.403969670529477e-06</v>
+        <v>1.330934207288692e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>4.549897312244866e-06</v>
+        <v>1.109874137039668e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>1.223786239279434e-05</v>
+        <v>1.062771559645626e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.684677201614249e-05</v>
+        <v>5.843719286247051e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>1.427509005225147e-06</v>
+        <v>1.127673421308373e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95550801436184e-05</v>
+        <v>5.868458163860168e-09</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.236317525079357e-06</v>
+        <v>8.178596466734689e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>4.403669208841166e-06</v>
+        <v>2.245759134211767e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>8.615677984380454e-07</v>
+        <v>1.806714222674088e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>8.296599389723269e-07</v>
+        <v>4.903661920963032e-09</v>
       </c>
       <c r="U3" t="n">
-        <v>5.450550588648184e-08</v>
+        <v>1.708948538237109e-09</v>
       </c>
       <c r="V3" t="n">
-        <v>3.028225819434738e-06</v>
+        <v>1.346430744675331e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>2.68872213382565e-07</v>
+        <v>6.911495820105529e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>1.033055241350667e-07</v>
+        <v>4.568038391994378e-09</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.558566737003275e-06</v>
+        <v>5.555195858875095e-09</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.76932540955022e-06</v>
+        <v>7.977477567422397e-10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.991253384403535e-06</v>
+        <v>3.751180699396173e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.416591415676521e-06</v>
+        <v>2.959132938684661e-10</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.937255082244519e-06</v>
+        <v>6.546938546847514e-10</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.546097443380859e-06</v>
+        <v>1.107409719480756e-09</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.077563178521814e-06</v>
+        <v>1.662028070725796e-09</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.191341309298878e-06</v>
+        <v>2.277783295312474e-09</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.862636622718128e-07</v>
+        <v>2.385879049882078e-09</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.160425881607807e-06</v>
+        <v>1.223719570120352e-09</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.121447257901309e-05</v>
+        <v>3.71535069376705e-09</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.347814299559104e-06</v>
+        <v>1.343737121572985e-09</v>
       </c>
       <c r="AK3" t="n">
-        <v>9.969809980248101e-06</v>
+        <v>4.862223956791922e-10</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.893722002132563e-06</v>
+        <v>3.739984766326643e-09</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.276105871918844e-06</v>
+        <v>5.111773226929017e-10</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.471572411712259e-06</v>
+        <v>2.143103694507431e-09</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.098528279428137e-06</v>
+        <v>1.784789427361488e-09</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.610651447161217e-06</v>
+        <v>1.379713010507544e-09</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9.823017990129301e-07</v>
+        <v>2.613621541414091e-09</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.291223836436984e-06</v>
+        <v>3.285454575063795e-09</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.392993453919189e-08</v>
+        <v>2.793334230588584e-09</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.202891300839838e-05</v>
+        <v>3.544958326884284e-09</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.005555981872021e-08</v>
+        <v>1.198220722642418e-08</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.190132820738654e-06</v>
+        <v>1.230994639556116e-09</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.444723789580166e-06</v>
+        <v>9.199165873496895e-09</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.615825218934333e-06</v>
+        <v>3.000266923791628e-09</v>
       </c>
       <c r="AY3" t="n">
-        <v>8.217306458391249e-06</v>
+        <v>9.342243645349413e-11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3.588087338357582e-06</v>
+        <v>5.927815571737938e-09</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.347493364140973e-06</v>
+        <v>2.570780255339855e-09</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.976780479002628e-06</v>
+        <v>3.477881538316296e-09</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.258075644727796e-05</v>
+        <v>4.237205697421587e-09</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.14143119592336e-06</v>
+        <v>4.223946081793883e-09</v>
       </c>
       <c r="BE3" t="n">
-        <v>5.701601821783697e-07</v>
+        <v>4.131256226003188e-09</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.646465989324497e-06</v>
+        <v>2.394276776840343e-09</v>
       </c>
       <c r="BG3" t="n">
-        <v>6.188391125760972e-06</v>
+        <v>3.644406110225873e-09</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.267055608877854e-06</v>
+        <v>3.122632596941344e-09</v>
       </c>
       <c r="BI3" t="n">
-        <v>9.091212632483803e-06</v>
+        <v>2.438450996677943e-09</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.452796368539566e-05</v>
+        <v>8.825234765197365e-09</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.883739173536014e-06</v>
+        <v>1.513437708489107e-09</v>
       </c>
       <c r="BL3" t="n">
-        <v>2.50924745159864e-06</v>
+        <v>3.345490995343425e-09</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.07360119727673e-05</v>
+        <v>2.076057548094923e-09</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.118935870181303e-06</v>
+        <v>3.485371324885023e-09</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.59666012677917e-06</v>
+        <v>1.64348346043397e-09</v>
       </c>
       <c r="BP3" t="n">
-        <v>7.536762950621778e-06</v>
+        <v>9.546168300289537e-10</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.36480105084047e-06</v>
+        <v>2.536961751786748e-10</v>
       </c>
       <c r="BR3" t="n">
-        <v>3.734305892066914e-06</v>
+        <v>2.092875206471945e-09</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.28313990899187e-06</v>
+        <v>2.359223927328458e-13</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.848649273801129e-06</v>
+        <v>6.971027088908954e-10</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.574431371409446e-05</v>
+        <v>1.093419244035942e-10</v>
       </c>
       <c r="BV3" t="n">
-        <v>3.660899665192119e-06</v>
+        <v>7.355716480361707e-09</v>
       </c>
       <c r="BW3" t="n">
-        <v>2.202866198786069e-06</v>
+        <v>1.800941840102155e-09</v>
       </c>
       <c r="BX3" t="n">
-        <v>1.49036468428676e-05</v>
+        <v>2.861223258321388e-09</v>
       </c>
       <c r="BY3" t="n">
-        <v>1.052599873219151e-05</v>
+        <v>3.779120349989284e-10</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3.463438588369172e-06</v>
+        <v>1.594874232679899e-09</v>
       </c>
       <c r="CA3" t="n">
-        <v>2.404226961516542e-06</v>
+        <v>3.43544370728921e-09</v>
       </c>
       <c r="CB3" t="n">
-        <v>2.063451347567025e-07</v>
+        <v>1.80589465603731e-09</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.328337248196476e-06</v>
+        <v>3.197856646153241e-09</v>
       </c>
       <c r="CD3" t="n">
-        <v>8.982561666925903e-06</v>
+        <v>8.698500253423447e-10</v>
       </c>
       <c r="CE3" t="n">
-        <v>9.949345439963508e-06</v>
+        <v>2.794811937434361e-09</v>
       </c>
       <c r="CF3" t="n">
-        <v>3.732627078534279e-07</v>
+        <v>2.843695057208606e-09</v>
       </c>
       <c r="CG3" t="n">
-        <v>3.077059091083356e-06</v>
+        <v>1.136629124154354e-09</v>
       </c>
       <c r="CH3" t="n">
-        <v>3.692993232107256e-06</v>
+        <v>1.402159832686323e-09</v>
       </c>
       <c r="CI3" t="n">
-        <v>2.331279205236569e-07</v>
+        <v>1.384991121788914e-09</v>
       </c>
       <c r="CJ3" t="n">
-        <v>2.755795094344649e-06</v>
+        <v>1.195597232328538e-10</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.216956633243171e-07</v>
+        <v>8.938647044764991e-11</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.246967940460308e-06</v>
+        <v>2.838802970472898e-09</v>
       </c>
       <c r="CM3" t="n">
-        <v>2.49673348662327e-08</v>
+        <v>5.472966524422418e-10</v>
       </c>
       <c r="CN3" t="n">
-        <v>2.770737864921102e-06</v>
+        <v>1.767511248473852e-09</v>
       </c>
       <c r="CO3" t="n">
-        <v>2.743541244853986e-06</v>
+        <v>4.899236571986876e-11</v>
       </c>
       <c r="CP3" t="n">
-        <v>4.359270860732067e-06</v>
+        <v>3.01142777381358e-09</v>
       </c>
       <c r="CQ3" t="n">
-        <v>2.910837793024257e-07</v>
+        <v>1.309706565422175e-09</v>
       </c>
       <c r="CR3" t="n">
-        <v>9.435097467758169e-07</v>
+        <v>3.595424402647041e-09</v>
       </c>
       <c r="CS3" t="n">
-        <v>7.832204573787749e-07</v>
+        <v>5.308070871734571e-09</v>
       </c>
       <c r="CT3" t="n">
-        <v>7.686811841267627e-06</v>
+        <v>5.483650866722201e-09</v>
       </c>
       <c r="CU3" t="n">
-        <v>5.046069873060333e-08</v>
+        <v>1.800724347411631e-09</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.391211511276197e-06</v>
+        <v>9.991851790402961e-10</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.020725085254526e-05</v>
+        <v>2.236954843581884e-09</v>
       </c>
       <c r="CX3" t="n">
-        <v>2.383690343776834e-06</v>
+        <v>2.308186308752624e-09</v>
       </c>
       <c r="CY3" t="n">
-        <v>2.737715021794429e-06</v>
+        <v>3.325459463354719e-09</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.643936798245704e-06</v>
+        <v>1.287322248799683e-09</v>
       </c>
       <c r="DA3" t="n">
-        <v>5.372015721150092e-07</v>
+        <v>1.952338735122794e-09</v>
       </c>
       <c r="DB3" t="n">
-        <v>3.435357029957231e-06</v>
+        <v>2.134871446290987e-10</v>
       </c>
       <c r="DC3" t="n">
-        <v>6.608937610508292e-07</v>
+        <v>4.184405044682649e-10</v>
       </c>
       <c r="DD3" t="n">
-        <v>1.456694803891878e-06</v>
+        <v>1.920359649076886e-09</v>
       </c>
       <c r="DE3" t="n">
-        <v>3.23982521877042e-06</v>
+        <v>4.85571582942157e-11</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.740687730489299e-05</v>
+        <v>4.37068964354026e-10</v>
       </c>
       <c r="DG3" t="n">
-        <v>3.873092737194384e-06</v>
+        <v>9.706623060878883e-09</v>
       </c>
       <c r="DH3" t="n">
-        <v>1.929057816596469e-06</v>
+        <v>1.914118641366258e-08</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.366766127830488e-06</v>
+        <v>1.465028098834864e-08</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.673046537893242e-06</v>
+        <v>1.5815426746002e-09</v>
       </c>
       <c r="DK3" t="n">
-        <v>4.797718702320708e-06</v>
+        <v>3.030306672258121e-09</v>
       </c>
       <c r="DL3" t="n">
-        <v>3.064057636947837e-06</v>
+        <v>1.153933748554437e-08</v>
       </c>
       <c r="DM3" t="n">
-        <v>9.179593689623289e-07</v>
+        <v>1.310100139484405e-09</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.776899694050371e-06</v>
+        <v>8.030790477064897e-10</v>
       </c>
       <c r="DO3" t="n">
-        <v>8.223039003496524e-06</v>
+        <v>1.566829777033263e-09</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.760722739163612e-06</v>
+        <v>2.890915062891963e-09</v>
       </c>
       <c r="DQ3" t="n">
-        <v>2.010390062423539e-06</v>
+        <v>3.436443352100582e-10</v>
       </c>
       <c r="DR3" t="n">
-        <v>4.037582584714983e-06</v>
+        <v>1.576474617515089e-09</v>
       </c>
       <c r="DS3" t="n">
-        <v>1.249664592251065e-06</v>
+        <v>2.653687714015973e-09</v>
       </c>
       <c r="DT3" t="n">
-        <v>5.84428107686108e-07</v>
+        <v>1.955768436090466e-09</v>
       </c>
       <c r="DU3" t="n">
-        <v>2.075354785802119e-07</v>
+        <v>8.873431989186997e-10</v>
       </c>
       <c r="DV3" t="n">
-        <v>9.900445547827985e-07</v>
+        <v>7.137784585609097e-09</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.081925006474194e-06</v>
+        <v>2.344574312473924e-09</v>
       </c>
       <c r="DX3" t="n">
-        <v>5.877902822248871e-06</v>
+        <v>3.839728979215806e-09</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.574423544705496e-06</v>
+        <v>4.811071985244553e-09</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3.248476332373684e-08</v>
+        <v>1.612560418529085e-09</v>
       </c>
       <c r="EA3" t="n">
-        <v>3.186906496921438e-06</v>
+        <v>1.587736830899189e-09</v>
       </c>
       <c r="EB3" t="n">
-        <v>2.49197023549641e-06</v>
+        <v>5.845993911179903e-09</v>
       </c>
       <c r="EC3" t="n">
-        <v>2.635252258187393e-06</v>
+        <v>2.07988648526225e-09</v>
       </c>
       <c r="ED3" t="n">
-        <v>8.839832844387274e-06</v>
+        <v>1.939810756468319e-09</v>
       </c>
       <c r="EE3" t="n">
-        <v>8.589897788624512e-07</v>
+        <v>7.129443702069693e-10</v>
       </c>
       <c r="EF3" t="n">
-        <v>1.598264680069406e-05</v>
+        <v>7.144094205102647e-10</v>
       </c>
       <c r="EG3" t="n">
-        <v>1.513995630375575e-05</v>
+        <v>2.452622549498074e-10</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.317914666287834e-06</v>
+        <v>5.544760206532828e-10</v>
       </c>
       <c r="EI3" t="n">
-        <v>5.218470050749602e-06</v>
+        <v>1.175837316402806e-09</v>
       </c>
       <c r="EJ3" t="n">
-        <v>4.692948550655274e-06</v>
+        <v>2.370411422703e-09</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.435494993984321e-07</v>
+        <v>2.211862248913121e-09</v>
       </c>
       <c r="EL3" t="n">
-        <v>8.290397772725555e-07</v>
+        <v>5.110794010221298e-10</v>
       </c>
       <c r="EM3" t="n">
-        <v>5.864696049684426e-06</v>
+        <v>1.698653218085155e-09</v>
       </c>
       <c r="EN3" t="n">
-        <v>2.05302239919547e-06</v>
+        <v>1.275057948113556e-09</v>
       </c>
       <c r="EO3" t="n">
-        <v>2.661939561221516e-06</v>
+        <v>5.42310585327499e-10</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.017610429698834e-05</v>
+        <v>2.079142413791146e-11</v>
       </c>
       <c r="EQ3" t="n">
-        <v>2.312315700692125e-06</v>
+        <v>3.49780382435938e-09</v>
       </c>
       <c r="ER3" t="n">
-        <v>3.677065706142457e-06</v>
+        <v>2.570614276997674e-10</v>
       </c>
       <c r="ES3" t="n">
-        <v>6.244546057132538e-06</v>
+        <v>3.709709872623534e-09</v>
       </c>
       <c r="ET3" t="n">
-        <v>2.882443368434906e-06</v>
+        <v>1.561689444429248e-09</v>
       </c>
       <c r="EU3" t="n">
-        <v>2.53995267485152e-06</v>
+        <v>4.602040970524968e-12</v>
       </c>
       <c r="EV3" t="n">
-        <v>2.787052835628856e-06</v>
+        <v>6.406626784638547e-09</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.396060383740405e-06</v>
+        <v>1.287224549173516e-09</v>
       </c>
       <c r="EX3" t="n">
-        <v>7.175933660619194e-06</v>
+        <v>8.65500338065317e-10</v>
       </c>
       <c r="EY3" t="n">
-        <v>8.760452146816533e-06</v>
+        <v>2.275450716737737e-09</v>
       </c>
       <c r="EZ3" t="n">
-        <v>1.825810386435478e-06</v>
+        <v>2.434829227127011e-09</v>
       </c>
       <c r="FA3" t="n">
-        <v>3.177158760081511e-06</v>
+        <v>2.40222197689377e-09</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.748848490024102e-06</v>
+        <v>8.753385793980328e-10</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.275017211810336e-06</v>
+        <v>1.94269356157406e-09</v>
       </c>
       <c r="FD3" t="n">
-        <v>2.714432639550068e-06</v>
+        <v>5.648148615478021e-10</v>
       </c>
       <c r="FE3" t="n">
-        <v>3.921665552297782e-07</v>
+        <v>1.90024024293578e-10</v>
       </c>
       <c r="FF3" t="n">
-        <v>3.556637011570274e-07</v>
+        <v>2.578521174356752e-09</v>
       </c>
       <c r="FG3" t="n">
-        <v>6.334476438496495e-06</v>
+        <v>2.799332987635239e-09</v>
       </c>
       <c r="FH3" t="n">
-        <v>5.634465196635574e-07</v>
+        <v>4.453806212723066e-10</v>
       </c>
       <c r="FI3" t="n">
-        <v>2.094505816785386e-06</v>
+        <v>4.921782981170963e-09</v>
       </c>
       <c r="FJ3" t="n">
-        <v>3.443895820964826e-06</v>
+        <v>3.254055469525952e-09</v>
       </c>
       <c r="FK3" t="n">
-        <v>4.833394086745102e-06</v>
+        <v>1.529773419051139e-09</v>
       </c>
       <c r="FL3" t="n">
-        <v>2.902945425375947e-06</v>
+        <v>4.433030886819012e-10</v>
       </c>
       <c r="FM3" t="n">
-        <v>2.230317477369681e-06</v>
+        <v>2.032425117093339e-09</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.660554744375986e-06</v>
+        <v>5.735176777932338e-09</v>
       </c>
       <c r="FO3" t="n">
-        <v>5.539378093999403e-07</v>
+        <v>1.333516352897135e-10</v>
       </c>
       <c r="FP3" t="n">
-        <v>4.188504135527182e-06</v>
+        <v>2.23224327910998e-09</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.208233516081236e-05</v>
+        <v>1.418214656823125e-09</v>
       </c>
       <c r="FR3" t="n">
-        <v>3.486685727693839e-06</v>
+        <v>1.879573829910441e-09</v>
       </c>
       <c r="FS3" t="n">
-        <v>2.575092821643921e-06</v>
+        <v>2.886549888003742e-10</v>
       </c>
       <c r="FT3" t="n">
-        <v>5.760510930485907e-07</v>
+        <v>1.185652465096609e-08</v>
       </c>
       <c r="FU3" t="n">
-        <v>2.908260285039432e-06</v>
+        <v>2.188473624542553e-09</v>
       </c>
       <c r="FV3" t="n">
-        <v>2.391476755292388e-06</v>
+        <v>1.9373933568545e-09</v>
       </c>
       <c r="FW3" t="n">
-        <v>3.577473762561567e-06</v>
+        <v>8.771303683374754e-10</v>
       </c>
       <c r="FX3" t="n">
-        <v>3.039332113985438e-06</v>
+        <v>5.970495209339788e-10</v>
       </c>
       <c r="FY3" t="n">
-        <v>8.292930942843668e-06</v>
+        <v>3.829414119138619e-09</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.162067746918183e-06</v>
+        <v>1.485451095462054e-09</v>
       </c>
       <c r="GA3" t="n">
-        <v>3.38666063726123e-06</v>
+        <v>1.491042844747881e-09</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.185196424557944e-06</v>
+        <v>1.346407207947209e-09</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.696717276900017e-06</v>
+        <v>4.653641472174286e-09</v>
       </c>
       <c r="GD3" t="n">
-        <v>4.323969733377453e-06</v>
+        <v>4.571355738391958e-09</v>
       </c>
       <c r="GE3" t="n">
-        <v>3.122308953606989e-06</v>
+        <v>6.229492477416443e-09</v>
       </c>
       <c r="GF3" t="n">
-        <v>1.493219315307215e-06</v>
+        <v>1.796018000987942e-09</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.835613034018024e-06</v>
+        <v>3.422727434809758e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002354516880586743</v>
+        <v>0.0005771024734713137</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0004252187500242144</v>
+        <v>0.004974663723260164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003356436733156443</v>
+        <v>0.0004089342837687582</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000604635919444263</v>
+        <v>0.001239048084244132</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007772546960040927</v>
+        <v>0.0003769415779970586</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004072394804097712</v>
+        <v>0.003316868329420686</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0006595897721126676</v>
+        <v>0.0003632458974607289</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008558793924748898</v>
+        <v>0.001318353693932295</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001016374881146476</v>
+        <v>0.0003994864819105715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002205914119258523</v>
+        <v>0.0008084414293989539</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001413793070241809</v>
+        <v>0.004669442307204008</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003035725094377995</v>
+        <v>7.879140321165323e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0004303586902096868</v>
+        <v>0.001086859381757677</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000630971509963274</v>
+        <v>0.0004276010440662503</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0003860603319481015</v>
+        <v>0.002763615222647786</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0008043291163630784</v>
+        <v>0.0001277661940548569</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001396216219291091</v>
+        <v>0.0004033671866636723</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0007560454541817307</v>
+        <v>0.0005520108970813453</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0003133946738671511</v>
+        <v>7.795965211698785e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001283545279875398</v>
+        <v>0.0003713583282660693</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003305510617792606</v>
+        <v>0.0001088162389351055</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0004695628304034472</v>
+        <v>0.0004248151089996099</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0008246947545558214</v>
+        <v>0.0006534760468639433</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0002009003947023302</v>
+        <v>0.0001467937545385212</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0002084487641695887</v>
+        <v>0.0001620704424567521</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0007963499519973993</v>
+        <v>0.0007277175900526345</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0001966669515240937</v>
+        <v>0.0003984159848187119</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0001995493803406134</v>
+        <v>4.055889439769089e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0005328969564288855</v>
+        <v>0.0001179402388515882</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0005139826680533588</v>
+        <v>0.0001111245946958661</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0002292825956828892</v>
+        <v>7.935341272968799e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0004669181944336742</v>
+        <v>4.822594928555191e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0006603445508517325</v>
+        <v>0.000205260599614121</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.073879972565919e-05</v>
+        <v>9.902739839162678e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0006654004100710154</v>
+        <v>1.610272374819033e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0005370074650272727</v>
+        <v>3.435754479141906e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0006317191291600466</v>
+        <v>0.0006725655402988195</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.001237605465576053</v>
+        <v>0.0003315731592010707</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0004408952954690903</v>
+        <v>5.379309004638344e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0007952442392706871</v>
+        <v>0.0002375035546720028</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0001740508159855381</v>
+        <v>7.803532207617536e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0007460314664058387</v>
+        <v>0.0007166836876422167</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.552089426899329e-05</v>
+        <v>0.0001352414983557537</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0002959350822493434</v>
+        <v>0.0002576708211563528</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.630427323107142e-05</v>
+        <v>0.0004856211016885936</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.001121701672673225</v>
+        <v>0.0001316210982622579</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.001400636159814894</v>
+        <v>0.002732326509431005</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001706996001303196</v>
+        <v>0.000351382332155481</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0002882782428059727</v>
+        <v>0.0003308120940346271</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0001530654408270493</v>
+        <v>0.0003337915404699743</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0003126992669422179</v>
+        <v>0.001671246718615294</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.000153304252307862</v>
+        <v>0.0008872932521626353</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0005153522361069918</v>
+        <v>0.0003338464593980461</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0006821805727668107</v>
+        <v>0.0007943118689581752</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0004509684222284704</v>
+        <v>0.0002694679133128375</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0001662167196627706</v>
+        <v>0.001147042610682547</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0009874578099697828</v>
+        <v>0.001047824276611209</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0004361793398857117</v>
+        <v>0.0002398980723228306</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0005847990978509188</v>
+        <v>0.0002781382645480335</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0003904329787474126</v>
+        <v>0.0006595614831894636</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0006735118804499507</v>
+        <v>0.000154363558976911</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0003734223428182304</v>
+        <v>0.0003942702314816415</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0004539165529422462</v>
+        <v>0.0005307948449626565</v>
       </c>
       <c r="BL4" t="n">
-        <v>4.916471516480669e-05</v>
+        <v>0.0002238723973277956</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0007054018205963075</v>
+        <v>0.0008835510816425085</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0007281283615157008</v>
+        <v>0.0004779844894073904</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0001640884584048763</v>
+        <v>7.703420124016702e-06</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0006279848166741431</v>
+        <v>0.0004994742339476943</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.0001478695630794391</v>
+        <v>7.671621278859675e-05</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0004177935479674488</v>
+        <v>6.274960469454527e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0007714908570051193</v>
+        <v>0.0002638435980770737</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0003371572238393128</v>
+        <v>0.0001230862981174141</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0009771590121090412</v>
+        <v>3.273671245551668e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0004804459749720991</v>
+        <v>0.001780475256964564</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.0009461779845878482</v>
+        <v>0.0003191118885297328</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0005344706005416811</v>
+        <v>0.0002452172338962555</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0003346330195199698</v>
+        <v>0.0001181519837700762</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.000673887028824538</v>
+        <v>0.0005854091141372919</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0001180513500003144</v>
+        <v>5.978133413009346e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0004996906500309706</v>
+        <v>0.0001009318220894784</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0002323445078218356</v>
+        <v>0.0003697169304359704</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.0004506453988142312</v>
+        <v>8.856532804202288e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0007671534549444914</v>
+        <v>0.0008657994912937284</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.000679288525134325</v>
+        <v>0.0003391310747247189</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0001065280957845971</v>
+        <v>9.588690591044724e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0001363753981422633</v>
+        <v>0.0002285038935951889</v>
       </c>
       <c r="CI4" t="n">
-        <v>3.422156441956758e-05</v>
+        <v>0.0004347097419667989</v>
       </c>
       <c r="CJ4" t="n">
-        <v>9.0800691395998e-05</v>
+        <v>0.0002886730362661183</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.0004925755201838911</v>
+        <v>0.0002495498047210276</v>
       </c>
       <c r="CL4" t="n">
-        <v>8.0618861829862e-05</v>
+        <v>0.0003276727511547506</v>
       </c>
       <c r="CM4" t="n">
-        <v>4.933040327159688e-05</v>
+        <v>0.001094976789318025</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0007202442502602935</v>
+        <v>0.0004829751560464501</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0003244685940444469</v>
+        <v>1.465510649723001e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0002499448892194778</v>
+        <v>0.001075496664270759</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0002869116433430463</v>
+        <v>0.0004383531340863556</v>
       </c>
       <c r="CR4" t="n">
-        <v>7.946124242153019e-05</v>
+        <v>0.001140284119173884</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.00027393241180107</v>
+        <v>0.0008946896414272487</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0004172268672846258</v>
+        <v>0.000781742506660521</v>
       </c>
       <c r="CU4" t="n">
-        <v>9.95682057691738e-05</v>
+        <v>0.0002371762675466016</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0004312936507631093</v>
+        <v>6.461502198362723e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0008275072323158383</v>
+        <v>0.0008512447820976377</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0007432134007103741</v>
+        <v>0.0003773046482820064</v>
       </c>
       <c r="CY4" t="n">
-        <v>7.665290468139574e-05</v>
+        <v>0.0003199713537469506</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.000478870642837137</v>
+        <v>0.0001913229934871197</v>
       </c>
       <c r="DA4" t="n">
-        <v>2.005935675697401e-05</v>
+        <v>0.0004694237723015249</v>
       </c>
       <c r="DB4" t="n">
-        <v>4.069873102707788e-05</v>
+        <v>0.0002740625932347029</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.0003886281047016382</v>
+        <v>0.0005163231980986893</v>
       </c>
       <c r="DD4" t="n">
-        <v>5.51382327103056e-05</v>
+        <v>0.0002475809014867991</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0001151264004874974</v>
+        <v>0.0003377607208676636</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.001355592627078295</v>
+        <v>0.001024027820676565</v>
       </c>
       <c r="DG4" t="n">
-        <v>5.989792771288194e-05</v>
+        <v>0.000168309808941558</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0001322912867181003</v>
+        <v>0.0008175015682354569</v>
       </c>
       <c r="DI4" t="n">
-        <v>2.591542943264358e-05</v>
+        <v>0.001345511060208082</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2.282364584971219e-05</v>
+        <v>0.0007523530512116849</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0002033969212789088</v>
+        <v>0.0002425070997560397</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0003496792342048138</v>
+        <v>0.0007787880022078753</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.0002022038388531655</v>
+        <v>0.001004621502943337</v>
       </c>
       <c r="DN4" t="n">
-        <v>9.22556355362758e-05</v>
+        <v>0.0002388607827015221</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0007270092028193176</v>
+        <v>0.000470401719212532</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0001403689238941297</v>
+        <v>0.0003327695885673165</v>
       </c>
       <c r="DQ4" t="n">
-        <v>6.35311589576304e-05</v>
+        <v>0.0003788528265431523</v>
       </c>
       <c r="DR4" t="n">
-        <v>4.039143823320046e-05</v>
+        <v>0.0003619967319536954</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0007576781208626926</v>
+        <v>0.0004383494087960571</v>
       </c>
       <c r="DT4" t="n">
-        <v>5.508685717359185e-05</v>
+        <v>0.0004589098098222166</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0003542419290170074</v>
+        <v>0.0002353305753786117</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0002010679745581001</v>
+        <v>6.853895320091397e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>9.519020386505872e-05</v>
+        <v>3.336512600071728e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0002859279629774392</v>
+        <v>0.0006094630225561559</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0002237155567854643</v>
+        <v>0.0002918093232437968</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0001506538828834891</v>
+        <v>0.000317262951284647</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0006536021828651428</v>
+        <v>0.0004248965997248888</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0006931324605830014</v>
+        <v>0.0004657743265852332</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.0003474772383924574</v>
+        <v>0.000134582631289959</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0008807765552774072</v>
+        <v>0.0001698965788818896</v>
       </c>
       <c r="EE4" t="n">
-        <v>8.451090980088338e-05</v>
+        <v>0.0008021392859518528</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0008461568504571915</v>
+        <v>0.0005380400107242167</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0007831844850443304</v>
+        <v>0.0008031110046431422</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0007587121799588203</v>
+        <v>0.0004963247338309884</v>
       </c>
       <c r="EI4" t="n">
-        <v>6.936001591384411e-05</v>
+        <v>3.465386544121429e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>5.78163999307435e-05</v>
+        <v>0.0001187793459394015</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.0004758733848575503</v>
+        <v>3.214291064068675e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0002446364378556609</v>
+        <v>0.0002662402403075248</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.001046526478603482</v>
+        <v>3.411633224459365e-05</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.0004238868714310229</v>
+        <v>0.0001650984777370468</v>
       </c>
       <c r="EO4" t="n">
-        <v>2.047975431196392e-05</v>
+        <v>8.594688551966101e-06</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0006287478609010577</v>
+        <v>0.0005969742778688669</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.106190029531717e-05</v>
+        <v>0.0001184266875497997</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.000421655218815431</v>
+        <v>0.0002579508582130075</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0001431153796147555</v>
+        <v>0.0004791374667547643</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.000743586104363203</v>
+        <v>6.464761827373877e-05</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0001815637515392154</v>
+        <v>0.0008785936515778303</v>
       </c>
       <c r="EV4" t="n">
-        <v>7.263573206728324e-05</v>
+        <v>0.001216894015669823</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0002625483903102577</v>
+        <v>0.000149600047734566</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.0004556808853521943</v>
+        <v>0.0001543554535601288</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0006656114128418267</v>
+        <v>0.0007986095151863992</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0007239995175041258</v>
+        <v>0.0002551430370658636</v>
       </c>
       <c r="FA4" t="n">
-        <v>2.484846663719509e-05</v>
+        <v>7.379001908702776e-05</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0004028417752124369</v>
+        <v>0.000158086812007241</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.0001026010868372396</v>
+        <v>0.0003923579934053123</v>
       </c>
       <c r="FD4" t="n">
-        <v>4.369739485809987e-07</v>
+        <v>0.0004376435535959899</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.0005551538779400289</v>
+        <v>0.0003857370174955577</v>
       </c>
       <c r="FF4" t="n">
-        <v>9.542793122818694e-05</v>
+        <v>0.0003787712776102126</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0006423587910830975</v>
+        <v>0.0002479639078956097</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0003301961987745017</v>
+        <v>0.0002990103384945542</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0005875794449821115</v>
+        <v>0.0002573147648945451</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0008366219117306173</v>
+        <v>0.0006636810721829534</v>
       </c>
       <c r="FK4" t="n">
-        <v>8.016555511858314e-05</v>
+        <v>0.0003221658698748797</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0002302893117303029</v>
+        <v>0.0003309314779471606</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0003869957581628114</v>
+        <v>0.0002475739747751504</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0006234124302864075</v>
+        <v>0.0003886115446221083</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0006119139725342393</v>
+        <v>0.0001210597838507965</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.0001925694523379207</v>
+        <v>0.0004296586848795414</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.001927522011101246</v>
+        <v>0.0003617112815845758</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0005592158995568752</v>
+        <v>0.000688987725879997</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0005431311437860131</v>
+        <v>0.0002259055327158421</v>
       </c>
       <c r="FT4" t="n">
-        <v>5.051928746979684e-05</v>
+        <v>0.0002013542398344725</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0002936124510597438</v>
+        <v>0.0005394534091465175</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.0003743183333426714</v>
+        <v>0.0001579647941980511</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.0001894543092930689</v>
+        <v>0.0001732573146000504</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0002552077057771385</v>
+        <v>0.0002756107714958489</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0007571571040898561</v>
+        <v>0.0005984271410852671</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0002658237353898585</v>
+        <v>0.0004132075991947204</v>
       </c>
       <c r="GA4" t="n">
-        <v>8.481176337227225e-06</v>
+        <v>0.0004130032612010837</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.000265819049673155</v>
+        <v>0.0001093890168704093</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.00032097237999551</v>
+        <v>0.000388205808121711</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.0007373252883553505</v>
+        <v>0.0004434413567651063</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0003199712955392897</v>
+        <v>0.0007671568891964853</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0001844707294367254</v>
+        <v>0.0003015713882632554</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0002910521870944649</v>
+        <v>0.0002804672403726727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001083966111764312</v>
+        <v>0.000764468451961875</v>
       </c>
       <c r="B5" t="n">
-        <v>3.285016282461584e-05</v>
+        <v>0.01806899346411228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008602532325312495</v>
+        <v>0.00093704869505018</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002528586774133146</v>
+        <v>0.005316698923707008</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001065551259671338</v>
+        <v>0.006376648787409067</v>
       </c>
       <c r="F5" t="n">
-        <v>4.876844468526542e-05</v>
+        <v>0.01174366753548384</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003726515278685838</v>
+        <v>0.002048744820058346</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002127737679984421</v>
+        <v>0.003120846580713987</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002356353943469003</v>
+        <v>0.001218361780047417</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0009660475188866258</v>
+        <v>0.002362097846344113</v>
       </c>
       <c r="K5" t="n">
-        <v>4.420283221406862e-05</v>
+        <v>0.01915952377021313</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009119481546804309</v>
+        <v>0.0003513519186526537</v>
       </c>
       <c r="M5" t="n">
-        <v>0.000201643182663247</v>
+        <v>0.003765707369893789</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0006233808817341924</v>
+        <v>0.002832596888765693</v>
       </c>
       <c r="O5" t="n">
-        <v>8.551512109988835e-06</v>
+        <v>0.01070560608059168</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0005740875494666398</v>
+        <v>0.002097982913255692</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.000160899551701732</v>
+        <v>0.001015484565868974</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0003266966668888927</v>
+        <v>0.0005205097841098905</v>
       </c>
       <c r="S5" t="n">
-        <v>7.27554433979094e-05</v>
+        <v>0.000610179384239018</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0002821865491569042</v>
+        <v>0.00180720875505358</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0001013493892969564</v>
+        <v>0.001357704168185592</v>
       </c>
       <c r="V5" t="n">
-        <v>5.364025582821341e-06</v>
+        <v>0.002427314640954137</v>
       </c>
       <c r="W5" t="n">
-        <v>9.963534830603749e-05</v>
+        <v>0.001905281678773463</v>
       </c>
       <c r="X5" t="n">
-        <v>2.920023689512163e-06</v>
+        <v>0.0009358823299407959</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.943816358922049e-05</v>
+        <v>0.0003622365475166589</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.000267338560661301</v>
+        <v>0.001278931740671396</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.644427513587289e-05</v>
+        <v>0.001350188511423767</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001366726792184636</v>
+        <v>0.001150052063167095</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0001130672171711922</v>
+        <v>0.001039483584463596</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.475889338413253e-05</v>
+        <v>0.002512376522645354</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.000127137202071026</v>
+        <v>0.001803095219656825</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.517503086593933e-05</v>
+        <v>7.558934157714248e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0002221804897999391</v>
+        <v>0.001415615435689688</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.471736585604958e-05</v>
+        <v>0.000355861964635551</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0003156340098939836</v>
+        <v>0.001090591074898839</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0001417846215190366</v>
+        <v>0.001437325496226549</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0001964014081750065</v>
+        <v>0.001878150273114443</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0002923563006334007</v>
+        <v>0.002560976427048445</v>
       </c>
       <c r="AM5" t="n">
-        <v>5.847867578268051e-05</v>
+        <v>0.002294081496074796</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0001733688550302759</v>
+        <v>9.757120278663933e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.012450492358766e-05</v>
+        <v>0.0005897164810448885</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0001626576413400471</v>
+        <v>0.00134320673532784</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.247597750392742e-06</v>
+        <v>0.0003548663516994566</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.109819979523309e-05</v>
+        <v>0.0007106041302904487</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.601607775432058e-05</v>
+        <v>0.00104380608536303</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0005003804108127952</v>
+        <v>0.001073335530236363</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0002052483177976683</v>
+        <v>0.0113259581848979</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0004006654780823737</v>
+        <v>0.003105471841990948</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0001296662230743095</v>
+        <v>0.0006774658686481416</v>
       </c>
       <c r="AX5" t="n">
-        <v>3.533354174578562e-05</v>
+        <v>0.0009494919213466346</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.000152312422869727</v>
+        <v>0.005627232138067484</v>
       </c>
       <c r="AZ5" t="n">
-        <v>7.935678877402097e-05</v>
+        <v>0.001679497538134456</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0001883561926661059</v>
+        <v>0.0001355764688923955</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0001447558170184493</v>
+        <v>0.0009463521419093013</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0002514902735128999</v>
+        <v>0.0008261841721832752</v>
       </c>
       <c r="BD5" t="n">
-        <v>5.176257036509924e-05</v>
+        <v>0.003890244290232658</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.000360487902071327</v>
+        <v>0.003256524447351694</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.808389399433509e-05</v>
+        <v>0.0002775084285531193</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0001521811209386215</v>
+        <v>0.005210649687796831</v>
       </c>
       <c r="BH5" t="n">
-        <v>6.83914367982652e-06</v>
+        <v>0.005717092659324408</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0001325944613199681</v>
+        <v>0.001241746358573437</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0001880056079244241</v>
+        <v>0.0003916898858733475</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0001519851211924106</v>
+        <v>0.0006222397787496448</v>
       </c>
       <c r="BL5" t="n">
-        <v>5.775685713160783e-05</v>
+        <v>0.002491889288648963</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0001800706231733784</v>
+        <v>0.002336620818823576</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0001584801357239485</v>
+        <v>0.0005702084163203835</v>
       </c>
       <c r="BO5" t="n">
-        <v>4.888470721198246e-05</v>
+        <v>0.0001993255427805707</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0002374791074544191</v>
+        <v>0.001826070831157267</v>
       </c>
       <c r="BQ5" t="n">
-        <v>8.712509952601977e-06</v>
+        <v>0.0005947010358795524</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0001244335726369172</v>
+        <v>0.0009443324524909258</v>
       </c>
       <c r="BS5" t="n">
-        <v>7.836330769350752e-05</v>
+        <v>0.001008659484796226</v>
       </c>
       <c r="BT5" t="n">
-        <v>8.011994214029983e-05</v>
+        <v>0.0004204838769510388</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0003592341090552509</v>
+        <v>0.0005814715987071395</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0001053005034918897</v>
+        <v>0.006888566073030233</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0001417107996530831</v>
+        <v>0.0007190695032477379</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0002211789251305163</v>
+        <v>0.001691934419795871</v>
       </c>
       <c r="BY5" t="n">
-        <v>4.249762059771456e-05</v>
+        <v>0.0001598598319105804</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0001897540641948581</v>
+        <v>0.001032817643135786</v>
       </c>
       <c r="CA5" t="n">
-        <v>5.033749403082766e-05</v>
+        <v>0.0005699283210560679</v>
       </c>
       <c r="CB5" t="n">
-        <v>9.881127334665507e-05</v>
+        <v>0.0001641449925955385</v>
       </c>
       <c r="CC5" t="n">
-        <v>5.799208156531677e-05</v>
+        <v>0.00107300968375057</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0002126975159626454</v>
+        <v>9.663710079621524e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0002354064636165276</v>
+        <v>0.003119596047326922</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0001963121467269957</v>
+        <v>0.0004091945302207023</v>
       </c>
       <c r="CG5" t="n">
-        <v>5.319768388289958e-05</v>
+        <v>0.00108615995850414</v>
       </c>
       <c r="CH5" t="n">
-        <v>4.352391988504678e-05</v>
+        <v>9.19846206670627e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>2.106548163283151e-05</v>
+        <v>0.002016023267060518</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0001066679396899417</v>
+        <v>0.001805417239665985</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0001098691718652844</v>
+        <v>0.000280327774817124</v>
       </c>
       <c r="CL5" t="n">
-        <v>8.207540304283611e-06</v>
+        <v>0.0004251926438882947</v>
       </c>
       <c r="CM5" t="n">
-        <v>1.422169316356303e-05</v>
+        <v>0.004144058562815189</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0002932198985945433</v>
+        <v>0.001598765840753913</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0001082615999621339</v>
+        <v>0.000117470946861431</v>
       </c>
       <c r="CP5" t="n">
-        <v>3.85434104828164e-05</v>
+        <v>0.002375355456024408</v>
       </c>
       <c r="CQ5" t="n">
-        <v>2.236619184259325e-05</v>
+        <v>0.001330534345470369</v>
       </c>
       <c r="CR5" t="n">
-        <v>5.13975610374473e-05</v>
+        <v>5.454419806483202e-05</v>
       </c>
       <c r="CS5" t="n">
-        <v>2.595644764369354e-05</v>
+        <v>0.003544246777892113</v>
       </c>
       <c r="CT5" t="n">
-        <v>1.342860377917532e-05</v>
+        <v>0.003356714965775609</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0002014888450503349</v>
+        <v>0.0009975009597837925</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.000183485506568104</v>
+        <v>7.210395415313542e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0002117201220244169</v>
+        <v>0.002897170837968588</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0002122153964592144</v>
+        <v>0.0002198495203629136</v>
       </c>
       <c r="CY5" t="n">
-        <v>5.573851376539096e-05</v>
+        <v>0.001579901669174433</v>
       </c>
       <c r="CZ5" t="n">
-        <v>6.598375330213457e-05</v>
+        <v>0.0002221314935013652</v>
       </c>
       <c r="DA5" t="n">
-        <v>5.975537078484194e-07</v>
+        <v>0.002137304982170463</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.000111643377749715</v>
+        <v>0.001723106019198895</v>
       </c>
       <c r="DC5" t="n">
-        <v>7.080394425429404e-05</v>
+        <v>0.0005554380477406085</v>
       </c>
       <c r="DD5" t="n">
-        <v>9.30747228267137e-06</v>
+        <v>0.0001573315385030583</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0001047910191118717</v>
+        <v>0.001539138378575444</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0003650915459729731</v>
+        <v>0.003869823412969708</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.687061740085483e-05</v>
+        <v>0.0006068335496820509</v>
       </c>
       <c r="DH5" t="n">
-        <v>7.764073961880058e-05</v>
+        <v>0.002803790383040905</v>
       </c>
       <c r="DI5" t="n">
-        <v>2.539498018450104e-05</v>
+        <v>0.004814127460122108</v>
       </c>
       <c r="DJ5" t="n">
-        <v>5.094230436952785e-05</v>
+        <v>0.001681815017946064</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0001445339003112167</v>
+        <v>0.001333677559159696</v>
       </c>
       <c r="DL5" t="n">
-        <v>3.81647223548498e-05</v>
+        <v>0.0002639006997924298</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0001681248540990055</v>
+        <v>0.002562227658927441</v>
       </c>
       <c r="DN5" t="n">
-        <v>3.088894300162792e-05</v>
+        <v>2.438219962641597e-05</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0002831349556799978</v>
+        <v>0.0005185230984352529</v>
       </c>
       <c r="DP5" t="n">
-        <v>7.150977035053074e-05</v>
+        <v>0.001731055090203881</v>
       </c>
       <c r="DQ5" t="n">
-        <v>4.011513374280185e-05</v>
+        <v>0.001918542780913413</v>
       </c>
       <c r="DR5" t="n">
-        <v>2.604664132377366e-06</v>
+        <v>0.001153097720816731</v>
       </c>
       <c r="DS5" t="n">
-        <v>8.640836313134059e-05</v>
+        <v>0.001604973222129047</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.675828389124945e-05</v>
+        <v>9.144918294623494e-05</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.750159390212502e-05</v>
+        <v>0.0006108140805736184</v>
       </c>
       <c r="DV5" t="n">
-        <v>9.798969404073432e-05</v>
+        <v>0.0005805273540318012</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.727870221657213e-05</v>
+        <v>0.001021307893097401</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0001195491131511517</v>
+        <v>0.002146414946764708</v>
       </c>
       <c r="DY5" t="n">
-        <v>5.671570761478506e-06</v>
+        <v>0.0009892666712403297</v>
       </c>
       <c r="DZ5" t="n">
-        <v>5.919749673921615e-05</v>
+        <v>0.0007347101345658302</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0001719895954011008</v>
+        <v>0.001136300386860967</v>
       </c>
       <c r="EB5" t="n">
-        <v>7.304924656637013e-05</v>
+        <v>0.001640645554289222</v>
       </c>
       <c r="EC5" t="n">
-        <v>3.141763590974733e-05</v>
+        <v>0.001594779663719237</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0002468546736054122</v>
+        <v>0.002045923611149192</v>
       </c>
       <c r="EE5" t="n">
-        <v>2.866425711545162e-05</v>
+        <v>0.0006145373918116093</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0003528476518113166</v>
+        <v>9.09301161300391e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0002701679477468133</v>
+        <v>0.003345363074913621</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0001812734262784943</v>
+        <v>0.0004090658621862531</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0001002652425086126</v>
+        <v>0.001108984230086207</v>
       </c>
       <c r="EJ5" t="n">
-        <v>5.327138569555245e-05</v>
+        <v>0.0002960688434541225</v>
       </c>
       <c r="EK5" t="n">
-        <v>2.536157262511551e-05</v>
+        <v>0.001794645795598626</v>
       </c>
       <c r="EL5" t="n">
-        <v>2.575120925030205e-05</v>
+        <v>0.00158991850912571</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0002332140866201371</v>
+        <v>0.001040622708387673</v>
       </c>
       <c r="EN5" t="n">
-        <v>9.776964725460857e-05</v>
+        <v>0.000543212634511292</v>
       </c>
       <c r="EO5" t="n">
-        <v>5.374113607103936e-05</v>
+        <v>0.0001418631873093545</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0001303469471167773</v>
+        <v>0.002384066116064787</v>
       </c>
       <c r="EQ5" t="n">
-        <v>5.614149267785251e-05</v>
+        <v>0.0001845589140430093</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0001628652244107798</v>
+        <v>0.0002386429405305535</v>
       </c>
       <c r="ES5" t="n">
-        <v>6.509125523734838e-05</v>
+        <v>0.0008263649069704115</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0002321679203305393</v>
+        <v>0.001578424707986414</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0002315163874300197</v>
+        <v>0.001638583955354989</v>
       </c>
       <c r="EV5" t="n">
-        <v>3.513961564749479e-05</v>
+        <v>0.002127572661265731</v>
       </c>
       <c r="EW5" t="n">
-        <v>9.508257790002972e-05</v>
+        <v>0.001355582848191261</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0001725194160826504</v>
+        <v>0.0003119652392342687</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0002045617147814482</v>
+        <v>0.002778553869575262</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.000211627411772497</v>
+        <v>0.0002322797372471541</v>
       </c>
       <c r="FA5" t="n">
-        <v>5.500666884472594e-05</v>
+        <v>0.0009999503381550312</v>
       </c>
       <c r="FB5" t="n">
-        <v>1.661020360188559e-05</v>
+        <v>0.0005356902256608009</v>
       </c>
       <c r="FC5" t="n">
-        <v>2.20292349695228e-05</v>
+        <v>0.002199431415647268</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0001102063688449562</v>
+        <v>0.001665772637352347</v>
       </c>
       <c r="FE5" t="n">
-        <v>9.223494998877868e-05</v>
+        <v>9.136101289186627e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>2.877617407648358e-05</v>
+        <v>0.0003677012282423675</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0001807062071748078</v>
+        <v>0.0002044881111942232</v>
       </c>
       <c r="FH5" t="n">
-        <v>1.743369284668006e-05</v>
+        <v>0.001368745230138302</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0001369038945995271</v>
+        <v>0.0006900145672261715</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0002051901974482462</v>
+        <v>0.003148133400827646</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0001855264417827129</v>
+        <v>2.908476017182693e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0002303363580722362</v>
+        <v>0.001004987629130483</v>
       </c>
       <c r="FM5" t="n">
-        <v>5.427209543995559e-07</v>
+        <v>0.0002869214513339102</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0001786806096788496</v>
+        <v>0.0003884472243953496</v>
       </c>
       <c r="FO5" t="n">
-        <v>9.005063475342467e-05</v>
+        <v>0.0003947429649997503</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0001355290878564119</v>
+        <v>0.001440352760255337</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0005820189253427088</v>
+        <v>0.003150528995320201</v>
       </c>
       <c r="FR5" t="n">
-        <v>4.573211845126934e-05</v>
+        <v>0.001188452122732997</v>
       </c>
       <c r="FS5" t="n">
-        <v>8.381732914131135e-05</v>
+        <v>0.001372435828670859</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0001183433705591597</v>
+        <v>0.00205652741715312</v>
       </c>
       <c r="FU5" t="n">
-        <v>9.970747487386689e-05</v>
+        <v>0.0003830263740383089</v>
       </c>
       <c r="FV5" t="n">
-        <v>4.4293723476585e-05</v>
+        <v>0.001436226884834468</v>
       </c>
       <c r="FW5" t="n">
-        <v>3.170911804772913e-05</v>
+        <v>0.002730839420109987</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.0001584398123668507</v>
+        <v>0.0004179435491096228</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0002105603198288009</v>
+        <v>0.002164729638025165</v>
       </c>
       <c r="FZ5" t="n">
-        <v>7.118753273971379e-05</v>
+        <v>0.0002292276185471565</v>
       </c>
       <c r="GA5" t="n">
-        <v>5.262423655949533e-05</v>
+        <v>0.0004488844133447856</v>
       </c>
       <c r="GB5" t="n">
-        <v>2.132562804035842e-05</v>
+        <v>2.057247911579907e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>8.928474562708288e-05</v>
+        <v>0.001029119128361344</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0002872116747312248</v>
+        <v>0.0002620379964355379</v>
       </c>
       <c r="GE5" t="n">
-        <v>9.96272501652129e-05</v>
+        <v>0.002903996268287301</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0001244488375959918</v>
+        <v>0.001519991550594568</v>
       </c>
       <c r="GG5" t="n">
-        <v>4.822499977308325e-05</v>
+        <v>0.001046576071530581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0001094066756195389</v>
+        <v>6.113253675721353e-06</v>
       </c>
       <c r="B6" t="n">
-        <v>3.847319021588191e-05</v>
+        <v>8.693249401403591e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>3.507878545860876e-06</v>
+        <v>7.582895705127157e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>3.978006861871108e-05</v>
+        <v>2.920752012869343e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>3.401662615942769e-05</v>
+        <v>1.467184301873203e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>2.340709033887833e-05</v>
+        <v>1.352016624878161e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>2.978899283334613e-05</v>
+        <v>8.686994988238439e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>5.031697128288215e-06</v>
+        <v>8.439671546511818e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>2.000980657612672e-06</v>
+        <v>5.330287422111724e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>9.855539974523708e-05</v>
+        <v>1.422006971552037e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.086143831547815e-05</v>
+        <v>6.849703640909865e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.249716842721682e-05</v>
+        <v>3.010917907886324e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>3.016276605194435e-05</v>
+        <v>2.989869972225279e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>5.534546653507277e-05</v>
+        <v>2.269712240376975e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>6.926303740328876e-06</v>
+        <v>2.848147414624691e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>3.166706665069796e-05</v>
+        <v>1.218749093823135e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.686819243535865e-06</v>
+        <v>3.68545192941383e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.387644806527533e-05</v>
+        <v>1.095101424652967e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>2.44680404648534e-06</v>
+        <v>4.732526122097624e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>4.381884536996949e-06</v>
+        <v>1.179684204544174e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.127793780142383e-06</v>
+        <v>5.189682724449085e-06</v>
       </c>
       <c r="V6" t="n">
-        <v>8.061821063165553e-06</v>
+        <v>4.540174813882913e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.682489482845995e-06</v>
+        <v>3.454770876487601e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>6.395728178176796e-06</v>
+        <v>1.165019148174906e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.192483513383195e-06</v>
+        <v>6.014343853166793e-06</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.101701218431117e-05</v>
+        <v>1.50614432641305e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.424123744684039e-06</v>
+        <v>1.124100162996911e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.370419158774894e-05</v>
+        <v>6.473206667578779e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.37138634576695e-06</v>
+        <v>7.407351404253859e-06</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.422791789693292e-06</v>
+        <v>9.032137313624844e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.447048473186442e-06</v>
+        <v>6.136401680123527e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.271482450552867e-07</v>
+        <v>9.430984846403589e-07</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.866775498157949e-07</v>
+        <v>1.359986072202446e-06</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.215878228322254e-06</v>
+        <v>5.409335244621616e-06</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.044137702090666e-05</v>
+        <v>2.939520982181421e-06</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.080745005310746e-05</v>
+        <v>2.080784952340764e-06</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.269938158860896e-05</v>
+        <v>6.777444468752947e-06</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.696080471447203e-05</v>
+        <v>9.488689101999626e-06</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.483691777248168e-06</v>
+        <v>2.235373131043161e-06</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.690336648607627e-05</v>
+        <v>4.434200491232332e-06</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.809873517951928e-06</v>
+        <v>8.730968147574458e-06</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.106700079224538e-06</v>
+        <v>1.380164576403331e-06</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6.272250629990594e-07</v>
+        <v>8.647217555335374e-07</v>
       </c>
       <c r="AR6" t="n">
-        <v>6.447327905334532e-06</v>
+        <v>4.472766477192636e-07</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.832327593045193e-07</v>
+        <v>6.692820079479134e-06</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.960176374879666e-05</v>
+        <v>6.995707281021168e-06</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.956905518658459e-06</v>
+        <v>5.391734521253966e-05</v>
       </c>
       <c r="AV6" t="n">
-        <v>5.832490842294646e-06</v>
+        <v>4.4958969738218e-06</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.229663848789642e-05</v>
+        <v>1.136140417656861e-05</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.051785693562124e-05</v>
+        <v>6.022938578098547e-06</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.949416582647245e-05</v>
+        <v>8.795093890512362e-06</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3.066597855649889e-07</v>
+        <v>6.315708105830709e-06</v>
       </c>
       <c r="BA6" t="n">
-        <v>4.427686235430883e-06</v>
+        <v>5.154265636519995e-07</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.526392563595437e-06</v>
+        <v>1.429349958925741e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.718747782637365e-05</v>
+        <v>3.056647074117791e-06</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.862209607381374e-06</v>
+        <v>2.101069367199671e-05</v>
       </c>
       <c r="BE6" t="n">
-        <v>3.375334699740051e-06</v>
+        <v>2.044915163423866e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>9.865979336609598e-06</v>
+        <v>2.660124664544128e-06</v>
       </c>
       <c r="BG6" t="n">
-        <v>8.134285963024013e-06</v>
+        <v>1.355809217784554e-05</v>
       </c>
       <c r="BH6" t="n">
-        <v>5.190952833800111e-06</v>
+        <v>3.670841351777199e-06</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.967951538972557e-05</v>
+        <v>1.169108145404607e-05</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.536066287779249e-05</v>
+        <v>6.45605268800864e-06</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.726618847897043e-06</v>
+        <v>2.678756345630973e-07</v>
       </c>
       <c r="BL6" t="n">
-        <v>5.824147137900582e-06</v>
+        <v>4.081396127730841e-06</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.783521656761877e-05</v>
+        <v>8.948376489570364e-06</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.078387867892161e-06</v>
+        <v>1.32980394482729e-05</v>
       </c>
       <c r="BO6" t="n">
-        <v>5.466273478305084e-07</v>
+        <v>4.475492914934875e-06</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.587004953762516e-05</v>
+        <v>8.455069291812833e-06</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.714641712169396e-06</v>
+        <v>5.578036166298261e-07</v>
       </c>
       <c r="BR6" t="n">
-        <v>4.04260345021612e-06</v>
+        <v>3.561674702723394e-06</v>
       </c>
       <c r="BS6" t="n">
-        <v>2.663957161530561e-07</v>
+        <v>2.273965719723492e-06</v>
       </c>
       <c r="BT6" t="n">
-        <v>5.461132332129637e-06</v>
+        <v>5.763462468166836e-06</v>
       </c>
       <c r="BU6" t="n">
-        <v>4.16034999943804e-05</v>
+        <v>1.572630935697816e-06</v>
       </c>
       <c r="BV6" t="n">
-        <v>7.546019332949072e-06</v>
+        <v>3.026959348062519e-05</v>
       </c>
       <c r="BW6" t="n">
-        <v>8.699928912392352e-06</v>
+        <v>7.770499905745964e-06</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.265141847601626e-05</v>
+        <v>8.66755817696685e-06</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.653277649893425e-05</v>
+        <v>1.958564098458737e-06</v>
       </c>
       <c r="BZ6" t="n">
-        <v>9.871783731796313e-06</v>
+        <v>2.774251925075077e-06</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.660126031310938e-06</v>
+        <v>4.209482995065628e-06</v>
       </c>
       <c r="CB6" t="n">
-        <v>7.293938324437477e-06</v>
+        <v>3.154448450004566e-06</v>
       </c>
       <c r="CC6" t="n">
-        <v>4.333192919148132e-06</v>
+        <v>8.77015645528445e-06</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.229038364021108e-05</v>
+        <v>1.07803714399779e-07</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.257365122204646e-05</v>
+        <v>1.435864851373481e-05</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.42065687214199e-06</v>
+        <v>8.049655662034638e-06</v>
       </c>
       <c r="CG6" t="n">
-        <v>7.566382464574417e-06</v>
+        <v>1.208805429087079e-06</v>
       </c>
       <c r="CH6" t="n">
-        <v>7.228280082927085e-06</v>
+        <v>2.07018183573382e-06</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.734000534270308e-06</v>
+        <v>2.00929275706585e-06</v>
       </c>
       <c r="CJ6" t="n">
-        <v>4.204386641504243e-06</v>
+        <v>2.760202278295765e-06</v>
       </c>
       <c r="CK6" t="n">
-        <v>2.865799160645111e-06</v>
+        <v>1.25800329442427e-06</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.629129315006139e-06</v>
+        <v>4.654418262362015e-06</v>
       </c>
       <c r="CM6" t="n">
-        <v>5.63618687010603e-06</v>
+        <v>2.185607809224166e-05</v>
       </c>
       <c r="CN6" t="n">
-        <v>6.754005880793557e-06</v>
+        <v>7.850158908695448e-06</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.414282337464101e-06</v>
+        <v>1.294043613597751e-06</v>
       </c>
       <c r="CP6" t="n">
-        <v>3.644094249466434e-06</v>
+        <v>1.769747177604586e-05</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.238774439116241e-05</v>
+        <v>9.860893442237284e-06</v>
       </c>
       <c r="CR6" t="n">
-        <v>8.890947356121615e-07</v>
+        <v>8.083050488494337e-06</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.006357933874824e-06</v>
+        <v>1.238621734955814e-05</v>
       </c>
       <c r="CT6" t="n">
-        <v>2.217914516222663e-05</v>
+        <v>9.030125511344522e-06</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.169607912743231e-07</v>
+        <v>3.379968575245584e-06</v>
       </c>
       <c r="CV6" t="n">
-        <v>1.937049455591477e-05</v>
+        <v>5.141941983310971e-08</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.200831659138203e-05</v>
+        <v>1.308512946707197e-05</v>
       </c>
       <c r="CX6" t="n">
-        <v>5.041974418418249e-06</v>
+        <v>8.761982826399617e-06</v>
       </c>
       <c r="CY6" t="n">
-        <v>5.020921435061609e-06</v>
+        <v>5.408630840975093e-06</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2.901073230532347e-06</v>
+        <v>4.155905571678886e-06</v>
       </c>
       <c r="DA6" t="n">
-        <v>6.151137199594814e-08</v>
+        <v>1.522586330793274e-06</v>
       </c>
       <c r="DB6" t="n">
-        <v>5.097472694615135e-06</v>
+        <v>2.92565482595819e-06</v>
       </c>
       <c r="DC6" t="n">
-        <v>9.825625966186635e-07</v>
+        <v>3.022129476448754e-06</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.49040294875158e-06</v>
+        <v>3.040746378246695e-06</v>
       </c>
       <c r="DE6" t="n">
-        <v>8.625705959275365e-06</v>
+        <v>8.534728294762317e-06</v>
       </c>
       <c r="DF6" t="n">
-        <v>3.257879507145844e-05</v>
+        <v>1.093062451218429e-06</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.722078559396323e-05</v>
+        <v>1.231270744028734e-06</v>
       </c>
       <c r="DH6" t="n">
-        <v>8.466327017231379e-07</v>
+        <v>1.236285061168019e-05</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.861487246264005e-06</v>
+        <v>3.260513722125324e-06</v>
       </c>
       <c r="DJ6" t="n">
-        <v>9.953866538126022e-06</v>
+        <v>9.483455869485624e-06</v>
       </c>
       <c r="DK6" t="n">
-        <v>3.73654597751738e-06</v>
+        <v>3.463239863776835e-06</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.65873836724495e-06</v>
+        <v>2.376174506935058e-06</v>
       </c>
       <c r="DM6" t="n">
-        <v>8.828051250020508e-06</v>
+        <v>6.314841357379919e-06</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.373841087115579e-06</v>
+        <v>3.543874527167645e-07</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.538082324259449e-05</v>
+        <v>4.775381512445165e-08</v>
       </c>
       <c r="DP6" t="n">
-        <v>5.184870133234654e-06</v>
+        <v>1.110521407099441e-05</v>
       </c>
       <c r="DQ6" t="n">
-        <v>7.399613423331175e-06</v>
+        <v>6.748800387867959e-06</v>
       </c>
       <c r="DR6" t="n">
-        <v>8.269086720247287e-06</v>
+        <v>3.858843228954356e-06</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.979942680918612e-06</v>
+        <v>2.073268206004286e-06</v>
       </c>
       <c r="DT6" t="n">
-        <v>2.007315970331547e-06</v>
+        <v>8.111765964713413e-06</v>
       </c>
       <c r="DU6" t="n">
-        <v>3.728085630427813e-06</v>
+        <v>3.335896508360747e-06</v>
       </c>
       <c r="DV6" t="n">
-        <v>6.999355719017331e-06</v>
+        <v>3.088839775955421e-06</v>
       </c>
       <c r="DW6" t="n">
-        <v>5.77664877710049e-06</v>
+        <v>1.582184950166265e-06</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.205828903039219e-05</v>
+        <v>1.208305729960557e-05</v>
       </c>
       <c r="DY6" t="n">
-        <v>7.659432412765455e-06</v>
+        <v>6.649246188317193e-06</v>
       </c>
       <c r="DZ6" t="n">
-        <v>6.758078143320745e-06</v>
+        <v>9.246089121006662e-07</v>
       </c>
       <c r="EA6" t="n">
-        <v>8.654288649267983e-06</v>
+        <v>8.246416655310895e-06</v>
       </c>
       <c r="EB6" t="n">
-        <v>3.199138063791906e-06</v>
+        <v>7.746308256173506e-06</v>
       </c>
       <c r="EC6" t="n">
-        <v>5.104594038130017e-06</v>
+        <v>3.152536578454601e-07</v>
       </c>
       <c r="ED6" t="n">
-        <v>2.844009577529505e-05</v>
+        <v>1.063948161572625e-06</v>
       </c>
       <c r="EE6" t="n">
-        <v>3.188638402207289e-06</v>
+        <v>1.929579411807936e-06</v>
       </c>
       <c r="EF6" t="n">
-        <v>3.637743793660775e-05</v>
+        <v>3.51608809978643e-06</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.154704245389439e-05</v>
+        <v>1.345010605291463e-05</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.871462245617295e-06</v>
+        <v>6.89311536916648e-06</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.004847763397265e-05</v>
+        <v>1.854676838775049e-06</v>
       </c>
       <c r="EJ6" t="n">
-        <v>8.389051799895242e-06</v>
+        <v>1.633544115975383e-06</v>
       </c>
       <c r="EK6" t="n">
-        <v>2.885936680740997e-07</v>
+        <v>1.630574161026743e-06</v>
       </c>
       <c r="EL6" t="n">
-        <v>1.270656184715335e-06</v>
+        <v>5.095716460346011e-06</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.727095695969183e-05</v>
+        <v>1.408392108714906e-06</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.235860509041231e-06</v>
+        <v>2.860638915080926e-06</v>
       </c>
       <c r="EO6" t="n">
-        <v>3.998532974947011e-06</v>
+        <v>3.013110472238623e-07</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.998880179598927e-05</v>
+        <v>5.702558610209962e-06</v>
       </c>
       <c r="EQ6" t="n">
-        <v>4.00934095523553e-06</v>
+        <v>8.128507033688948e-06</v>
       </c>
       <c r="ER6" t="n">
-        <v>7.610370630573016e-06</v>
+        <v>5.667819095833693e-06</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.525456627859967e-05</v>
+        <v>6.400228357961169e-06</v>
       </c>
       <c r="ET6" t="n">
-        <v>7.541916147602024e-06</v>
+        <v>8.048666131799109e-06</v>
       </c>
       <c r="EU6" t="n">
-        <v>9.290352863899898e-06</v>
+        <v>1.299936411669478e-05</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.100144618249033e-05</v>
+        <v>1.598442759132013e-05</v>
       </c>
       <c r="EW6" t="n">
-        <v>3.542945023582433e-06</v>
+        <v>2.196539981014212e-06</v>
       </c>
       <c r="EX6" t="n">
-        <v>1.906336729007307e-05</v>
+        <v>2.490789029252483e-06</v>
       </c>
       <c r="EY6" t="n">
-        <v>1.859440817497671e-05</v>
+        <v>1.314667133556213e-05</v>
       </c>
       <c r="EZ6" t="n">
-        <v>4.273932518117363e-06</v>
+        <v>6.83214648233843e-06</v>
       </c>
       <c r="FA6" t="n">
-        <v>6.025644779583672e-06</v>
+        <v>2.971282356156735e-06</v>
       </c>
       <c r="FB6" t="n">
-        <v>2.009610398090445e-06</v>
+        <v>2.088617065965082e-06</v>
       </c>
       <c r="FC6" t="n">
-        <v>4.234182597429026e-06</v>
+        <v>2.007370312639978e-06</v>
       </c>
       <c r="FD6" t="n">
-        <v>3.577574489099788e-06</v>
+        <v>5.370055532694096e-06</v>
       </c>
       <c r="FE6" t="n">
-        <v>3.391523023310583e-06</v>
+        <v>9.967177447833819e-07</v>
       </c>
       <c r="FF6" t="n">
-        <v>6.155928531370591e-07</v>
+        <v>5.113790393806994e-06</v>
       </c>
       <c r="FG6" t="n">
-        <v>1.704800888546742e-05</v>
+        <v>2.543782784414361e-06</v>
       </c>
       <c r="FH6" t="n">
-        <v>3.601737262215465e-06</v>
+        <v>1.721175863167446e-06</v>
       </c>
       <c r="FI6" t="n">
-        <v>5.420286925073015e-06</v>
+        <v>9.206132745021023e-06</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.25179876704351e-05</v>
+        <v>8.968333531811368e-06</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.176558998849941e-05</v>
+        <v>4.186370460956823e-06</v>
       </c>
       <c r="FL6" t="n">
-        <v>7.191778422566131e-06</v>
+        <v>1.970880475710146e-06</v>
       </c>
       <c r="FM6" t="n">
-        <v>2.372955805185484e-07</v>
+        <v>1.510243691882351e-06</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.513227173039922e-06</v>
+        <v>6.76178433423047e-06</v>
       </c>
       <c r="FO6" t="n">
-        <v>2.121300212820643e-06</v>
+        <v>8.630776392237749e-06</v>
       </c>
       <c r="FP6" t="n">
-        <v>1.025782512442674e-05</v>
+        <v>9.205494279740378e-06</v>
       </c>
       <c r="FQ6" t="n">
-        <v>2.849756856448948e-05</v>
+        <v>1.334593434876297e-05</v>
       </c>
       <c r="FR6" t="n">
-        <v>7.306176030397182e-06</v>
+        <v>5.184245310374536e-06</v>
       </c>
       <c r="FS6" t="n">
-        <v>3.467822352831718e-06</v>
+        <v>4.058199465362122e-07</v>
       </c>
       <c r="FT6" t="n">
-        <v>5.668937774316873e-06</v>
+        <v>4.301669832784683e-06</v>
       </c>
       <c r="FU6" t="n">
-        <v>7.156947049224982e-06</v>
+        <v>1.671147856541211e-06</v>
       </c>
       <c r="FV6" t="n">
-        <v>4.458865987544414e-06</v>
+        <v>1.132641773438081e-05</v>
       </c>
       <c r="FW6" t="n">
-        <v>8.66874324856326e-06</v>
+        <v>6.096419838286238e-06</v>
       </c>
       <c r="FX6" t="n">
-        <v>7.123316208890174e-06</v>
+        <v>2.373586312387488e-06</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.4780322999286e-05</v>
+        <v>1.316437555942684e-05</v>
       </c>
       <c r="FZ6" t="n">
-        <v>3.688268634505221e-06</v>
+        <v>4.232941591908457e-06</v>
       </c>
       <c r="GA6" t="n">
-        <v>6.871383902762318e-06</v>
+        <v>1.121484615396184e-06</v>
       </c>
       <c r="GB6" t="n">
-        <v>3.586612365324982e-06</v>
+        <v>2.892496468120953e-06</v>
       </c>
       <c r="GC6" t="n">
-        <v>5.52423171029659e-06</v>
+        <v>2.371674327150686e-06</v>
       </c>
       <c r="GD6" t="n">
-        <v>5.937053174420726e-06</v>
+        <v>8.969400369096547e-06</v>
       </c>
       <c r="GE6" t="n">
-        <v>8.821258234092966e-06</v>
+        <v>2.202150972152594e-05</v>
       </c>
       <c r="GF6" t="n">
-        <v>8.010840247152373e-06</v>
+        <v>4.231344973959494e-06</v>
       </c>
       <c r="GG6" t="n">
-        <v>2.383532773819752e-06</v>
+        <v>3.136955797344854e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.008139762096107006</v>
+        <v>0.001361838425509632</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001920581562444568</v>
+        <v>0.0106643196195364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01634777896106243</v>
+        <v>0.001254528295248747</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003454742021858692</v>
+        <v>0.005656022578477859</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007027019280940294</v>
+        <v>0.002176459413021803</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002822551876306534</v>
+        <v>0.008275041356682777</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0025107660330832</v>
+        <v>0.0002144711907021701</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002635697601363063</v>
+        <v>0.002766638994216919</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002752953208982944</v>
+        <v>0.0007744202157482505</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007283175364136696</v>
+        <v>0.002623410196974874</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001069492864189669</v>
+        <v>0.009661531075835228</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01540259551256895</v>
+        <v>0.0004673752700909972</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001080919057130814</v>
+        <v>0.004485262092202902</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001793887466192245</v>
+        <v>1.687026815488935e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002858495339751244</v>
+        <v>0.008179597556591034</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001839932054281235</v>
+        <v>0.00082922208821401</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.006207719445228577</v>
+        <v>0.00133428000845015</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004868879914283752</v>
+        <v>0.0005664055934175849</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0001255009992746636</v>
+        <v>0.0002129242056980729</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004903602413833141</v>
+        <v>0.0009442236041650176</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0008081883424893022</v>
+        <v>0.0007508416892960668</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001691109035164118</v>
+        <v>0.00209237146191299</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001851524924859405</v>
+        <v>0.0007024758378975093</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001084331655874848</v>
+        <v>0.0004338131984695792</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001238497439771891</v>
+        <v>0.0006049360381439328</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.003867241088300943</v>
+        <v>0.001222181133925915</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0001225049200002104</v>
+        <v>0.0009626711253076792</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0005831790622323751</v>
+        <v>5.03439805470407e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.457434311509132e-05</v>
+        <v>0.0004183519340585917</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001551633002236485</v>
+        <v>0.0001990422897506505</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.756823621690273e-05</v>
+        <v>0.0003092772385571152</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001740739215165377</v>
+        <v>0.0002541809226386249</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.00231374497525394</v>
+        <v>6.234093598322943e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.001677366904914379</v>
+        <v>0.0002930510090664029</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.003096127649769187</v>
+        <v>0.0003623785160016268</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.004651808645576239</v>
+        <v>0.001041897805407643</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.002008800860494375</v>
+        <v>0.001391750760376453</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.003554007038474083</v>
+        <v>0.00124379200860858</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.002402983605861664</v>
+        <v>0.0004374646523501724</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.003000045893713832</v>
+        <v>0.0001980360539164394</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0004630343173630536</v>
+        <v>0.0001999002124648541</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0014682732289657</v>
+        <v>0.001369167119264603</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.518025914672762e-05</v>
+        <v>0.0002670926041901112</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0002275687584187835</v>
+        <v>0.000888258102349937</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0001779862068360671</v>
+        <v>0.001781320665031672</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.003280896227806807</v>
+        <v>0.0004694266535807401</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.003736937651410699</v>
+        <v>0.006438353098928928</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.008113313466310501</v>
+        <v>0.0004687793843913823</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.003296278649941087</v>
+        <v>0.001444283640012145</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0002690879628062248</v>
+        <v>0.002052802592515945</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.003152975579723716</v>
+        <v>0.00426673237234354</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0001624480646569282</v>
+        <v>0.000647201610263437</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.001450098352506757</v>
+        <v>0.0007895983289927244</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.002120777266100049</v>
+        <v>0.002655815333127975</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.001628223224543035</v>
+        <v>0.001166149158962071</v>
       </c>
       <c r="BD7" t="n">
-        <v>2.751842112047598e-05</v>
+        <v>0.002171223051846027</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.004160002805292606</v>
+        <v>0.003357685869559646</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.001134798745624721</v>
+        <v>0.0008783454541116953</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.00509453471750021</v>
+        <v>0.001509717549197376</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.00186353805474937</v>
+        <v>0.002313419710844755</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.003092192811891437</v>
+        <v>0.0001900462084449828</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.223001112928614e-05</v>
+        <v>0.001360035035759211</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.002282165456563234</v>
+        <v>0.0006632305448874831</v>
       </c>
       <c r="BL7" t="n">
-        <v>8.379291102755815e-06</v>
+        <v>0.0002418644144199789</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.000599710620008409</v>
+        <v>0.002210212871432304</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.003220404032617807</v>
+        <v>0.001242284546606243</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0004704134480562061</v>
+        <v>0.001039435504935682</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.00174469780176878</v>
+        <v>7.911217107903212e-05</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0004046668182127178</v>
+        <v>0.0006520016468130052</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.002479860093444586</v>
+        <v>0.000864656176418066</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.003807975677773356</v>
+        <v>0.0009447832126170397</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0008923868299461901</v>
+        <v>0.0002064050349872559</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.002806101460009813</v>
+        <v>0.0001571586617501453</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0003585171652957797</v>
+        <v>0.003537500509992242</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.004226079210639</v>
+        <v>0.001235536648891866</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.001271095126867294</v>
+        <v>0.001492345705628395</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0002261141053168103</v>
+        <v>0.0008966822060756385</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.002047413028776646</v>
+        <v>0.001826900406740606</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.001066546537913382</v>
+        <v>0.0005416743224486709</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0003333338827360421</v>
+        <v>0.0006860897992737591</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0001185591972898692</v>
+        <v>0.001385903335176408</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.001572958892211318</v>
+        <v>0.0001138567313319072</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.00180870178155601</v>
+        <v>0.001765231834724545</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.003354969900101423</v>
+        <v>0.00117918848991394</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0007372311083599925</v>
+        <v>0.0008787063998170197</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0008914375794120133</v>
+        <v>0.0004446656093932688</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.001304701901972294</v>
+        <v>0.001132333418354392</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0005095764063298702</v>
+        <v>0.0005318910116329789</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.001220932230353355</v>
+        <v>0.0006269293371587992</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.000315393233904615</v>
+        <v>0.0009518828592263162</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.00031426758505404</v>
+        <v>0.002188831800594926</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.003396003739908338</v>
+        <v>0.0004644031869247556</v>
       </c>
       <c r="CO7" t="n">
-        <v>3.742420813068748e-05</v>
+        <v>0.0002385110419709235</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0004106198030058295</v>
+        <v>0.001448785304091871</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.001867916318587959</v>
+        <v>0.0004126890562474728</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0003892288659699261</v>
+        <v>0.001509485999122262</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.001757583231665194</v>
+        <v>0.001974331447854638</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.001045973389409482</v>
+        <v>0.001453984994441271</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.002132401335984468</v>
+        <v>0.0003108708187937737</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.001481853076256812</v>
+        <v>0.0001487386325607076</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.002039153361693025</v>
+        <v>0.001639951369725168</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.003603193676099181</v>
+        <v>0.0011876035714522</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0002183301257900894</v>
+        <v>0.001385576790198684</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.002090316032990813</v>
+        <v>0.0002083133440464735</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.001319826114922762</v>
+        <v>0.001224398263730109</v>
       </c>
       <c r="DB7" t="n">
-        <v>9.942959877662361e-07</v>
+        <v>0.0005143784219399095</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0007332320092245936</v>
+        <v>0.001342467265203595</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0002832424943335354</v>
+        <v>0.0006189816631376743</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0003206224064342678</v>
+        <v>0.0009618762414902449</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.003025521989911795</v>
+        <v>0.0004661837592720985</v>
       </c>
       <c r="DG7" t="n">
-        <v>2.249891986139119e-05</v>
+        <v>0.0002865552087314427</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.002323151100426912</v>
+        <v>0.002798949833959341</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.002026311354711652</v>
+        <v>0.002453880617395043</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.001504760584793985</v>
+        <v>0.001276489114388824</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0009338142699562013</v>
+        <v>0.0009920911397784948</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0004387535736896098</v>
+        <v>0.001890562009066343</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0007289533969014883</v>
+        <v>0.002306570298969746</v>
       </c>
       <c r="DN7" t="n">
-        <v>5.926574522163719e-05</v>
+        <v>0.0003995037404820323</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.002345018088817596</v>
+        <v>0.000646676286123693</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.000970001972746104</v>
+        <v>0.0005317771574482322</v>
       </c>
       <c r="DQ7" t="n">
-        <v>8.456135401502252e-05</v>
+        <v>0.0002888093295041472</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0001870121632236987</v>
+        <v>0.0003928731894120574</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.002142776502296329</v>
+        <v>0.0006743873236700892</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.0005206902278587222</v>
+        <v>6.227396079339087e-05</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0001648490288062021</v>
+        <v>0.0002624704211484641</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.001999748172238469</v>
+        <v>0.001238542376086116</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.001014711335301399</v>
+        <v>2.069544279947877e-05</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.001144656096585095</v>
+        <v>0.0008579897112213075</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0003914741100743413</v>
+        <v>0.001335086300969124</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0001484048261772841</v>
+        <v>0.0003045467892661691</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.001205188222229481</v>
+        <v>0.0007349404040724039</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.001891717431135476</v>
+        <v>0.0007109990692697465</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.001696088351309299</v>
+        <v>0.0004269634955562651</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.001395739032886922</v>
+        <v>0.0004889930132776499</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0007926810067147017</v>
+        <v>0.0007405992946587503</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.002905228873714805</v>
+        <v>0.001067471690475941</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.001580236596055329</v>
+        <v>0.001798357116058469</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.003514289390295744</v>
+        <v>0.001414262223988771</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0006567924283444881</v>
+        <v>0.0006022201851010323</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.001121610286645591</v>
+        <v>0.0004329279181547463</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.00340480450540781</v>
+        <v>0.00123670557513833</v>
       </c>
       <c r="EL7" t="n">
-        <v>9.04743792489171e-05</v>
+        <v>0.0005706184892915189</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.002756590256467462</v>
+        <v>1.353859443042893e-05</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.001944202813319862</v>
+        <v>0.0002690974506549537</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0002052785421255976</v>
+        <v>0.0001294189714826643</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.001504113781265914</v>
+        <v>0.0009925991762429476</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0009449247736483812</v>
+        <v>0.001089011551812291</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0004626217996701598</v>
+        <v>0.0008322207722812891</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0003716803621500731</v>
+        <v>0.0006888809148222208</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.001649128622375429</v>
+        <v>0.0007815101416781545</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0005840678350068629</v>
+        <v>0.001555167837068439</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.531594898551702e-05</v>
+        <v>0.003056087298318744</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.002044225111603737</v>
+        <v>0.0001696671242825687</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.00185256393160671</v>
+        <v>0.0003870196524076164</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.001397536369040608</v>
+        <v>0.001549448585137725</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.003514090087264776</v>
+        <v>0.0009962074691429734</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0001301361480727792</v>
+        <v>0.001074153347872198</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001680543879047036</v>
+        <v>0.0002961384598165751</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0005219551385380328</v>
+        <v>0.0009365743026137352</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0002499133697710931</v>
+        <v>0.0008816376212053001</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.001329232356511056</v>
+        <v>0.0009156716405414045</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0003873181995004416</v>
+        <v>0.001011420274153352</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0006120899342931807</v>
+        <v>0.0006247606943361461</v>
       </c>
       <c r="FH7" t="n">
-        <v>8.743442595005035e-05</v>
+        <v>0.0003667950222734362</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.002594288904219866</v>
+        <v>0.001161877531558275</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.001899295370094478</v>
+        <v>0.001567943603731692</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.001217773300595582</v>
+        <v>0.0001209484180435538</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.001684657298028469</v>
+        <v>0.001766754314303398</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0007994275074452162</v>
+        <v>0.0001539748918730766</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0008384855464100838</v>
+        <v>0.001375369029119611</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.001779170706868172</v>
+        <v>0.0005193491233512759</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.002919650170952082</v>
+        <v>0.001222069375216961</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.006852819118648767</v>
+        <v>0.0006008771015331149</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.003451026044785976</v>
+        <v>0.001362321199849248</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.002092518378049135</v>
+        <v>0.00104407430626452</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0001811420370358974</v>
+        <v>0.001855496666394174</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.002403235761448741</v>
+        <v>0.0006675805198028684</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0003053019172511995</v>
+        <v>0.0008926786249503493</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0003402166767045856</v>
+        <v>0.0008118455880321562</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0005910106701776385</v>
+        <v>0.0001656275126151741</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.00226520374417305</v>
+        <v>0.002082752995193005</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.001102802460081875</v>
+        <v>0.0006758284289389849</v>
       </c>
       <c r="GA7" t="n">
-        <v>4.369000089354813e-05</v>
+        <v>0.0009074007393792272</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.001427691080607474</v>
+        <v>0.0004637769889086485</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.001607162528671324</v>
+        <v>2.045344444923103e-05</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.002899865852668881</v>
+        <v>0.0009518374572508037</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0005779769853688776</v>
+        <v>0.004179020412266254</v>
       </c>
       <c r="GF7" t="n">
-        <v>6.641526124440134e-05</v>
+        <v>0.0003179261984769255</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0004133639158681035</v>
+        <v>0.00107607536483556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0003204004024155438</v>
+        <v>0.0001147457587649114</v>
       </c>
       <c r="B8" t="n">
-        <v>4.856504892813973e-05</v>
+        <v>0.001992737874388695</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002031734475167468</v>
+        <v>5.227219662629068e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001307592756347731</v>
+        <v>0.000799559464212507</v>
       </c>
       <c r="E8" t="n">
-        <v>3.959432797273621e-05</v>
+        <v>0.0008278641616925597</v>
       </c>
       <c r="F8" t="n">
-        <v>2.753322587523144e-05</v>
+        <v>0.001053950050845742</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001340162998531014</v>
+        <v>9.505165508016944e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>6.389911959558958e-06</v>
+        <v>0.0002813252503983676</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9341292247409e-05</v>
+        <v>0.0004611325566656888</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002882243425119668</v>
+        <v>0.0001412927522324026</v>
       </c>
       <c r="K8" t="n">
-        <v>3.746121001313441e-05</v>
+        <v>0.002197798807173967</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002409196167718619</v>
+        <v>0.0001405476359650493</v>
       </c>
       <c r="M8" t="n">
-        <v>6.91987806931138e-05</v>
+        <v>0.0002688507956918329</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0001661432761466131</v>
+        <v>0.0002966428874060512</v>
       </c>
       <c r="O8" t="n">
-        <v>1.075249656423694e-05</v>
+        <v>0.0008116738754324615</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0001497739722253755</v>
+        <v>3.630411811172962e-06</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.600184936658479e-05</v>
+        <v>1.721029548207298e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>7.837665907572955e-05</v>
+        <v>0.0003582530771382153</v>
       </c>
       <c r="S8" t="n">
-        <v>4.330804586061276e-06</v>
+        <v>1.621720002731308e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>5.34111495653633e-05</v>
+        <v>0.0002622453612275422</v>
       </c>
       <c r="U8" t="n">
-        <v>9.408224286744371e-06</v>
+        <v>0.0001638927788008004</v>
       </c>
       <c r="V8" t="n">
-        <v>1.074539068213198e-05</v>
+        <v>0.0002119803975801915</v>
       </c>
       <c r="W8" t="n">
-        <v>4.558584805636201e-06</v>
+        <v>0.0001552283647470176</v>
       </c>
       <c r="X8" t="n">
-        <v>1.916456858452875e-05</v>
+        <v>3.97556577809155e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.283059049863368e-05</v>
+        <v>6.623149965889752e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.318948675878346e-05</v>
+        <v>0.0001136506616603583</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.104264902096475e-05</v>
+        <v>0.0002174243418266997</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.066164547111839e-05</v>
+        <v>5.084821896161884e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.309549017809331e-06</v>
+        <v>0.0001557536888867617</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.047373345703818e-05</v>
+        <v>0.0003725546994246542</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.665924694156274e-05</v>
+        <v>8.178774442058057e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.015874542848906e-07</v>
+        <v>0.0001221561687998474</v>
       </c>
       <c r="AG8" t="n">
-        <v>4.067355985171162e-05</v>
+        <v>0.000190870588994585</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.293496006837813e-05</v>
+        <v>0.0001817459560697898</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.474211790598929e-05</v>
+        <v>4.561165405903012e-05</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.958653491688892e-05</v>
+        <v>0.0001094649342121556</v>
       </c>
       <c r="AK8" t="n">
-        <v>5.900111500523053e-05</v>
+        <v>0.0003086382930632681</v>
       </c>
       <c r="AL8" t="n">
-        <v>6.422227306757122e-05</v>
+        <v>0.0003423391317483038</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.610986873856746e-05</v>
+        <v>0.0002544525486882776</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.596484334091656e-05</v>
+        <v>1.071394308382878e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.293536454089917e-05</v>
+        <v>1.288147814193508e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.20946367335273e-05</v>
+        <v>0.0001647414319450036</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4.550485755316913e-06</v>
+        <v>6.896607374073938e-05</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.135636375693139e-05</v>
+        <v>2.815042898873799e-05</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.335124579782132e-06</v>
+        <v>4.049125345773064e-05</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0001484670501668006</v>
+        <v>0.000144457706483081</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.481212140992284e-05</v>
+        <v>0.001316203502938151</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0001018982584355399</v>
+        <v>0.0004082614905200899</v>
       </c>
       <c r="AW8" t="n">
-        <v>6.914765981491655e-05</v>
+        <v>0.0002512235078029335</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.189560058875941e-05</v>
+        <v>3.729025775101036e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>6.758653034921736e-05</v>
+        <v>0.0004840182955376804</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.345628672628663e-05</v>
+        <v>0.0001629677717573941</v>
       </c>
       <c r="BA8" t="n">
-        <v>5.309172593115363e-06</v>
+        <v>3.894184555974789e-05</v>
       </c>
       <c r="BB8" t="n">
-        <v>4.025058296974748e-05</v>
+        <v>0.0001028583064908162</v>
       </c>
       <c r="BC8" t="n">
-        <v>8.868261647876352e-05</v>
+        <v>4.426069062901661e-05</v>
       </c>
       <c r="BD8" t="n">
-        <v>6.613484856643481e-06</v>
+        <v>0.0004068098496645689</v>
       </c>
       <c r="BE8" t="n">
-        <v>8.031780453165993e-05</v>
+        <v>0.0002741773787420243</v>
       </c>
       <c r="BF8" t="n">
-        <v>3.617246647991124e-06</v>
+        <v>3.501012542983517e-05</v>
       </c>
       <c r="BG8" t="n">
-        <v>3.075274435104802e-05</v>
+        <v>0.0006433426751755178</v>
       </c>
       <c r="BH8" t="n">
-        <v>1.119942407967756e-05</v>
+        <v>0.0004126587009523064</v>
       </c>
       <c r="BI8" t="n">
-        <v>6.999407196417451e-05</v>
+        <v>0.0001403780916007236</v>
       </c>
       <c r="BJ8" t="n">
-        <v>6.669959839200601e-05</v>
+        <v>6.128394306870177e-05</v>
       </c>
       <c r="BK8" t="n">
-        <v>2.640394268382806e-05</v>
+        <v>8.972046634880826e-05</v>
       </c>
       <c r="BL8" t="n">
-        <v>2.381316153332591e-05</v>
+        <v>0.000290845287963748</v>
       </c>
       <c r="BM8" t="n">
-        <v>3.452826058492064e-05</v>
+        <v>0.0002831568708643317</v>
       </c>
       <c r="BN8" t="n">
-        <v>2.97186961688567e-05</v>
+        <v>5.898415111005306e-05</v>
       </c>
       <c r="BO8" t="n">
-        <v>1.687731855781749e-05</v>
+        <v>0.0001106990966945887</v>
       </c>
       <c r="BP8" t="n">
-        <v>6.749886233592406e-05</v>
+        <v>0.0002392923051957041</v>
       </c>
       <c r="BQ8" t="n">
-        <v>2.157765266019851e-05</v>
+        <v>1.244488157681189e-05</v>
       </c>
       <c r="BR8" t="n">
-        <v>1.393076490785461e-05</v>
+        <v>0.0001155133213615045</v>
       </c>
       <c r="BS8" t="n">
-        <v>1.451165826438228e-05</v>
+        <v>8.41185319586657e-05</v>
       </c>
       <c r="BT8" t="n">
-        <v>9.371526175527833e-06</v>
+        <v>3.51184826286044e-05</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.0001044891905621625</v>
+        <v>9.448756463825703e-05</v>
       </c>
       <c r="BV8" t="n">
-        <v>2.253872844448779e-05</v>
+        <v>0.0008316424791701138</v>
       </c>
       <c r="BW8" t="n">
-        <v>4.320132575230673e-05</v>
+        <v>0.0001812140981201082</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0001013984001474455</v>
+        <v>0.0001947477285284549</v>
       </c>
       <c r="BY8" t="n">
-        <v>4.498555063037202e-05</v>
+        <v>5.107988909003325e-05</v>
       </c>
       <c r="BZ8" t="n">
-        <v>3.708132499014027e-05</v>
+        <v>7.960444781929255e-05</v>
       </c>
       <c r="CA8" t="n">
-        <v>1.633861756999977e-05</v>
+        <v>1.13043515739264e-05</v>
       </c>
       <c r="CB8" t="n">
-        <v>4.606204129231628e-08</v>
+        <v>2.004394445975777e-05</v>
       </c>
       <c r="CC8" t="n">
-        <v>1.195067579828901e-05</v>
+        <v>3.057473804801702e-05</v>
       </c>
       <c r="CD8" t="n">
-        <v>6.310688331723213e-05</v>
+        <v>5.388549107010476e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>6.26121400273405e-05</v>
+        <v>0.0003378799301572144</v>
       </c>
       <c r="CF8" t="n">
-        <v>4.514853935688734e-05</v>
+        <v>1.003506622510031e-05</v>
       </c>
       <c r="CG8" t="n">
-        <v>2.386361848039087e-05</v>
+        <v>8.230000821640715e-05</v>
       </c>
       <c r="CH8" t="n">
-        <v>2.062886960629839e-05</v>
+        <v>2.804171708703507e-05</v>
       </c>
       <c r="CI8" t="n">
-        <v>1.415701535734115e-05</v>
+        <v>0.0002133354864781722</v>
       </c>
       <c r="CJ8" t="n">
-        <v>2.262195812363643e-05</v>
+        <v>0.0001393337297486141</v>
       </c>
       <c r="CK8" t="n">
-        <v>1.176519617729355e-05</v>
+        <v>2.358392339374404e-05</v>
       </c>
       <c r="CL8" t="n">
-        <v>1.453989170840941e-06</v>
+        <v>7.257518882397562e-05</v>
       </c>
       <c r="CM8" t="n">
-        <v>6.457376912294421e-06</v>
+        <v>0.0005488384631462395</v>
       </c>
       <c r="CN8" t="n">
-        <v>4.996201096219011e-05</v>
+        <v>0.0002069904730888084</v>
       </c>
       <c r="CO8" t="n">
-        <v>2.834596853062976e-05</v>
+        <v>6.224830576684326e-05</v>
       </c>
       <c r="CP8" t="n">
-        <v>7.168946467572823e-07</v>
+        <v>0.0003048241487704217</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1.770310882420745e-05</v>
+        <v>0.0003079967282246798</v>
       </c>
       <c r="CR8" t="n">
-        <v>1.623485877644271e-05</v>
+        <v>0.0001870063570095226</v>
       </c>
       <c r="CS8" t="n">
-        <v>1.115220766223501e-05</v>
+        <v>0.0004578241205308586</v>
       </c>
       <c r="CT8" t="n">
-        <v>4.58116119261831e-05</v>
+        <v>0.0002721179334912449</v>
       </c>
       <c r="CU8" t="n">
-        <v>2.663677878445014e-05</v>
+        <v>5.213748954702169e-05</v>
       </c>
       <c r="CV8" t="n">
-        <v>5.198433427722193e-05</v>
+        <v>1.345443979516858e-05</v>
       </c>
       <c r="CW8" t="n">
-        <v>5.359714850783348e-05</v>
+        <v>0.0003220791695639491</v>
       </c>
       <c r="CX8" t="n">
-        <v>4.901842476101592e-05</v>
+        <v>1.986026836675592e-05</v>
       </c>
       <c r="CY8" t="n">
-        <v>2.037085505435243e-05</v>
+        <v>0.0001540858211228624</v>
       </c>
       <c r="CZ8" t="n">
-        <v>1.014886129269144e-05</v>
+        <v>6.704118277411908e-05</v>
       </c>
       <c r="DA8" t="n">
-        <v>1.180008621304296e-05</v>
+        <v>0.000227957745664753</v>
       </c>
       <c r="DB8" t="n">
-        <v>2.24922041525133e-05</v>
+        <v>0.0001509905705461279</v>
       </c>
       <c r="DC8" t="n">
-        <v>1.362928060189006e-06</v>
+        <v>0.000104973471025005</v>
       </c>
       <c r="DD8" t="n">
-        <v>1.108649826164765e-06</v>
+        <v>4.539780638879165e-05</v>
       </c>
       <c r="DE8" t="n">
-        <v>6.402202870958718e-06</v>
+        <v>0.0002274831931572407</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0001121696550399065</v>
+        <v>0.0003121421614196151</v>
       </c>
       <c r="DG8" t="n">
-        <v>8.385536602872889e-07</v>
+        <v>1.870359483291395e-05</v>
       </c>
       <c r="DH8" t="n">
-        <v>1.948520002770238e-05</v>
+        <v>0.000501906790304929</v>
       </c>
       <c r="DI8" t="n">
-        <v>1.985890412470326e-05</v>
+        <v>0.0005226817447692156</v>
       </c>
       <c r="DJ8" t="n">
-        <v>3.889867002726533e-06</v>
+        <v>0.0002332027652300894</v>
       </c>
       <c r="DK8" t="n">
-        <v>5.304544902173802e-05</v>
+        <v>6.387662142515182e-05</v>
       </c>
       <c r="DL8" t="n">
-        <v>7.499307685066015e-06</v>
+        <v>0.0001645368174649775</v>
       </c>
       <c r="DM8" t="n">
-        <v>3.898746217601001e-05</v>
+        <v>0.0002311649004695937</v>
       </c>
       <c r="DN8" t="n">
-        <v>1.411930861650035e-05</v>
+        <v>9.034486720338464e-05</v>
       </c>
       <c r="DO8" t="n">
-        <v>7.12180117261596e-05</v>
+        <v>1.68266415130347e-05</v>
       </c>
       <c r="DP8" t="n">
-        <v>1.832827911130153e-05</v>
+        <v>0.0001187070956802927</v>
       </c>
       <c r="DQ8" t="n">
-        <v>1.617302223166917e-05</v>
+        <v>0.0001539940712973475</v>
       </c>
       <c r="DR8" t="n">
-        <v>6.111001766839763e-07</v>
+        <v>0.0001560067030368373</v>
       </c>
       <c r="DS8" t="n">
-        <v>4.548869583231863e-07</v>
+        <v>9.633526497054845e-05</v>
       </c>
       <c r="DT8" t="n">
-        <v>3.29295016854303e-06</v>
+        <v>0.0001102802343666553</v>
       </c>
       <c r="DU8" t="n">
-        <v>6.573367954842979e-06</v>
+        <v>7.937577902339399e-05</v>
       </c>
       <c r="DV8" t="n">
-        <v>2.036502155533526e-05</v>
+        <v>4.677134711528197e-05</v>
       </c>
       <c r="DW8" t="n">
-        <v>1.446959413442528e-05</v>
+        <v>7.776875281706452e-05</v>
       </c>
       <c r="DX8" t="n">
-        <v>2.384682193223853e-05</v>
+        <v>0.000162773285410367</v>
       </c>
       <c r="DY8" t="n">
-        <v>6.728929747623624e-06</v>
+        <v>5.910483378102072e-05</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.01805453596171e-05</v>
+        <v>6.557166489074007e-05</v>
       </c>
       <c r="EA8" t="n">
-        <v>2.399733057245612e-05</v>
+        <v>0.0001089892029995099</v>
       </c>
       <c r="EB8" t="n">
-        <v>1.464875640522223e-05</v>
+        <v>0.0001881782955024391</v>
       </c>
       <c r="EC8" t="n">
-        <v>2.068041067104787e-05</v>
+        <v>7.452978752553463e-05</v>
       </c>
       <c r="ED8" t="n">
-        <v>7.065979298204184e-05</v>
+        <v>0.0001863539946498349</v>
       </c>
       <c r="EE8" t="n">
-        <v>9.415394742973149e-06</v>
+        <v>0.0002595514233689755</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0001054960885085166</v>
+        <v>0.0001999970991164446</v>
       </c>
       <c r="EG8" t="n">
-        <v>6.339730316540226e-05</v>
+        <v>0.0004296858969610184</v>
       </c>
       <c r="EH8" t="n">
-        <v>5.246217551757582e-05</v>
+        <v>6.37420525890775e-05</v>
       </c>
       <c r="EI8" t="n">
-        <v>2.636624958540779e-05</v>
+        <v>0.0001169673632830381</v>
       </c>
       <c r="EJ8" t="n">
-        <v>2.064504769805353e-05</v>
+        <v>8.996279939310625e-05</v>
       </c>
       <c r="EK8" t="n">
-        <v>2.598909850348718e-05</v>
+        <v>0.0001756296842359006</v>
       </c>
       <c r="EL8" t="n">
-        <v>5.388699264585739e-08</v>
+        <v>4.874947626376525e-05</v>
       </c>
       <c r="EM8" t="n">
-        <v>4.912900476483628e-05</v>
+        <v>0.0001624841243028641</v>
       </c>
       <c r="EN8" t="n">
-        <v>2.08201672649011e-05</v>
+        <v>0.000121223485621158</v>
       </c>
       <c r="EO8" t="n">
-        <v>1.109646927943686e-05</v>
+        <v>1.965510455192998e-05</v>
       </c>
       <c r="EP8" t="n">
-        <v>3.93082809750922e-05</v>
+        <v>0.0002878775703720748</v>
       </c>
       <c r="EQ8" t="n">
-        <v>6.120140824350528e-06</v>
+        <v>0.0001273889793083072</v>
       </c>
       <c r="ER8" t="n">
-        <v>1.395265371684218e-05</v>
+        <v>2.259246684843674e-05</v>
       </c>
       <c r="ES8" t="n">
-        <v>1.114980659622233e-05</v>
+        <v>4.31921289418824e-05</v>
       </c>
       <c r="ET8" t="n">
-        <v>5.831212183693424e-05</v>
+        <v>0.0001362348411930725</v>
       </c>
       <c r="EU8" t="n">
-        <v>3.263475809944794e-05</v>
+        <v>0.0002107229520333931</v>
       </c>
       <c r="EV8" t="n">
-        <v>1.069793142960407e-06</v>
+        <v>0.0003634685999713838</v>
       </c>
       <c r="EW8" t="n">
-        <v>2.066562956315465e-05</v>
+        <v>0.0001237956894328818</v>
       </c>
       <c r="EX8" t="n">
-        <v>5.218706064624712e-05</v>
+        <v>6.902849418111145e-05</v>
       </c>
       <c r="EY8" t="n">
-        <v>4.827661177841946e-05</v>
+        <v>0.0003136974992230535</v>
       </c>
       <c r="EZ8" t="n">
-        <v>5.039978714194149e-05</v>
+        <v>6.537462468259037e-05</v>
       </c>
       <c r="FA8" t="n">
-        <v>2.395650153630413e-05</v>
+        <v>7.14795824023895e-05</v>
       </c>
       <c r="FB8" t="n">
-        <v>1.564048943691887e-07</v>
+        <v>0.0001031148203765042</v>
       </c>
       <c r="FC8" t="n">
-        <v>9.520022103970405e-09</v>
+        <v>0.0002217996516264975</v>
       </c>
       <c r="FD8" t="n">
-        <v>1.992783290916122e-05</v>
+        <v>0.0001313655229751021</v>
       </c>
       <c r="FE8" t="n">
-        <v>1.055951543094125e-05</v>
+        <v>4.17632945755031e-05</v>
       </c>
       <c r="FF8" t="n">
-        <v>8.770959539106116e-06</v>
+        <v>8.236434223363176e-05</v>
       </c>
       <c r="FG8" t="n">
-        <v>4.878460458712652e-05</v>
+        <v>2.304347799508832e-05</v>
       </c>
       <c r="FH8" t="n">
-        <v>8.267258635896724e-06</v>
+        <v>9.96455637505278e-05</v>
       </c>
       <c r="FI8" t="n">
-        <v>3.957379522034898e-05</v>
+        <v>2.876204962376505e-05</v>
       </c>
       <c r="FJ8" t="n">
-        <v>5.69677067687735e-05</v>
+        <v>0.0003611567663028836</v>
       </c>
       <c r="FK8" t="n">
-        <v>1.021180651150644e-05</v>
+        <v>0.0001213771902257577</v>
       </c>
       <c r="FL8" t="n">
-        <v>4.631809861166403e-05</v>
+        <v>3.605147139751352e-05</v>
       </c>
       <c r="FM8" t="n">
-        <v>1.492479714215733e-05</v>
+        <v>6.892462988616899e-05</v>
       </c>
       <c r="FN8" t="n">
-        <v>3.311434556962922e-05</v>
+        <v>9.501137537881732e-05</v>
       </c>
       <c r="FO8" t="n">
-        <v>2.270471668452956e-05</v>
+        <v>0.0001195080840261653</v>
       </c>
       <c r="FP8" t="n">
-        <v>3.11605108436197e-05</v>
+        <v>0.0002825947012752295</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.0001444391382392496</v>
+        <v>0.0001982742105610669</v>
       </c>
       <c r="FR8" t="n">
-        <v>7.744121830910444e-06</v>
+        <v>6.77724092383869e-05</v>
       </c>
       <c r="FS8" t="n">
-        <v>1.22577475849539e-05</v>
+        <v>0.0001205373700940982</v>
       </c>
       <c r="FT8" t="n">
-        <v>1.827784444685676e-06</v>
+        <v>0.0004858171159867197</v>
       </c>
       <c r="FU8" t="n">
-        <v>1.735470141284168e-05</v>
+        <v>0.0001103042814065702</v>
       </c>
       <c r="FV8" t="n">
-        <v>1.694554339337628e-05</v>
+        <v>4.539125075098127e-05</v>
       </c>
       <c r="FW8" t="n">
-        <v>2.660097834450426e-06</v>
+        <v>0.0003813994990196079</v>
       </c>
       <c r="FX8" t="n">
-        <v>4.299216016079299e-05</v>
+        <v>0.0001315969857387245</v>
       </c>
       <c r="FY8" t="n">
-        <v>5.028909799875692e-05</v>
+        <v>0.0002402102691121399</v>
       </c>
       <c r="FZ8" t="n">
-        <v>2.799181493173819e-05</v>
+        <v>6.700780795654282e-05</v>
       </c>
       <c r="GA8" t="n">
-        <v>3.743526576727163e-06</v>
+        <v>4.184751742286608e-05</v>
       </c>
       <c r="GB8" t="n">
-        <v>7.956941772135906e-06</v>
+        <v>3.865869803121313e-05</v>
       </c>
       <c r="GC8" t="n">
-        <v>1.180260824185098e-05</v>
+        <v>9.763924026628956e-05</v>
       </c>
       <c r="GD8" t="n">
-        <v>3.996457235189155e-05</v>
+        <v>0.0001713573437882587</v>
       </c>
       <c r="GE8" t="n">
-        <v>3.127722811768763e-05</v>
+        <v>0.0001805985230021179</v>
       </c>
       <c r="GF8" t="n">
-        <v>2.416732058918569e-07</v>
+        <v>4.830855687032454e-05</v>
       </c>
       <c r="GG8" t="n">
-        <v>3.512444527586922e-05</v>
+        <v>0.0002937118115369231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0001254780654562637</v>
+        <v>1.716192049583398e-10</v>
       </c>
       <c r="B9" t="n">
-        <v>4.897497638012283e-05</v>
+        <v>3.974667539541343e-10</v>
       </c>
       <c r="C9" t="n">
-        <v>6.661175120825646e-06</v>
+        <v>1.938770845255622e-11</v>
       </c>
       <c r="D9" t="n">
-        <v>4.058263220940717e-05</v>
+        <v>5.330957897342614e-10</v>
       </c>
       <c r="E9" t="n">
-        <v>5.141922520124353e-05</v>
+        <v>2.848556113210776e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>1.972991231014021e-05</v>
+        <v>2.924155362293845e-11</v>
       </c>
       <c r="G9" t="n">
-        <v>5.779481216450222e-05</v>
+        <v>2.168814849934364e-10</v>
       </c>
       <c r="H9" t="n">
-        <v>2.275666520290542e-05</v>
+        <v>5.450299586651219e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>3.843128524749773e-06</v>
+        <v>1.396419230248469e-10</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001102770256693475</v>
+        <v>2.062740811492603e-10</v>
       </c>
       <c r="K9" t="n">
-        <v>2.08979381568497e-05</v>
+        <v>2.781476160507168e-10</v>
       </c>
       <c r="L9" t="n">
-        <v>1.257981057278812e-05</v>
+        <v>4.852943741306959e-11</v>
       </c>
       <c r="M9" t="n">
-        <v>3.249989094911143e-05</v>
+        <v>2.032911755600608e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>8.480874384986237e-05</v>
+        <v>3.933068870587419e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>2.485229970261571e-06</v>
+        <v>2.789038999750915e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>7.154007471399382e-05</v>
+        <v>2.493792949920248e-10</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67985308507923e-05</v>
+        <v>1.647277730887353e-10</v>
       </c>
       <c r="R9" t="n">
-        <v>8.727709428058006e-06</v>
+        <v>1.563808804672107e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>1.549947683088249e-06</v>
+        <v>2.858999495480852e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>2.145161943190033e-06</v>
+        <v>1.484122685857514e-10</v>
       </c>
       <c r="U9" t="n">
-        <v>1.198230847876403e-06</v>
+        <v>5.914090051017951e-11</v>
       </c>
       <c r="V9" t="n">
-        <v>8.987976798380259e-07</v>
+        <v>3.384079908658189e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>8.66575533109426e-07</v>
+        <v>3.104515811092057e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>4.613493729266338e-07</v>
+        <v>1.495893686698224e-10</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.000346648856066e-05</v>
+        <v>1.9336231227296e-10</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.756088360911235e-05</v>
+        <v>4.332844499854716e-11</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.79472431227623e-06</v>
+        <v>1.276923566884136e-10</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.48311619341257e-05</v>
+        <v>1.843884073204904e-11</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.732791128641111e-06</v>
+        <v>1.790022574610362e-10</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.249550774053205e-06</v>
+        <v>1.270188398905248e-10</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.925135832920205e-06</v>
+        <v>5.859573937172513e-11</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.645460199346417e-06</v>
+        <v>1.900682389255337e-10</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.869970431784168e-06</v>
+        <v>5.847133888181588e-11</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.59746342030121e-06</v>
+        <v>9.64499521916018e-11</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.026571382884867e-05</v>
+        <v>3.310327706396166e-11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.402230049687205e-06</v>
+        <v>7.064147183877267e-11</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.141765799024142e-05</v>
+        <v>8.821840480344179e-11</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.159700781907304e-06</v>
+        <v>8.249412264405009e-11</v>
       </c>
       <c r="AM9" t="n">
-        <v>9.284001862397417e-06</v>
+        <v>4.489693339326806e-11</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.100201916415244e-05</v>
+        <v>3.028023665141433e-11</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.403898169082822e-06</v>
+        <v>4.538798156761281e-12</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.122685135778738e-06</v>
+        <v>8.539532969642494e-11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.475608420762001e-06</v>
+        <v>5.532949098885354e-11</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.063584568328224e-05</v>
+        <v>1.390357412534016e-10</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.425779828423401e-06</v>
+        <v>6.649997219554393e-11</v>
       </c>
       <c r="AT9" t="n">
-        <v>5.477184458868578e-05</v>
+        <v>5.606173858474506e-11</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.231316466350108e-05</v>
+        <v>2.010611538372231e-10</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.816314807001618e-06</v>
+        <v>1.740311193765276e-11</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.922549927257933e-05</v>
+        <v>2.989404834785603e-10</v>
       </c>
       <c r="AX9" t="n">
-        <v>9.805782610783353e-06</v>
+        <v>1.362151641481901e-10</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.472408712288598e-05</v>
+        <v>1.305857089128892e-10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.580648495291825e-05</v>
+        <v>3.283583127622336e-11</v>
       </c>
       <c r="BA9" t="n">
-        <v>5.089553724246798e-06</v>
+        <v>3.996706438025299e-11</v>
       </c>
       <c r="BB9" t="n">
-        <v>5.384649739426095e-06</v>
+        <v>8.161077369450709e-11</v>
       </c>
       <c r="BC9" t="n">
-        <v>4.841393092647195e-05</v>
+        <v>6.515373657256518e-11</v>
       </c>
       <c r="BD9" t="n">
-        <v>7.832665687601548e-06</v>
+        <v>7.418888420263059e-11</v>
       </c>
       <c r="BE9" t="n">
-        <v>6.860142093501054e-06</v>
+        <v>8.210099267103033e-11</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.509379944764078e-05</v>
+        <v>2.759414571840146e-11</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.895900070143398e-05</v>
+        <v>2.524208619902879e-10</v>
       </c>
       <c r="BH9" t="n">
-        <v>2.187257450714242e-07</v>
+        <v>1.359040241455389e-10</v>
       </c>
       <c r="BI9" t="n">
-        <v>3.009479951288085e-05</v>
+        <v>9.412933106578425e-12</v>
       </c>
       <c r="BJ9" t="n">
-        <v>3.596242095227353e-05</v>
+        <v>1.941064114996394e-10</v>
       </c>
       <c r="BK9" t="n">
-        <v>6.760740234312834e-07</v>
+        <v>5.765943972280141e-11</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.525032636593096e-06</v>
+        <v>1.042592678857091e-10</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.403805981681217e-05</v>
+        <v>4.04975358803128e-11</v>
       </c>
       <c r="BN9" t="n">
-        <v>3.002920266226283e-06</v>
+        <v>8.581566707244193e-11</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.525815241620876e-05</v>
+        <v>1.20121940172524e-10</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.290167892875616e-05</v>
+        <v>5.542180603335112e-11</v>
       </c>
       <c r="BQ9" t="n">
-        <v>4.942674422636628e-06</v>
+        <v>2.515596932151087e-11</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.471973064326448e-05</v>
+        <v>9.624898100746293e-12</v>
       </c>
       <c r="BS9" t="n">
-        <v>7.887490937719122e-06</v>
+        <v>2.639420626504574e-11</v>
       </c>
       <c r="BT9" t="n">
-        <v>4.076528057339601e-06</v>
+        <v>7.093319681628074e-11</v>
       </c>
       <c r="BU9" t="n">
-        <v>4.067014378961176e-05</v>
+        <v>2.136950512376945e-11</v>
       </c>
       <c r="BV9" t="n">
-        <v>4.832687409361824e-06</v>
+        <v>6.434204558036782e-11</v>
       </c>
       <c r="BW9" t="n">
-        <v>8.705017535248771e-06</v>
+        <v>9.239183723641631e-11</v>
       </c>
       <c r="BX9" t="n">
-        <v>3.607025428209454e-05</v>
+        <v>6.738580526910454e-11</v>
       </c>
       <c r="BY9" t="n">
-        <v>3.185091918567196e-05</v>
+        <v>4.255170174549683e-11</v>
       </c>
       <c r="BZ9" t="n">
-        <v>3.077476776525145e-06</v>
+        <v>6.610713365606813e-11</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.152229015133344e-05</v>
+        <v>1.223176560039008e-10</v>
       </c>
       <c r="CB9" t="n">
-        <v>5.752744527853793e-06</v>
+        <v>1.214897973889073e-12</v>
       </c>
       <c r="CC9" t="n">
-        <v>2.467886133672437e-06</v>
+        <v>3.776451373838086e-11</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.3074298951542e-05</v>
+        <v>2.502589802055866e-11</v>
       </c>
       <c r="CE9" t="n">
-        <v>1.829299799283035e-05</v>
+        <v>7.800989715311957e-11</v>
       </c>
       <c r="CF9" t="n">
-        <v>8.849489177009673e-07</v>
+        <v>7.231793636153228e-11</v>
       </c>
       <c r="CG9" t="n">
-        <v>6.588272299268283e-06</v>
+        <v>2.514326941094325e-11</v>
       </c>
       <c r="CH9" t="n">
-        <v>9.766576113179326e-06</v>
+        <v>1.430861245460546e-11</v>
       </c>
       <c r="CI9" t="n">
-        <v>7.902048082542024e-08</v>
+        <v>3.857057034872824e-11</v>
       </c>
       <c r="CJ9" t="n">
-        <v>9.158848115475848e-06</v>
+        <v>1.597248722173816e-11</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.069030415441375e-06</v>
+        <v>1.401626124192257e-11</v>
       </c>
       <c r="CL9" t="n">
-        <v>3.730107891897205e-06</v>
+        <v>9.284163021705538e-11</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.269111180590698e-05</v>
+        <v>1.029715479550219e-10</v>
       </c>
       <c r="CN9" t="n">
-        <v>1.678343687672168e-05</v>
+        <v>2.847286989515752e-11</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.004812565952307e-05</v>
+        <v>4.03631884859923e-11</v>
       </c>
       <c r="CP9" t="n">
-        <v>4.576059836836066e-06</v>
+        <v>1.265528792870896e-10</v>
       </c>
       <c r="CQ9" t="n">
-        <v>4.465638085093815e-06</v>
+        <v>1.160250645559913e-10</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.97195458895294e-06</v>
+        <v>7.000564017367594e-11</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.072248551281518e-06</v>
+        <v>1.832725915473787e-10</v>
       </c>
       <c r="CT9" t="n">
-        <v>2.4489740098943e-05</v>
+        <v>5.800861874183383e-11</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.169788902188884e-06</v>
+        <v>2.740604097828392e-11</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.720118598314002e-05</v>
+        <v>1.863376987432108e-11</v>
       </c>
       <c r="CW9" t="n">
-        <v>1.669764060352463e-05</v>
+        <v>7.294909121213777e-11</v>
       </c>
       <c r="CX9" t="n">
-        <v>4.455247108126059e-06</v>
+        <v>6.673743502272345e-11</v>
       </c>
       <c r="CY9" t="n">
-        <v>5.795397555630188e-06</v>
+        <v>7.128072437856403e-11</v>
       </c>
       <c r="CZ9" t="n">
-        <v>6.022184606990777e-06</v>
+        <v>3.621843797096957e-11</v>
       </c>
       <c r="DA9" t="n">
-        <v>3.064282282139175e-06</v>
+        <v>5.334130359635481e-11</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.149978743342217e-05</v>
+        <v>1.980383912414396e-11</v>
       </c>
       <c r="DC9" t="n">
-        <v>4.319394520280184e-06</v>
+        <v>1.555314557699639e-11</v>
       </c>
       <c r="DD9" t="n">
-        <v>4.278042069927324e-06</v>
+        <v>8.188107136763989e-11</v>
       </c>
       <c r="DE9" t="n">
-        <v>6.668393325526267e-06</v>
+        <v>1.135658650452953e-10</v>
       </c>
       <c r="DF9" t="n">
-        <v>4.349362643552013e-05</v>
+        <v>1.466797378002482e-10</v>
       </c>
       <c r="DG9" t="n">
-        <v>9.906676496029831e-06</v>
+        <v>1.384836967321945e-10</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.413516656612046e-05</v>
+        <v>2.940500898329645e-10</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.279945900023449e-05</v>
+        <v>4.882771964531685e-10</v>
       </c>
       <c r="DJ9" t="n">
-        <v>4.46449666924309e-06</v>
+        <v>1.039115321566086e-10</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.649844125495292e-05</v>
+        <v>2.011601440976563e-10</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.099980909202714e-05</v>
+        <v>3.178413088278376e-10</v>
       </c>
       <c r="DM9" t="n">
-        <v>1.477288969908841e-05</v>
+        <v>4.49838430394145e-11</v>
       </c>
       <c r="DN9" t="n">
-        <v>7.011192337813554e-06</v>
+        <v>6.493442589183829e-11</v>
       </c>
       <c r="DO9" t="n">
-        <v>1.201492523250636e-05</v>
+        <v>3.62236282636097e-11</v>
       </c>
       <c r="DP9" t="n">
-        <v>4.650295522878878e-06</v>
+        <v>6.213531078547163e-11</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.498365804764035e-06</v>
+        <v>1.494165347004639e-10</v>
       </c>
       <c r="DR9" t="n">
-        <v>6.344314442685572e-06</v>
+        <v>3.186530900256557e-12</v>
       </c>
       <c r="DS9" t="n">
-        <v>5.18579440722533e-07</v>
+        <v>2.242020978593384e-11</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.326770416198997e-06</v>
+        <v>1.131652063723898e-12</v>
       </c>
       <c r="DU9" t="n">
-        <v>5.812821200379403e-06</v>
+        <v>4.593940505781546e-11</v>
       </c>
       <c r="DV9" t="n">
-        <v>4.689008164859843e-06</v>
+        <v>1.623357698266048e-10</v>
       </c>
       <c r="DW9" t="n">
-        <v>5.532194336410612e-06</v>
+        <v>1.81563999945844e-11</v>
       </c>
       <c r="DX9" t="n">
-        <v>8.377048288821243e-06</v>
+        <v>2.267248541687472e-11</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.252883794222726e-05</v>
+        <v>2.056855796794821e-10</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.967400748981163e-06</v>
+        <v>6.16876124834298e-12</v>
       </c>
       <c r="EA9" t="n">
-        <v>7.558695415355032e-06</v>
+        <v>2.394439507780177e-11</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.05945819086628e-05</v>
+        <v>2.169740082047511e-10</v>
       </c>
       <c r="EC9" t="n">
-        <v>9.523942935629748e-06</v>
+        <v>9.045635768201166e-12</v>
       </c>
       <c r="ED9" t="n">
-        <v>2.129121821781155e-05</v>
+        <v>4.577598022859064e-11</v>
       </c>
       <c r="EE9" t="n">
-        <v>6.99428710504435e-07</v>
+        <v>1.445196740057497e-11</v>
       </c>
       <c r="EF9" t="n">
-        <v>4.168913437752053e-05</v>
+        <v>3.182811653124062e-12</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.650344322319143e-05</v>
+        <v>7.656300593517074e-11</v>
       </c>
       <c r="EH9" t="n">
-        <v>7.626600108778803e-06</v>
+        <v>8.300565096375223e-11</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.521413287264295e-05</v>
+        <v>7.876670149453702e-11</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.340712333330885e-05</v>
+        <v>7.301922955171847e-11</v>
       </c>
       <c r="EK9" t="n">
-        <v>2.480417151673464e-06</v>
+        <v>7.598963819299698e-11</v>
       </c>
       <c r="EL9" t="n">
-        <v>4.517097750067478e-06</v>
+        <v>3.676004639574515e-11</v>
       </c>
       <c r="EM9" t="n">
-        <v>6.557572305609938e-06</v>
+        <v>2.105410637498473e-11</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.25930864669499e-06</v>
+        <v>7.617666913928289e-11</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.00271599876578e-05</v>
+        <v>1.204963906431544e-11</v>
       </c>
       <c r="EP9" t="n">
-        <v>2.064214640995488e-05</v>
+        <v>4.556547500422781e-11</v>
       </c>
       <c r="EQ9" t="n">
-        <v>2.819250084939995e-06</v>
+        <v>6.572693084239134e-11</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.181108927994501e-06</v>
+        <v>1.486013222196103e-11</v>
       </c>
       <c r="ES9" t="n">
-        <v>1.257798976439517e-05</v>
+        <v>1.571447416637284e-10</v>
       </c>
       <c r="ET9" t="n">
-        <v>3.298135879958863e-06</v>
+        <v>9.904656261827682e-11</v>
       </c>
       <c r="EU9" t="n">
-        <v>5.017987859901041e-06</v>
+        <v>3.591454911244796e-11</v>
       </c>
       <c r="EV9" t="n">
-        <v>6.449413376685698e-07</v>
+        <v>2.431566059613033e-10</v>
       </c>
       <c r="EW9" t="n">
-        <v>4.894948688161094e-06</v>
+        <v>5.636589112123502e-11</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.944390896824189e-05</v>
+        <v>1.950769407121911e-12</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.309203980781604e-05</v>
+        <v>6.565260834978659e-11</v>
       </c>
       <c r="EZ9" t="n">
-        <v>2.66711526819563e-06</v>
+        <v>5.217728679673961e-11</v>
       </c>
       <c r="FA9" t="n">
-        <v>8.407479981542565e-06</v>
+        <v>5.048866880130731e-11</v>
       </c>
       <c r="FB9" t="n">
-        <v>7.802234904374927e-06</v>
+        <v>3.554383523618476e-11</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.037487322719244e-06</v>
+        <v>3.933339418060733e-11</v>
       </c>
       <c r="FD9" t="n">
-        <v>8.303282811539248e-06</v>
+        <v>2.492323188107992e-11</v>
       </c>
       <c r="FE9" t="n">
-        <v>5.824855975333776e-07</v>
+        <v>1.429514666362319e-11</v>
       </c>
       <c r="FF9" t="n">
-        <v>1.22556059523049e-07</v>
+        <v>9.126831235217736e-11</v>
       </c>
       <c r="FG9" t="n">
-        <v>8.43729776534019e-06</v>
+        <v>1.567744892239098e-11</v>
       </c>
       <c r="FH9" t="n">
-        <v>5.75702142668888e-06</v>
+        <v>7.312486033361765e-11</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.996698756556725e-06</v>
+        <v>2.273336380254065e-10</v>
       </c>
       <c r="FJ9" t="n">
-        <v>2.962771304737544e-06</v>
+        <v>2.196531012632619e-10</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.035691548167961e-05</v>
+        <v>5.857365287242899e-11</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.365395655739121e-05</v>
+        <v>5.461565227848908e-11</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.010827600111952e-05</v>
+        <v>1.903938985636788e-11</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.439535364828771e-07</v>
+        <v>1.448881986609862e-10</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.212532879435457e-06</v>
+        <v>1.024549056705126e-10</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.282784978684504e-05</v>
+        <v>2.961580286564569e-11</v>
       </c>
       <c r="FQ9" t="n">
-        <v>3.249458313803189e-05</v>
+        <v>7.769096130316733e-12</v>
       </c>
       <c r="FR9" t="n">
-        <v>1.160723695647903e-05</v>
+        <v>1.503917684830824e-10</v>
       </c>
       <c r="FS9" t="n">
-        <v>1.054057065630332e-06</v>
+        <v>1.162105967011939e-10</v>
       </c>
       <c r="FT9" t="n">
-        <v>1.24713051263825e-06</v>
+        <v>2.161676809775415e-10</v>
       </c>
       <c r="FU9" t="n">
-        <v>7.10594986230717e-06</v>
+        <v>3.933279396628464e-11</v>
       </c>
       <c r="FV9" t="n">
-        <v>9.159785804513376e-06</v>
+        <v>4.106522760727316e-11</v>
       </c>
       <c r="FW9" t="n">
-        <v>2.41397265199339e-06</v>
+        <v>4.071639553293593e-11</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.037445053952979e-05</v>
+        <v>1.249905734468371e-11</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.754835830070078e-05</v>
+        <v>1.849008862686574e-10</v>
       </c>
       <c r="FZ9" t="n">
-        <v>3.278537178630359e-06</v>
+        <v>8.948097818262113e-11</v>
       </c>
       <c r="GA9" t="n">
-        <v>1.225218056788435e-05</v>
+        <v>3.471787440867402e-11</v>
       </c>
       <c r="GB9" t="n">
-        <v>8.483644705847837e-06</v>
+        <v>8.780149524101333e-11</v>
       </c>
       <c r="GC9" t="n">
-        <v>5.600071290245978e-06</v>
+        <v>1.880051947455996e-10</v>
       </c>
       <c r="GD9" t="n">
-        <v>2.187597146985354e-06</v>
+        <v>6.274966657393577e-11</v>
       </c>
       <c r="GE9" t="n">
-        <v>2.47411571763223e-06</v>
+        <v>2.989518632645627e-10</v>
       </c>
       <c r="GF9" t="n">
-        <v>5.03124829265289e-06</v>
+        <v>1.312299227618219e-12</v>
       </c>
       <c r="GG9" t="n">
-        <v>8.852803148329258e-06</v>
+        <v>1.18178106189859e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002771540079265833</v>
+        <v>0.0008215091074816883</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0005920578259974718</v>
+        <v>0.007357816211879253</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003492778399959207</v>
+        <v>0.0007596974610351026</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0006143392529338598</v>
+        <v>0.002901285421103239</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002626279136165977</v>
+        <v>0.001185678644105792</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005835542106069624</v>
+        <v>0.003822124563157558</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003686055133584887</v>
+        <v>0.000451955886092037</v>
       </c>
       <c r="H10" t="n">
-        <v>1.144004636444151e-05</v>
+        <v>0.002513336483389139</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004484940436668694</v>
+        <v>0.0008211316308006644</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002992477267980576</v>
+        <v>0.00168187078088522</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0007351855165325105</v>
+        <v>0.006597218103706837</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003737048245966434</v>
+        <v>0.0003580268821679056</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0002434841298963875</v>
+        <v>0.002426447346806526</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00099186971783638</v>
+        <v>0.0001952547172550112</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0009261249797418714</v>
+        <v>0.003576611168682575</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0006350030307658017</v>
+        <v>0.0003313964116387069</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0004137872892897576</v>
+        <v>0.0006102535990066826</v>
       </c>
       <c r="R10" t="n">
-        <v>0.000817540567368269</v>
+        <v>0.001637006178498268</v>
       </c>
       <c r="S10" t="n">
-        <v>4.544043622445315e-05</v>
+        <v>0.0003023514873348176</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001022570999339223</v>
+        <v>0.0007793501717969775</v>
       </c>
       <c r="U10" t="n">
-        <v>4.621453263098374e-05</v>
+        <v>0.000668381922878325</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0001460110652260482</v>
+        <v>0.0004772191459778696</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0003241482481826097</v>
+        <v>0.0005813061725348234</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0001256051909876987</v>
+        <v>0.001130633638240397</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0003613414592109621</v>
+        <v>0.0004888223484158516</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0005564322345890105</v>
+        <v>0.001270859269425273</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0001518454810138792</v>
+        <v>0.001157693914137781</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.607800555182621e-05</v>
+        <v>0.0004067051340825856</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.184561501257122e-05</v>
+        <v>0.0004819438909180462</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0002936575911007822</v>
+        <v>1.651000638958067e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0005100289708934724</v>
+        <v>7.823276973795146e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.22595878969878e-05</v>
+        <v>0.0008778382325544953</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.254058775492013e-05</v>
+        <v>0.0003365974698681384</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0005106159951537848</v>
+        <v>0.000314327422529459</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0008481491240672767</v>
+        <v>0.000212902610655874</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.000470075145130977</v>
+        <v>0.0005985636962577701</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0008454077760688961</v>
+        <v>0.0007691995706409216</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.00106604874599725</v>
+        <v>0.001172114629298449</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0004633011412806809</v>
+        <v>0.0001489598944317549</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0005694213905371726</v>
+        <v>0.0007968096761032939</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.961757880053483e-05</v>
+        <v>0.0002859412925317883</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0004037393373437226</v>
+        <v>0.0009501046733930707</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.121316982898861e-05</v>
+        <v>0.0005664450582116842</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0002339894417673349</v>
+        <v>0.0001220673584612086</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0001453865843359381</v>
+        <v>0.001031357096508145</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.001202840940095484</v>
+        <v>0.0005972487851977348</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.0009682870004326105</v>
+        <v>0.004268782213330269</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.00209344644099474</v>
+        <v>0.0003024619072675705</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0004018454346805811</v>
+        <v>0.000675296294502914</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0001861591008491814</v>
+        <v>0.0003070602251682431</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0008407821296714246</v>
+        <v>0.003067437093704939</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0005018541123718023</v>
+        <v>0.002042683074250817</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0002180034352932125</v>
+        <v>0.001134681515395641</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0002514511870685965</v>
+        <v>0.002112460788339376</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.000318551465170458</v>
+        <v>0.0005722347996197641</v>
       </c>
       <c r="BD10" t="n">
-        <v>6.240194488782436e-05</v>
+        <v>0.00128172873519361</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0007222855929285288</v>
+        <v>0.001583439647220075</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.0001068050260073505</v>
+        <v>0.0002794331812765449</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.00127094890922308</v>
+        <v>0.0008011817699298263</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.000466059020254761</v>
+        <v>0.0005111470818519592</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0007703806040808558</v>
+        <v>0.000876224716193974</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0007935726316645741</v>
+        <v>0.00128467008471489</v>
       </c>
       <c r="BK10" t="n">
-        <v>9.904284524964169e-06</v>
+        <v>0.001478591118939221</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0001770791423041373</v>
+        <v>0.0002639266895130277</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0005434955819509923</v>
+        <v>0.0007923795492388308</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0007434231229126453</v>
+        <v>0.0007976455963216722</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0002074189105769619</v>
+        <v>6.533224950544536e-05</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0006266119889914989</v>
+        <v>0.0001940045331139117</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0001122539688367397</v>
+        <v>0.0005466399015858769</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.000502154347486794</v>
+        <v>0.0008900591637939215</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0005583892343565822</v>
+        <v>0.0007337903371080756</v>
       </c>
       <c r="BT10" t="n">
-        <v>7.698350964346901e-05</v>
+        <v>3.813314833678305e-05</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.001422316068783402</v>
+        <v>3.08155722450465e-06</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0002344956737942994</v>
+        <v>0.002433221088722348</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.001062101451680064</v>
+        <v>0.001224022707901895</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0002161690790671855</v>
+        <v>0.0002091674832627177</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0006499906303361058</v>
+        <v>0.0005235119024291635</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0005289143300615251</v>
+        <v>0.001480267150327563</v>
       </c>
       <c r="CA10" t="n">
-        <v>6.380122795235366e-05</v>
+        <v>0.0003995225997641683</v>
       </c>
       <c r="CB10" t="n">
-        <v>5.748561670770869e-05</v>
+        <v>0.0003558454918675125</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.0002085569285554811</v>
+        <v>0.0009209542768076062</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0006533479318022728</v>
+        <v>0.0001468190748710185</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.000828609976451844</v>
+        <v>0.001312564476393163</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.000597181438934058</v>
+        <v>0.0006458446732722223</v>
       </c>
       <c r="CG10" t="n">
-        <v>7.841038313927129e-05</v>
+        <v>0.0001545480045024306</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0003718305379152298</v>
+        <v>0.0002390662557445467</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.000363827362889424</v>
+        <v>0.0003412157238926739</v>
       </c>
       <c r="CJ10" t="n">
-        <v>6.777256930945441e-05</v>
+        <v>0.000555011909455061</v>
       </c>
       <c r="CK10" t="n">
-        <v>5.066258017905056e-05</v>
+        <v>0.0005050198524259031</v>
       </c>
       <c r="CL10" t="n">
-        <v>7.486555114155635e-05</v>
+        <v>0.0006179085467010736</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0002263393253087997</v>
+        <v>0.001559398369863629</v>
       </c>
       <c r="CN10" t="n">
-        <v>7.674330845475197e-05</v>
+        <v>0.0002937455428764224</v>
       </c>
       <c r="CO10" t="n">
-        <v>4.742218879982829e-05</v>
+        <v>3.583227953640744e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0004725584003608674</v>
+        <v>0.002599035855382681</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0002158105780836195</v>
+        <v>0.0006276926142163575</v>
       </c>
       <c r="CR10" t="n">
-        <v>2.415245398879051e-05</v>
+        <v>0.0009578306926414371</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0001253718219231814</v>
+        <v>0.00154670502524823</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0001669465127633885</v>
+        <v>0.001143148168921471</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0001537158386781812</v>
+        <v>0.0004399843164719641</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0006056775455363095</v>
+        <v>0.0001482634979765862</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0007912889122962952</v>
+        <v>0.001282103592529893</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0006907484494149685</v>
+        <v>0.0006782902637496591</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0001052087536663748</v>
+        <v>0.0005645649507641792</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0007690673228353262</v>
+        <v>0.0003633728192653507</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.000389946042560041</v>
+        <v>0.0002311684074811637</v>
       </c>
       <c r="DB10" t="n">
-        <v>2.401357050985098e-06</v>
+        <v>0.0005277460440993309</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.467727997805923e-06</v>
+        <v>0.0008844244293868542</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0001035679379128851</v>
+        <v>0.0005930714542046189</v>
       </c>
       <c r="DE10" t="n">
-        <v>7.726732292212546e-05</v>
+        <v>0.0008343485533259809</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.002183145377784967</v>
+        <v>0.0006092777475714684</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0008957490208558738</v>
+        <v>0.0004233690269757062</v>
       </c>
       <c r="DH10" t="n">
-        <v>7.072369771776721e-05</v>
+        <v>0.001156477024778724</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0003728583105839789</v>
+        <v>0.001250251661986113</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0002551769139245152</v>
+        <v>0.003813724033534527</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0001198455429403111</v>
+        <v>0.0006673276657238603</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.394606078974903e-05</v>
+        <v>0.001813372480683029</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0001577890652697533</v>
+        <v>0.001558636082336307</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0001284323225263506</v>
+        <v>2.334002056159079e-05</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.000943644845392555</v>
+        <v>0.0006259322399273515</v>
       </c>
       <c r="DP10" t="n">
-        <v>2.262793714180589e-05</v>
+        <v>0.0007168910815380514</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.55474481289275e-05</v>
+        <v>4.751826782012358e-05</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.000439270690549165</v>
+        <v>0.0004305627080611885</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0002122544392477721</v>
+        <v>0.001276345225051045</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.0002762529766187072</v>
+        <v>0.001376683358103037</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0001752775424392894</v>
+        <v>0.000288891838863492</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0002423913101665676</v>
+        <v>0.0001010065025184304</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0003208049456588924</v>
+        <v>6.435421528294683e-05</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0001905413664644584</v>
+        <v>0.0007772127282805741</v>
       </c>
       <c r="DY10" t="n">
-        <v>9.307319123763591e-05</v>
+        <v>0.000683779246173799</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0003566722152754664</v>
+        <v>0.001013372908346355</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.000669607543386519</v>
+        <v>0.0004152124165557325</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.0002006968279602006</v>
+        <v>0.000545650371350348</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0004259378183633089</v>
+        <v>0.0004468656843528152</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0003158043837174773</v>
+        <v>0.0001848116371547803</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0003529769601300359</v>
+        <v>0.001598475617356598</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.001122754765674472</v>
+        <v>0.0005698305321857333</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0004152926267124712</v>
+        <v>0.001432370045222342</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.0007416582084260881</v>
+        <v>0.0005487552843987942</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0003788104222621769</v>
+        <v>0.0003158509207423776</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.0002356414042878896</v>
+        <v>0.000407946587074548</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.001007834682241082</v>
+        <v>0.001170337316580117</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0001872213324531913</v>
+        <v>0.0009162219939753413</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0005876699578948319</v>
+        <v>0.0003119456523563713</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0004578445805236697</v>
+        <v>0.0002561459550634027</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0002169830695493147</v>
+        <v>0.0001874671434052289</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0004058649064972997</v>
+        <v>0.0008519500261172652</v>
       </c>
       <c r="EQ10" t="n">
-        <v>8.75744444783777e-06</v>
+        <v>0.0009522722102701664</v>
       </c>
       <c r="ER10" t="n">
-        <v>4.826429358217865e-05</v>
+        <v>0.0003711887402459979</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.0004668852197937667</v>
+        <v>0.001207914901897311</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0005503973225131631</v>
+        <v>0.0005253757699392736</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.0003508402442093939</v>
+        <v>0.001730679767206311</v>
       </c>
       <c r="EV10" t="n">
-        <v>8.73375465744175e-05</v>
+        <v>0.001975083723664284</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0001147851071436889</v>
+        <v>0.0003197209734935313</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0006796768866479397</v>
+        <v>0.0003268037107773125</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.0006573527352884412</v>
+        <v>0.001200464088469744</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0006971713155508041</v>
+        <v>0.0005563810700550675</v>
       </c>
       <c r="FA10" t="n">
-        <v>9.358998067909852e-05</v>
+        <v>1.240198616869748e-05</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0006011168006807566</v>
+        <v>0.0002984690072480589</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0001804278144845739</v>
+        <v>0.0001476836914662272</v>
       </c>
       <c r="FD10" t="n">
-        <v>6.054702680557966e-05</v>
+        <v>0.0009641296928748488</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.0001534883340355009</v>
+        <v>0.0007885682862251997</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.0002449380699545145</v>
+        <v>0.0008531216299161315</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0004898015758953989</v>
+        <v>0.0002685680228751153</v>
       </c>
       <c r="FH10" t="n">
-        <v>2.279366162838414e-05</v>
+        <v>0.0004212309431750327</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0007184781134128571</v>
+        <v>0.001085583702661097</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0007677095127291977</v>
+        <v>0.001376043073832989</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0004950286238454282</v>
+        <v>0.0004222843563184142</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.0004064963723067194</v>
+        <v>0.0004832374979741871</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0004494446329772472</v>
+        <v>0.0005190055817365646</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0002984135644510388</v>
+        <v>0.000526027986779809</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0005813941825181246</v>
+        <v>0.0008158473065122962</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0006122904596850276</v>
+        <v>0.0008496994851157069</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.001906024059280753</v>
+        <v>0.0001778975711204112</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0002503521973267198</v>
+        <v>0.0007066731341183186</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.0004871873534284532</v>
+        <v>0.001005546771921217</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0002645748027134687</v>
+        <v>0.0004911533906124532</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0007410582038573921</v>
+        <v>0.001013282453641295</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0001482451771153137</v>
+        <v>0.001066962257027626</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.0001924987009260803</v>
+        <v>0.000961143639869988</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0002036404039245099</v>
+        <v>0.0006661137449555099</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0003382187569513917</v>
+        <v>0.001504588406533003</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0003411492798477411</v>
+        <v>0.0005232733092270792</v>
       </c>
       <c r="GA10" t="n">
-        <v>7.055193418636918e-05</v>
+        <v>0.0005885412101633847</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.0002889861934818327</v>
+        <v>0.0002604089095257223</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0002896296791732311</v>
+        <v>0.0009951444808393717</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0005587311461567879</v>
+        <v>0.0004141477693337947</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0001218086617882363</v>
+        <v>0.001735927420668304</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.0002249524841317907</v>
+        <v>0.0005707900272682309</v>
       </c>
       <c r="GG10" t="n">
-        <v>8.708343375474215e-05</v>
+        <v>0.0002111555077135563</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.008946343325078487</v>
+        <v>0.01861057803034782</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002329918323084712</v>
+        <v>0.2371256947517395</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008336184546351433</v>
+        <v>0.006445686332881451</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001610021572560072</v>
+        <v>0.1187348589301109</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003249197732657194</v>
+        <v>0.0323340892791748</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001526090898551047</v>
+        <v>0.203238770365715</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001259404933080077</v>
+        <v>0.001469207927584648</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001448026450816542</v>
+        <v>0.08297643065452576</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001893412787467241</v>
+        <v>0.01685802266001701</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008609429001808167</v>
+        <v>0.04856201261281967</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001372694387100637</v>
+        <v>0.2230824679136276</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009552678093314171</v>
+        <v>0.004515244159847498</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0001865220547188073</v>
+        <v>0.08597143739461899</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0004555365303531289</v>
+        <v>0.003100891131907701</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002245189156383276</v>
+        <v>0.1893228590488434</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002361797261983156</v>
+        <v>0.01312901824712753</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.000254022452281788</v>
+        <v>0.03677046671509743</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002658072393387556</v>
+        <v>0.005585072096437216</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0003008236235473305</v>
+        <v>0.01078718341886997</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001175667741335928</v>
+        <v>0.01615801453590393</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0006953474367037416</v>
+        <v>0.02153419330716133</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0003985023067798465</v>
+        <v>0.03197560459375381</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0006355381337925792</v>
+        <v>0.0583316832780838</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001235380652360618</v>
+        <v>0.0186696108430624</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0004593519261106849</v>
+        <v>0.01893303729593754</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001193147618323565</v>
+        <v>0.05739665031433105</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0003520772443152964</v>
+        <v>0.03486910462379456</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.586643677204847e-05</v>
+        <v>0.001438789069652557</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0002515973756089807</v>
+        <v>0.0133759044110775</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0004119515942875296</v>
+        <v>0.009325931780040264</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001468090573325753</v>
+        <v>0.009861024096608162</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0003025334444828331</v>
+        <v>0.01389772724360228</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0005678250454366207</v>
+        <v>0.0143308974802494</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.000395022623706609</v>
+        <v>0.01284622400999069</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.002250173129141331</v>
+        <v>0.008509773761034012</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.001145925838500261</v>
+        <v>0.0130384424701333</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.002015685196965933</v>
+        <v>0.02094356715679169</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.001399665139615536</v>
+        <v>0.04187099635601044</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0009700964437797666</v>
+        <v>0.002297541126608849</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.001609809580259025</v>
+        <v>0.008399352431297302</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.83168216003105e-05</v>
+        <v>0.0009102043695747852</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0006077670259401202</v>
+        <v>0.02807123400270939</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0002243869530502707</v>
+        <v>0.00256158341653645</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0009328219457529485</v>
+        <v>0.01317024976015091</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0002878480008803308</v>
+        <v>0.02483553253114223</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.004063391126692295</v>
+        <v>0.03235190361738205</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.001012348686344922</v>
+        <v>0.1736998409032822</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.004317376762628555</v>
+        <v>0.005375235341489315</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.001478762598708272</v>
+        <v>0.04496053233742714</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0006583911017514765</v>
+        <v>0.01709465309977531</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.001387500087730587</v>
+        <v>0.1077655255794525</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0007287649787031114</v>
+        <v>0.02394679933786392</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0003755690122488886</v>
+        <v>0.0204777829349041</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0003668480785563588</v>
+        <v>0.06129929423332214</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.001395787345245481</v>
+        <v>0.0216589942574501</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0004848653625231236</v>
+        <v>0.03791249915957451</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.002294803503900766</v>
+        <v>0.04754414781928062</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0001950178557308391</v>
+        <v>0.00249142711982131</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.002704986836761236</v>
+        <v>0.03823554515838623</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.00119840179104358</v>
+        <v>0.06128839775919914</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.00147494301199913</v>
+        <v>0.01917595602571964</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.001166914473287761</v>
+        <v>0.01999368704855442</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0004705241299234331</v>
+        <v>0.01394461281597614</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0005067484453320503</v>
+        <v>0.0001503666862845421</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.001325001823715866</v>
+        <v>0.0546487532556057</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.001386891584843397</v>
+        <v>0.00672224722802639</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0007443609647452831</v>
+        <v>0.01508929952979088</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.002196868881583214</v>
+        <v>0.003939978778362274</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0009819165570661426</v>
+        <v>0.001912229578010738</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.000638506724499166</v>
+        <v>0.01697306707501411</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.001224872888997197</v>
+        <v>0.006471746601164341</v>
       </c>
       <c r="BT11" t="n">
-        <v>4.729615466203541e-05</v>
+        <v>0.006727925501763821</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.003678509732708335</v>
+        <v>0.01539248321205378</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0004567594733089209</v>
+        <v>0.09007550776004791</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.001793169183656573</v>
+        <v>0.01483060978353024</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0005708122625946999</v>
+        <v>0.03765137121081352</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.001548171974718571</v>
+        <v>0.02255133725702763</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0006798924296163023</v>
+        <v>0.04176545515656471</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0006618232000619173</v>
+        <v>0.01393814291805029</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0003325298021081835</v>
+        <v>0.0002313493750989437</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.001220057718455791</v>
+        <v>0.04003608599305153</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.001905707875266671</v>
+        <v>0.001381583511829376</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.002196916844695807</v>
+        <v>0.03101350367069244</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.001658683293499053</v>
+        <v>0.02275220118463039</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0001921372022479773</v>
+        <v>0.01631583645939827</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0002439352974761277</v>
+        <v>0.005913358181715012</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0007076495094224811</v>
+        <v>0.0315823070704937</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0001480892387917265</v>
+        <v>0.01641953736543655</v>
       </c>
       <c r="CK11" t="n">
-        <v>5.317269824445248e-05</v>
+        <v>0.01131806336343288</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0002075005759252235</v>
+        <v>0.02083336561918259</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0006116989534348249</v>
+        <v>0.05034342035651207</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0001308680220972747</v>
+        <v>0.007730855606496334</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0002573845267761499</v>
+        <v>0.005318635143339634</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.0009023312595672905</v>
+        <v>0.0362873338162899</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.001761764637194574</v>
+        <v>0.001192907337099314</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0003903508768416941</v>
+        <v>0.006107674911618233</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.0004630759649444371</v>
+        <v>0.04923717677593231</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0001021686475723982</v>
+        <v>0.04619910195469856</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.0001103620161302388</v>
+        <v>0.009500612504780293</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.001699293730780482</v>
+        <v>0.0001195187214761972</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.001998592866584659</v>
+        <v>0.02730012498795986</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.001919442787766457</v>
+        <v>0.01881650649011135</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0003340484399814159</v>
+        <v>0.02870979718863964</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.001219503348693252</v>
+        <v>0.007997095584869385</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.0009735636413097382</v>
+        <v>0.03324554488062859</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0002161097654607147</v>
+        <v>0.01652374491095543</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.0002562963636592031</v>
+        <v>0.02352634444832802</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.000124595986562781</v>
+        <v>0.01090287044644356</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.0007678621914237738</v>
+        <v>0.005340783856809139</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.005045210942625999</v>
+        <v>0.01120668277144432</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.001696798717603087</v>
+        <v>0.007310524582862854</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0005922333803027868</v>
+        <v>0.08527781814336777</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.001236383803188801</v>
+        <v>0.04483778774738312</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.001311307307332754</v>
+        <v>0.02795918844640255</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.001257584663107991</v>
+        <v>0.004713171161711216</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0003087951918132603</v>
+        <v>0.03878370299935341</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.000213817591429688</v>
+        <v>0.02164205349981785</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.0003612642758525908</v>
+        <v>0.004920377396047115</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.002342756139114499</v>
+        <v>0.0031406763009727</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0004643505089916289</v>
+        <v>0.01693795807659626</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0001657559478189796</v>
+        <v>0.0004337313584983349</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0005002561374567449</v>
+        <v>0.008421801961958408</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0006337017985060811</v>
+        <v>0.002283880952745676</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0001016406531562097</v>
+        <v>0.00104664801619947</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0002099672565236688</v>
+        <v>0.002834649290889502</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0005943402065895498</v>
+        <v>0.02057269774377346</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.001101192086935043</v>
+        <v>0.0001513669267296791</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.001070731319487095</v>
+        <v>0.0252188928425312</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0004379599704407156</v>
+        <v>0.01928079500794411</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.001034676213748753</v>
+        <v>0.008103316649794579</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0008692785631865263</v>
+        <v>0.00138934375718236</v>
       </c>
       <c r="EB11" t="n">
-        <v>9.50635876506567e-06</v>
+        <v>0.01551226247102022</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0004652737115975469</v>
+        <v>0.0007104217074811459</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.001013932167552412</v>
+        <v>0.004836912266910076</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0001108989090425894</v>
+        <v>0.0101972296833992</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.002782769966870546</v>
+        <v>0.01348243094980717</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.001517863944172859</v>
+        <v>0.03572700917720795</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.001888206112198532</v>
+        <v>0.01130735781043768</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0003693148610182106</v>
+        <v>0.007187223993241787</v>
       </c>
       <c r="EJ11" t="n">
-        <v>5.523953586816788e-05</v>
+        <v>8.202483877539635e-05</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.002329281996935606</v>
+        <v>0.02313658222556114</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0002574340614955872</v>
+        <v>0.01592731103301048</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.00136131641920656</v>
+        <v>0.006859187036752701</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.000975746545009315</v>
+        <v>0.01097701955586672</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0009875904070213437</v>
+        <v>0.001153502613306046</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.001642347313463688</v>
+        <v>0.01492869574576616</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0003334955545142293</v>
+        <v>0.01754457503557205</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0003420895664021373</v>
+        <v>0.02199815027415752</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.00113898073323071</v>
+        <v>0.01740813255310059</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.0006911924574524164</v>
+        <v>0.02959133125841618</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0002714526781346649</v>
+        <v>0.03905221074819565</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0003704000846482813</v>
+        <v>0.06678984314203262</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.0004170464526396245</v>
+        <v>0.005901198834180832</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.001783405430614948</v>
+        <v>0.004123020451515913</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.00178921059705317</v>
+        <v>0.02567833662033081</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.001729546347633004</v>
+        <v>0.0155309671536088</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.00018482786254026</v>
+        <v>0.02027012594044209</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0009271296439692378</v>
+        <v>0.004942032974213362</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0003031105734407902</v>
+        <v>0.02759478241205215</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.0001820999605115503</v>
+        <v>0.02859637886285782</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0002517304965294898</v>
+        <v>0.01527217030525208</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0004425104707479477</v>
+        <v>0.02188032492995262</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0007984678377397358</v>
+        <v>0.01078008860349655</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0007321364246308804</v>
+        <v>0.007210119161754847</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.002241194015368819</v>
+        <v>0.01567903906106949</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.001824753009714186</v>
+        <v>0.03749755769968033</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.00028949324041605</v>
+        <v>0.008984709158539772</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.0009896333795040846</v>
+        <v>0.01825453341007233</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0001956210908247158</v>
+        <v>0.0005547641776502132</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0005339474882930517</v>
+        <v>0.01815658807754517</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.0001519985671620816</v>
+        <v>0.01698459312319756</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.001204065047204494</v>
+        <v>0.01559801958501339</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.004131595604121685</v>
+        <v>0.03934814780950546</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0009697837522253394</v>
+        <v>0.03251191973686218</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.0006154091679491103</v>
+        <v>0.0003659832291305065</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0009060954907909036</v>
+        <v>0.004876871593296528</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.00122242362704128</v>
+        <v>0.01117378659546375</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.0002680585021153092</v>
+        <v>0.02655639685690403</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0004139808879699558</v>
+        <v>0.004022484645247459</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.0003287360304966569</v>
+        <v>0.01491651218384504</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.001270757522433996</v>
+        <v>0.04654818028211594</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.001158475875854492</v>
+        <v>0.01586588658392429</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.0009306570864282548</v>
+        <v>0.02829737588763237</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.0002581136650405824</v>
+        <v>0.01245159562677145</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.001650955993682146</v>
+        <v>0.01304948329925537</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.0001113282633014023</v>
+        <v>0.01801168918609619</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.0006679372163489461</v>
+        <v>0.1004845723509789</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.0001110300290747546</v>
+        <v>0.001938051544129848</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0009286368731409311</v>
+        <v>0.004058975260704756</v>
       </c>
     </row>
     <row r="12">
@@ -7832,1140 +7832,1140 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0002018275263253599</v>
+        <v>0.000144314777571708</v>
       </c>
       <c r="B14" t="n">
-        <v>1.230780617333949e-05</v>
+        <v>0.001869396190159023</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002282050118083134</v>
+        <v>0.0001237125543411821</v>
       </c>
       <c r="D14" t="n">
-        <v>5.510240953299217e-05</v>
+        <v>0.000392859656130895</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001074143801815808</v>
+        <v>0.0004673385119531304</v>
       </c>
       <c r="F14" t="n">
-        <v>9.533481716061942e-06</v>
+        <v>0.0004175872600171715</v>
       </c>
       <c r="G14" t="n">
-        <v>6.445926555898041e-05</v>
+        <v>0.000289405114017427</v>
       </c>
       <c r="H14" t="n">
-        <v>3.376936365384609e-05</v>
+        <v>0.0002337529003852978</v>
       </c>
       <c r="I14" t="n">
-        <v>7.148427539505064e-05</v>
+        <v>0.0002795870532281697</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001941232330864295</v>
+        <v>0.0002041987463599071</v>
       </c>
       <c r="K14" t="n">
-        <v>1.701804831100162e-05</v>
+        <v>0.001648076227866113</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002418596559436992</v>
+        <v>4.456980605027638e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>2.753449189185631e-05</v>
+        <v>0.0002343781525269151</v>
       </c>
       <c r="N14" t="n">
-        <v>2.715946902753785e-05</v>
+        <v>7.928599370643497e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.501446513429983e-05</v>
+        <v>0.0003300730313640088</v>
       </c>
       <c r="P14" t="n">
-        <v>5.43569985893555e-05</v>
+        <v>0.0001585933787282556</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.92928588250652e-05</v>
+        <v>0.0001919291680678725</v>
       </c>
       <c r="R14" t="n">
-        <v>8.418651850661263e-05</v>
+        <v>0.0003656261833384633</v>
       </c>
       <c r="S14" t="n">
-        <v>1.595839421497658e-06</v>
+        <v>8.659066224936396e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>6.108170055085793e-05</v>
+        <v>0.0002210674429079518</v>
       </c>
       <c r="U14" t="n">
-        <v>7.13496956450399e-06</v>
+        <v>6.789417966501787e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>2.349580790905748e-05</v>
+        <v>0.0001651412167120725</v>
       </c>
       <c r="W14" t="n">
-        <v>8.523353471900919e-07</v>
+        <v>0.0002051943447440863</v>
       </c>
       <c r="X14" t="n">
-        <v>1.090348359866766e-05</v>
+        <v>6.040728112566285e-05</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.573038935021032e-05</v>
+        <v>2.820397821778897e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.70256527478341e-05</v>
+        <v>0.0003487916255835444</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.399967449193355e-06</v>
+        <v>0.0001241104037035257</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.55022483645007e-06</v>
+        <v>0.000136229646159336</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.172232259705197e-05</v>
+        <v>0.0001441746426280588</v>
       </c>
       <c r="AD14" t="n">
-        <v>4.682300641434267e-06</v>
+        <v>1.813095877878368e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>3.722522887983359e-05</v>
+        <v>9.937054710462689e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.240937182155903e-06</v>
+        <v>6.070603194530122e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.312314361712197e-05</v>
+        <v>5.553246955969371e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.26116083265515e-05</v>
+        <v>5.011488974560052e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.210300827864558e-05</v>
+        <v>6.951438263058662e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6.141598714748397e-05</v>
+        <v>4.024465306429192e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>4.556796193355694e-05</v>
+        <v>0.0003018919960595667</v>
       </c>
       <c r="AL14" t="n">
-        <v>5.382800009101629e-05</v>
+        <v>0.0001816431031329557</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.160461190214846e-05</v>
+        <v>3.401021604076959e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.215419514570385e-05</v>
+        <v>0.0001500809448771179</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.774193025194108e-06</v>
+        <v>0.0001624881697352976</v>
       </c>
       <c r="AP14" t="n">
-        <v>8.626133421785198e-06</v>
+        <v>0.00012848453479819</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6.170252504489326e-07</v>
+        <v>0.0001283932651858777</v>
       </c>
       <c r="AR14" t="n">
-        <v>2.485608820279595e-05</v>
+        <v>1.588609666214325e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>5.402743227023166e-06</v>
+        <v>0.0001367280056001619</v>
       </c>
       <c r="AT14" t="n">
-        <v>8.920317486627027e-05</v>
+        <v>3.662845119833946e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>4.87310862808954e-05</v>
+        <v>0.001121829729527235</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.000112744135549292</v>
+        <v>0.0001618846436031163</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.883694080286659e-05</v>
+        <v>8.812497981125489e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>2.497946979929111e-06</v>
+        <v>7.229076436487958e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>7.420632755383849e-05</v>
+        <v>0.0001172524498542771</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.78667539532762e-05</v>
+        <v>0.0004197589005343616</v>
       </c>
       <c r="BA14" t="n">
-        <v>3.208310954505578e-05</v>
+        <v>0.0001679434790275991</v>
       </c>
       <c r="BB14" t="n">
-        <v>6.461687007686123e-06</v>
+        <v>0.0001625605946173891</v>
       </c>
       <c r="BC14" t="n">
-        <v>3.057321009691805e-05</v>
+        <v>3.578893665689975e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>4.431243723956868e-06</v>
+        <v>0.0002903149579651654</v>
       </c>
       <c r="BE14" t="n">
-        <v>8.166588668245822e-05</v>
+        <v>0.0002992796071339399</v>
       </c>
       <c r="BF14" t="n">
-        <v>6.676206794509199e-06</v>
+        <v>9.877493721432984e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>4.618758975993842e-05</v>
+        <v>0.000282326975138858</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.236641310242703e-05</v>
+        <v>0.0002185789489885792</v>
       </c>
       <c r="BI14" t="n">
-        <v>6.923626642674208e-05</v>
+        <v>5.221756873652339e-05</v>
       </c>
       <c r="BJ14" t="n">
-        <v>3.340009061503224e-05</v>
+        <v>0.0002228934463346377</v>
       </c>
       <c r="BK14" t="n">
-        <v>2.284543916175608e-05</v>
+        <v>0.0003162974899169058</v>
       </c>
       <c r="BL14" t="n">
-        <v>8.360993888345547e-06</v>
+        <v>0.0001090959849534556</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.367539789498551e-05</v>
+        <v>0.0001654686639085412</v>
       </c>
       <c r="BN14" t="n">
-        <v>4.41333104390651e-05</v>
+        <v>4.707854895968921e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>7.348397502937587e-06</v>
+        <v>8.407361747231334e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>4.181743497611023e-05</v>
+        <v>8.476828952552751e-05</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.062846968125086e-05</v>
+        <v>2.976757787109818e-05</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.614314533071592e-05</v>
+        <v>0.0001225361338583753</v>
       </c>
       <c r="BS14" t="n">
-        <v>3.72513422917109e-05</v>
+        <v>2.372489143454004e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.649204932618886e-06</v>
+        <v>8.294339932035655e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>8.356136822840199e-05</v>
+        <v>3.47357417922467e-05</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.678463740972802e-05</v>
+        <v>0.0006513716070912778</v>
       </c>
       <c r="BW14" t="n">
-        <v>4.269081910024397e-05</v>
+        <v>0.0001497179036960006</v>
       </c>
       <c r="BX14" t="n">
-        <v>3.644985918072052e-05</v>
+        <v>8.579660061514005e-05</v>
       </c>
       <c r="BY14" t="n">
-        <v>4.443663783604279e-05</v>
+        <v>7.057842594804242e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>2.134878377546556e-05</v>
+        <v>8.509851795679424e-06</v>
       </c>
       <c r="CA14" t="n">
-        <v>8.330844138981774e-07</v>
+        <v>5.072478234069422e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>3.897648184647551e-06</v>
+        <v>3.524679414113052e-06</v>
       </c>
       <c r="CC14" t="n">
-        <v>3.847136395052075e-05</v>
+        <v>4.377466029836796e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>4.316554259276018e-05</v>
+        <v>8.167060877894983e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>4.942718805978075e-05</v>
+        <v>0.0003189050767105073</v>
       </c>
       <c r="CF14" t="n">
-        <v>4.890590935247019e-05</v>
+        <v>6.631863652728498e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>4.998997610528022e-06</v>
+        <v>4.623439235729165e-05</v>
       </c>
       <c r="CH14" t="n">
-        <v>1.03765605672379e-05</v>
+        <v>6.810612831031904e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.85990229510935e-05</v>
+        <v>1.166157835541526e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>7.907503459136933e-06</v>
+        <v>0.0001224772859131917</v>
       </c>
       <c r="CK14" t="n">
-        <v>8.383004569623154e-06</v>
+        <v>5.08287557750009e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>1.784029791451758e-06</v>
+        <v>8.686283399583772e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>8.542579053028021e-06</v>
+        <v>0.0004538365465123206</v>
       </c>
       <c r="CN14" t="n">
-        <v>5.658088048221543e-05</v>
+        <v>6.880261935293674e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>2.172406493627932e-05</v>
+        <v>7.271065260283649e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>1.810592038964387e-05</v>
+        <v>0.0005464509013108909</v>
       </c>
       <c r="CQ14" t="n">
-        <v>2.295614467584528e-05</v>
+        <v>0.0003382407012395561</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.074403098755283e-05</v>
+        <v>0.0004243392031639814</v>
       </c>
       <c r="CS14" t="n">
-        <v>1.005082140181912e-06</v>
+        <v>0.0003089748206548393</v>
       </c>
       <c r="CT14" t="n">
-        <v>4.670039743359666e-06</v>
+        <v>0.0001630076149012893</v>
       </c>
       <c r="CU14" t="n">
-        <v>1.366336073260754e-05</v>
+        <v>0.0002466056030243635</v>
       </c>
       <c r="CV14" t="n">
-        <v>3.997203384642489e-05</v>
+        <v>7.479024498024955e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>4.531205195235088e-05</v>
+        <v>0.0003035457921214402</v>
       </c>
       <c r="CX14" t="n">
-        <v>5.329248961061239e-05</v>
+        <v>6.857843982288614e-05</v>
       </c>
       <c r="CY14" t="n">
-        <v>8.288486128549266e-07</v>
+        <v>0.0001324387994827703</v>
       </c>
       <c r="CZ14" t="n">
-        <v>3.350371844135225e-05</v>
+        <v>9.321765537606552e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.977692227228545e-05</v>
+        <v>3.159762491122819e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>8.034272468648851e-06</v>
+        <v>0.0001223819999722764</v>
       </c>
       <c r="DC14" t="n">
-        <v>5.36633342562709e-06</v>
+        <v>9.424450399819762e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>5.493707249115687e-06</v>
+        <v>0.0001018870752886869</v>
       </c>
       <c r="DE14" t="n">
-        <v>9.330737157142721e-06</v>
+        <v>0.0001602504344191402</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0001055442480719648</v>
+        <v>0.0002697846502996981</v>
       </c>
       <c r="DG14" t="n">
-        <v>2.641989158291835e-05</v>
+        <v>0.0001060251670423895</v>
       </c>
       <c r="DH14" t="n">
-        <v>1.032067848427687e-05</v>
+        <v>0.0002537966065574437</v>
       </c>
       <c r="DI14" t="n">
-        <v>3.377946268301457e-05</v>
+        <v>0.0005414252518676221</v>
       </c>
       <c r="DJ14" t="n">
-        <v>9.660339856054634e-06</v>
+        <v>0.0007134765619412065</v>
       </c>
       <c r="DK14" t="n">
-        <v>7.026429557299707e-06</v>
+        <v>6.012119411025196e-05</v>
       </c>
       <c r="DL14" t="n">
-        <v>9.859468264039606e-08</v>
+        <v>9.285258420277387e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>1.938375135068782e-05</v>
+        <v>0.0004017963947262615</v>
       </c>
       <c r="DN14" t="n">
-        <v>5.320871423464268e-06</v>
+        <v>0.0001132622419390827</v>
       </c>
       <c r="DO14" t="n">
-        <v>6.570289406226948e-05</v>
+        <v>0.0001103864924516529</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.726858499750961e-05</v>
+        <v>0.0001525800325907767</v>
       </c>
       <c r="DQ14" t="n">
-        <v>8.359993444173597e-07</v>
+        <v>0.0001601546246092767</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.309204981225776e-05</v>
+        <v>7.784319313941523e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.298789902648423e-05</v>
+        <v>8.210854139178991e-05</v>
       </c>
       <c r="DT14" t="n">
-        <v>4.593862286128569e-07</v>
+        <v>0.0002380119840381667</v>
       </c>
       <c r="DU14" t="n">
-        <v>1.018851435219403e-05</v>
+        <v>0.0001968070573639125</v>
       </c>
       <c r="DV14" t="n">
-        <v>5.198927283345256e-06</v>
+        <v>0.0001036545509123243</v>
       </c>
       <c r="DW14" t="n">
-        <v>1.729650102788582e-05</v>
+        <v>4.389646710478701e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.630862971069291e-05</v>
+        <v>0.0002336534962523729</v>
       </c>
       <c r="DY14" t="n">
-        <v>8.554836767871166e-07</v>
+        <v>6.561427289852872e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>4.361540050012991e-06</v>
+        <v>0.0002411552704870701</v>
       </c>
       <c r="EA14" t="n">
-        <v>3.781507984967902e-05</v>
+        <v>0.000179271912202239</v>
       </c>
       <c r="EB14" t="n">
-        <v>9.743599548528437e-06</v>
+        <v>6.672294693998992e-05</v>
       </c>
       <c r="EC14" t="n">
-        <v>3.82430062018102e-06</v>
+        <v>3.868046042043716e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>2.747302096395288e-05</v>
+        <v>0.0001862592907855287</v>
       </c>
       <c r="EE14" t="n">
-        <v>2.718006726354361e-07</v>
+        <v>0.0003856640250887722</v>
       </c>
       <c r="EF14" t="n">
-        <v>6.075008423067629e-05</v>
+        <v>0.0002549297641962767</v>
       </c>
       <c r="EG14" t="n">
-        <v>4.063480446347967e-05</v>
+        <v>0.0004440037009771913</v>
       </c>
       <c r="EH14" t="n">
-        <v>4.680265919887461e-05</v>
+        <v>2.573709934949875e-05</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.646874079597183e-05</v>
+        <v>1.034650631481782e-05</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.062431329046376e-05</v>
+        <v>4.685897238232428e-06</v>
       </c>
       <c r="EK14" t="n">
-        <v>5.242905535851605e-05</v>
+        <v>0.0002432379842502996</v>
       </c>
       <c r="EL14" t="n">
-        <v>5.065975528850686e-06</v>
+        <v>0.000168841754202731</v>
       </c>
       <c r="EM14" t="n">
-        <v>3.751046460820362e-05</v>
+        <v>9.037042764248326e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>2.087114989990368e-05</v>
+        <v>2.785430297080893e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>1.868950312200468e-05</v>
+        <v>8.689709648024291e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>2.702551319089253e-05</v>
+        <v>0.0001167322843684815</v>
       </c>
       <c r="EQ14" t="n">
-        <v>1.111739402404055e-05</v>
+        <v>0.0001265308383153751</v>
       </c>
       <c r="ER14" t="n">
-        <v>7.414115316350944e-06</v>
+        <v>0.0001812790287658572</v>
       </c>
       <c r="ES14" t="n">
-        <v>2.242824120912701e-05</v>
+        <v>0.0001911258441396058</v>
       </c>
       <c r="ET14" t="n">
-        <v>2.981530451506842e-05</v>
+        <v>1.449551928089932e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>3.187945185345598e-05</v>
+        <v>0.000333867414155975</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.465260174882133e-05</v>
+        <v>0.0002429642336210236</v>
       </c>
       <c r="EW14" t="n">
-        <v>2.444132587697823e-05</v>
+        <v>0.0001060033100657165</v>
       </c>
       <c r="EX14" t="n">
-        <v>3.940361057175323e-05</v>
+        <v>9.93850699160248e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>4.171447653789073e-05</v>
+        <v>0.0003124684153590351</v>
       </c>
       <c r="EZ14" t="n">
-        <v>5.10315912833903e-05</v>
+        <v>5.056027293903753e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>3.193606517015724e-07</v>
+        <v>2.398886499577202e-05</v>
       </c>
       <c r="FB14" t="n">
-        <v>2.464599128870759e-05</v>
+        <v>6.406837928807363e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>4.972023816662841e-06</v>
+        <v>9.515457350062206e-06</v>
       </c>
       <c r="FD14" t="n">
-        <v>9.671343832451385e-06</v>
+        <v>0.0001864988298621029</v>
       </c>
       <c r="FE14" t="n">
-        <v>1.196887023979798e-05</v>
+        <v>7.94623265392147e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>1.184643679152941e-05</v>
+        <v>0.0001460718340240419</v>
       </c>
       <c r="FG14" t="n">
-        <v>3.037963870156091e-05</v>
+        <v>9.368343307869509e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>3.68538803741103e-06</v>
+        <v>9.774856880540028e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>4.405785875860602e-05</v>
+        <v>0.0001715690596029162</v>
       </c>
       <c r="FJ14" t="n">
-        <v>3.773169373744167e-05</v>
+        <v>0.0002771826984826475</v>
       </c>
       <c r="FK14" t="n">
-        <v>5.598898496828042e-06</v>
+        <v>0.0001200075348606333</v>
       </c>
       <c r="FL14" t="n">
-        <v>2.745460369624197e-05</v>
+        <v>3.753237979253754e-05</v>
       </c>
       <c r="FM14" t="n">
-        <v>9.636157301429193e-06</v>
+        <v>0.0001360860042041168</v>
       </c>
       <c r="FN14" t="n">
-        <v>5.544709438254358e-06</v>
+        <v>7.71599734434858e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>1.249771685252199e-05</v>
+        <v>0.0001498602796345949</v>
       </c>
       <c r="FP14" t="n">
-        <v>6.711852620355785e-07</v>
+        <v>0.0002710186818148941</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.0001130644232034683</v>
+        <v>0.0001263443264178932</v>
       </c>
       <c r="FR14" t="n">
-        <v>1.826650441216771e-05</v>
+        <v>0.0002092294016620144</v>
       </c>
       <c r="FS14" t="n">
-        <v>2.956400567200035e-05</v>
+        <v>0.0002723265788517892</v>
       </c>
       <c r="FT14" t="n">
-        <v>7.215830919449218e-06</v>
+        <v>3.111476326012053e-05</v>
       </c>
       <c r="FU14" t="n">
-        <v>2.082965329464059e-05</v>
+        <v>0.0002428536681691185</v>
       </c>
       <c r="FV14" t="n">
-        <v>6.871268851682544e-07</v>
+        <v>7.982909301063046e-05</v>
       </c>
       <c r="FW14" t="n">
-        <v>1.037475612974958e-06</v>
+        <v>8.873403203324415e-07</v>
       </c>
       <c r="FX14" t="n">
-        <v>8.439292287221178e-06</v>
+        <v>8.96219426067546e-05</v>
       </c>
       <c r="FY14" t="n">
-        <v>2.415979361103382e-05</v>
+        <v>0.0003071661340072751</v>
       </c>
       <c r="FZ14" t="n">
-        <v>8.128862646117341e-06</v>
+        <v>8.165003237081692e-05</v>
       </c>
       <c r="GA14" t="n">
-        <v>2.843431957444409e-06</v>
+        <v>6.751508772140369e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>3.934303094865754e-06</v>
+        <v>1.665238960413262e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>3.535014184308238e-05</v>
+        <v>9.690553997643292e-05</v>
       </c>
       <c r="GD14" t="n">
-        <v>3.64547195204068e-05</v>
+        <v>0.0001629586913622916</v>
       </c>
       <c r="GE14" t="n">
-        <v>6.189626674313331e-06</v>
+        <v>1.806791988201439e-05</v>
       </c>
       <c r="GF14" t="n">
-        <v>1.446545502403751e-05</v>
+        <v>0.0001598936360096559</v>
       </c>
       <c r="GG14" t="n">
-        <v>9.810501069296151e-06</v>
+        <v>0.0001296707923756912</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.169228875776753e-05</v>
+        <v>0.00167021865490824</v>
       </c>
       <c r="B15" t="n">
-        <v>0.000100819488579873</v>
+        <v>9.457235137233511e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001828414970077574</v>
+        <v>0.0001039326598402113</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001519345096312463</v>
+        <v>0.0004113095346838236</v>
       </c>
       <c r="E15" t="n">
-        <v>1.421246270183474e-05</v>
+        <v>8.604559843661264e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>3.776945595745929e-05</v>
+        <v>0.001741273095831275</v>
       </c>
       <c r="G15" t="n">
-        <v>7.449634722433984e-05</v>
+        <v>0.0002676239528227597</v>
       </c>
       <c r="H15" t="n">
-        <v>8.52013545227237e-06</v>
+        <v>0.0008560880087316036</v>
       </c>
       <c r="I15" t="n">
-        <v>3.823844599537551e-05</v>
+        <v>3.276838469901122e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.356483648531139e-05</v>
+        <v>0.001234577037394047</v>
       </c>
       <c r="K15" t="n">
-        <v>5.677435547113419e-05</v>
+        <v>0.0001699691492831334</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002034642093349248</v>
+        <v>2.443724952172488e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0001371781836496666</v>
+        <v>0.000219470530282706</v>
       </c>
       <c r="N15" t="n">
-        <v>9.401339048054069e-05</v>
+        <v>0.000489481317345053</v>
       </c>
       <c r="O15" t="n">
-        <v>2.05478190764552e-05</v>
+        <v>0.001377980457618833</v>
       </c>
       <c r="P15" t="n">
-        <v>1.959125256689731e-05</v>
+        <v>0.0006541566690430045</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.713620753842406e-05</v>
+        <v>0.000984865939244628</v>
       </c>
       <c r="R15" t="n">
-        <v>2.635965029185172e-05</v>
+        <v>0.0001051660001394339</v>
       </c>
       <c r="S15" t="n">
-        <v>3.387917786312755e-06</v>
+        <v>0.0001898791088024154</v>
       </c>
       <c r="T15" t="n">
-        <v>1.616669578652363e-05</v>
+        <v>0.0005104299052618444</v>
       </c>
       <c r="U15" t="n">
-        <v>5.836147465743124e-06</v>
+        <v>3.203335654688999e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.105805495171808e-05</v>
+        <v>0.0004628211027011275</v>
       </c>
       <c r="W15" t="n">
-        <v>8.278719906229526e-05</v>
+        <v>0.0006969345267862082</v>
       </c>
       <c r="X15" t="n">
-        <v>2.090544148813933e-05</v>
+        <v>0.0003153313009534031</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.273500831506681e-05</v>
+        <v>0.0003236066550016403</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.6239958970109e-06</v>
+        <v>0.0001597583468537778</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.828651875257492e-05</v>
+        <v>8.049503958318383e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.615268673864193e-05</v>
+        <v>0.0003404128656256944</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.657908382592723e-05</v>
+        <v>0.0003432836092542857</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.886487320414744e-05</v>
+        <v>0.0001445720554329455</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.657420868170448e-05</v>
+        <v>9.105939534492791e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.612646004417911e-05</v>
+        <v>1.436747697880492e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.101769784232602e-05</v>
+        <v>0.0002059012185782194</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.593689376022667e-05</v>
+        <v>1.703036105027422e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.13657028527814e-06</v>
+        <v>0.0002679356839507818</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.923517452785745e-05</v>
+        <v>4.354572593001649e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>6.154346920084208e-05</v>
+        <v>0.0003242402744945139</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.771201201947406e-05</v>
+        <v>6.94378322805278e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>3.141593333566561e-05</v>
+        <v>0.000275331549346447</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.598859833204187e-06</v>
+        <v>0.000114569251309149</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.299694758927217e-06</v>
+        <v>0.0001353005063720047</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.008853622712195e-05</v>
+        <v>3.333595668664202e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.470341425781953e-06</v>
+        <v>0.0001418007013853639</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.935213943710551e-06</v>
+        <v>7.619181269546971e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>8.234623237513006e-06</v>
+        <v>1.997238905460108e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.789467518799938e-05</v>
+        <v>0.0009070850792340934</v>
       </c>
       <c r="AU15" t="n">
-        <v>4.653089126804844e-05</v>
+        <v>0.000221832815441303</v>
       </c>
       <c r="AV15" t="n">
-        <v>7.672791252844036e-05</v>
+        <v>8.402916137129068e-06</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.880404670373537e-05</v>
+        <v>0.0004851377452723682</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.957875641295686e-05</v>
+        <v>0.001159089268185198</v>
       </c>
       <c r="AY15" t="n">
-        <v>1.284173686144641e-05</v>
+        <v>0.0007836536387912929</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5.612855238723569e-05</v>
+        <v>0.000214110070373863</v>
       </c>
       <c r="BA15" t="n">
-        <v>5.35833096364513e-05</v>
+        <v>0.0004195109358988702</v>
       </c>
       <c r="BB15" t="n">
-        <v>3.817936158156954e-05</v>
+        <v>4.156238719588146e-05</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.843292739067692e-05</v>
+        <v>0.000372301583411172</v>
       </c>
       <c r="BD15" t="n">
-        <v>2.601922824396752e-05</v>
+        <v>0.0001624443248147145</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.051207932003308e-05</v>
+        <v>9.064738696906716e-05</v>
       </c>
       <c r="BF15" t="n">
-        <v>3.395794192329049e-05</v>
+        <v>0.000129853084217757</v>
       </c>
       <c r="BG15" t="n">
-        <v>8.660253661219031e-05</v>
+        <v>0.0003903942997567356</v>
       </c>
       <c r="BH15" t="n">
-        <v>8.937448728829622e-05</v>
+        <v>0.0003902594035025686</v>
       </c>
       <c r="BI15" t="n">
-        <v>3.434276368352585e-05</v>
+        <v>0.0003353790671098977</v>
       </c>
       <c r="BJ15" t="n">
-        <v>6.499588198494166e-05</v>
+        <v>0.0004055915051139891</v>
       </c>
       <c r="BK15" t="n">
-        <v>6.383152140188031e-06</v>
+        <v>3.783356805797666e-05</v>
       </c>
       <c r="BL15" t="n">
-        <v>3.991005360148847e-05</v>
+        <v>2.205625605711248e-05</v>
       </c>
       <c r="BM15" t="n">
-        <v>1.777151373971719e-05</v>
+        <v>0.0002696837473195046</v>
       </c>
       <c r="BN15" t="n">
-        <v>5.850930028827861e-05</v>
+        <v>9.568194218445569e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>5.9921867432422e-06</v>
+        <v>0.0004294213431421667</v>
       </c>
       <c r="BP15" t="n">
-        <v>8.731467460165732e-06</v>
+        <v>0.0003837457334157079</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6.387297162291361e-06</v>
+        <v>4.100034857401624e-05</v>
       </c>
       <c r="BR15" t="n">
-        <v>4.19839852838777e-05</v>
+        <v>0.0003631241852417588</v>
       </c>
       <c r="BS15" t="n">
-        <v>2.665470128704328e-05</v>
+        <v>0.0004840173642151058</v>
       </c>
       <c r="BT15" t="n">
-        <v>2.410078013781458e-05</v>
+        <v>0.000231667043408379</v>
       </c>
       <c r="BU15" t="n">
-        <v>5.362507363315672e-05</v>
+        <v>0.0004505117249209434</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.453593722544611e-05</v>
+        <v>0.000261965295067057</v>
       </c>
       <c r="BW15" t="n">
-        <v>4.060312130604871e-05</v>
+        <v>0.000180715651367791</v>
       </c>
       <c r="BX15" t="n">
-        <v>2.649140878929757e-05</v>
+        <v>0.0002590147196315229</v>
       </c>
       <c r="BY15" t="n">
-        <v>7.270071364473552e-05</v>
+        <v>0.0005098658730275929</v>
       </c>
       <c r="BZ15" t="n">
-        <v>1.634532964089885e-05</v>
+        <v>0.000585670059081167</v>
       </c>
       <c r="CA15" t="n">
-        <v>4.220218033879064e-05</v>
+        <v>4.707853804575279e-05</v>
       </c>
       <c r="CB15" t="n">
-        <v>7.806166831869632e-05</v>
+        <v>0.0001970465818885714</v>
       </c>
       <c r="CC15" t="n">
-        <v>6.208168633747846e-05</v>
+        <v>1.544131737318821e-05</v>
       </c>
       <c r="CD15" t="n">
-        <v>3.651864972198382e-05</v>
+        <v>0.0003249882720410824</v>
       </c>
       <c r="CE15" t="n">
-        <v>1.343546045973198e-06</v>
+        <v>0.0002376708289375529</v>
       </c>
       <c r="CF15" t="n">
-        <v>4.054366945638321e-05</v>
+        <v>2.394972034380771e-05</v>
       </c>
       <c r="CG15" t="n">
-        <v>3.426771945669316e-05</v>
+        <v>1.570706444908865e-05</v>
       </c>
       <c r="CH15" t="n">
-        <v>6.925250545464223e-06</v>
+        <v>3.818058030446991e-05</v>
       </c>
       <c r="CI15" t="n">
-        <v>2.222375587734859e-05</v>
+        <v>0.0002575337130110711</v>
       </c>
       <c r="CJ15" t="n">
-        <v>2.27503423957387e-05</v>
+        <v>2.672460686881095e-05</v>
       </c>
       <c r="CK15" t="n">
-        <v>2.15024447243195e-05</v>
+        <v>0.0003021221491508186</v>
       </c>
       <c r="CL15" t="n">
-        <v>1.221920592797687e-05</v>
+        <v>3.335371002322063e-05</v>
       </c>
       <c r="CM15" t="n">
-        <v>1.418374540662626e-05</v>
+        <v>3.04564819089137e-05</v>
       </c>
       <c r="CN15" t="n">
-        <v>3.355487933731638e-05</v>
+        <v>8.544472802896053e-05</v>
       </c>
       <c r="CO15" t="n">
-        <v>3.888883657054976e-05</v>
+        <v>5.306265666149557e-05</v>
       </c>
       <c r="CP15" t="n">
-        <v>3.852974259643815e-05</v>
+        <v>2.838301043084357e-05</v>
       </c>
       <c r="CQ15" t="n">
-        <v>3.102526989096077e-06</v>
+        <v>0.0007699021953158081</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.0001109130535041913</v>
+        <v>0.0001226038439199328</v>
       </c>
       <c r="CS15" t="n">
-        <v>6.8250774347689e-05</v>
+        <v>0.0002251061087008566</v>
       </c>
       <c r="CT15" t="n">
-        <v>2.72595261776587e-05</v>
+        <v>6.472003587987274e-05</v>
       </c>
       <c r="CU15" t="n">
-        <v>2.706849591049831e-05</v>
+        <v>0.0001393267011735588</v>
       </c>
       <c r="CV15" t="n">
-        <v>4.184739373158664e-05</v>
+        <v>0.0002993880480062217</v>
       </c>
       <c r="CW15" t="n">
-        <v>3.216205868739053e-06</v>
+        <v>0.0002217972651124001</v>
       </c>
       <c r="CX15" t="n">
-        <v>3.965808355133049e-05</v>
+        <v>4.503293166635558e-05</v>
       </c>
       <c r="CY15" t="n">
-        <v>2.834496626746841e-05</v>
+        <v>9.8626253020484e-05</v>
       </c>
       <c r="CZ15" t="n">
-        <v>8.739967597648501e-06</v>
+        <v>3.361049311934039e-05</v>
       </c>
       <c r="DA15" t="n">
-        <v>1.731540032778867e-05</v>
+        <v>0.0002509529876988381</v>
       </c>
       <c r="DB15" t="n">
-        <v>2.441974720568396e-05</v>
+        <v>9.168230462819338e-06</v>
       </c>
       <c r="DC15" t="n">
-        <v>2.20584242924815e-05</v>
+        <v>0.000317820260534063</v>
       </c>
       <c r="DD15" t="n">
-        <v>1.860772317741066e-05</v>
+        <v>2.331703944946639e-05</v>
       </c>
       <c r="DE15" t="n">
-        <v>1.45759986480698e-05</v>
+        <v>0.0001015603847918101</v>
       </c>
       <c r="DF15" t="n">
-        <v>1.672794860496651e-05</v>
+        <v>4.186153091723099e-06</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.0001654194202274084</v>
+        <v>8.462984260404482e-05</v>
       </c>
       <c r="DH15" t="n">
-        <v>6.17829427937977e-05</v>
+        <v>0.0002712910354603082</v>
       </c>
       <c r="DI15" t="n">
-        <v>1.13202549982816e-05</v>
+        <v>0.001021156320348382</v>
       </c>
       <c r="DJ15" t="n">
-        <v>8.201862328860443e-06</v>
+        <v>0.0001048705671564676</v>
       </c>
       <c r="DK15" t="n">
-        <v>8.36286271805875e-05</v>
+        <v>5.082425923319533e-05</v>
       </c>
       <c r="DL15" t="n">
-        <v>7.482988439733163e-05</v>
+        <v>0.0004910093848593533</v>
       </c>
       <c r="DM15" t="n">
-        <v>2.883393790398259e-07</v>
+        <v>0.0003435872786212713</v>
       </c>
       <c r="DN15" t="n">
-        <v>7.260393431351986e-06</v>
+        <v>0.0001932077575474977</v>
       </c>
       <c r="DO15" t="n">
-        <v>4.621335392585024e-05</v>
+        <v>9.108742233365774e-05</v>
       </c>
       <c r="DP15" t="n">
-        <v>1.459133090975229e-05</v>
+        <v>0.0001477284531574696</v>
       </c>
       <c r="DQ15" t="n">
-        <v>1.607897138455883e-05</v>
+        <v>0.0002956194803118706</v>
       </c>
       <c r="DR15" t="n">
-        <v>3.903358447132632e-05</v>
+        <v>0.0002545712632127106</v>
       </c>
       <c r="DS15" t="n">
-        <v>1.170213090517791e-05</v>
+        <v>0.0002335230819880962</v>
       </c>
       <c r="DT15" t="n">
-        <v>2.635548844409641e-05</v>
+        <v>1.033703301800415e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>2.221153044956736e-05</v>
+        <v>0.0004397512238938361</v>
       </c>
       <c r="DV15" t="n">
-        <v>1.920760587381665e-05</v>
+        <v>0.0001359848247375339</v>
       </c>
       <c r="DW15" t="n">
-        <v>2.928713365690783e-05</v>
+        <v>2.156382834073156e-06</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.811288893804885e-05</v>
+        <v>0.000174379616510123</v>
       </c>
       <c r="DY15" t="n">
-        <v>1.955627703864593e-05</v>
+        <v>8.831164450384676e-06</v>
       </c>
       <c r="DZ15" t="n">
-        <v>7.008693501120433e-06</v>
+        <v>0.0001053648957167752</v>
       </c>
       <c r="EA15" t="n">
-        <v>3.81233257940039e-05</v>
+        <v>6.966355431359261e-05</v>
       </c>
       <c r="EB15" t="n">
-        <v>2.610227784316521e-05</v>
+        <v>0.0004054703167639673</v>
       </c>
       <c r="EC15" t="n">
-        <v>2.225474963779561e-05</v>
+        <v>0.0002119124983437359</v>
       </c>
       <c r="ED15" t="n">
-        <v>1.647101635171566e-05</v>
+        <v>0.000367523287422955</v>
       </c>
       <c r="EE15" t="n">
-        <v>1.551749846839812e-05</v>
+        <v>0.0001539886288810521</v>
       </c>
       <c r="EF15" t="n">
-        <v>4.398385499371216e-05</v>
+        <v>0.0002663191989995539</v>
       </c>
       <c r="EG15" t="n">
-        <v>4.869426629738882e-05</v>
+        <v>0.0004039595078211278</v>
       </c>
       <c r="EH15" t="n">
-        <v>4.536995402304456e-05</v>
+        <v>1.525594143458875e-05</v>
       </c>
       <c r="EI15" t="n">
-        <v>4.503093441599049e-05</v>
+        <v>0.0001829966640798375</v>
       </c>
       <c r="EJ15" t="n">
-        <v>5.079372931504622e-05</v>
+        <v>0.0001377759617753327</v>
       </c>
       <c r="EK15" t="n">
-        <v>4.034228186355904e-05</v>
+        <v>0.0001358421868644655</v>
       </c>
       <c r="EL15" t="n">
-        <v>1.642334245843813e-05</v>
+        <v>4.225572774885222e-05</v>
       </c>
       <c r="EM15" t="n">
-        <v>2.943009712907951e-05</v>
+        <v>1.93957475858042e-05</v>
       </c>
       <c r="EN15" t="n">
-        <v>1.31093083837186e-05</v>
+        <v>6.253326864680275e-05</v>
       </c>
       <c r="EO15" t="n">
-        <v>2.153304922103416e-05</v>
+        <v>9.829392365645617e-05</v>
       </c>
       <c r="EP15" t="n">
-        <v>2.140250217053108e-05</v>
+        <v>0.0003070847596973181</v>
       </c>
       <c r="EQ15" t="n">
-        <v>1.689230884949211e-05</v>
+        <v>7.616166840307415e-05</v>
       </c>
       <c r="ER15" t="n">
-        <v>1.395081199007109e-05</v>
+        <v>0.000132653716718778</v>
       </c>
       <c r="ES15" t="n">
-        <v>1.209519905387424e-05</v>
+        <v>0.0004557844949886203</v>
       </c>
       <c r="ET15" t="n">
-        <v>6.943954758753534e-06</v>
+        <v>8.481410623062402e-05</v>
       </c>
       <c r="EU15" t="n">
-        <v>4.864828224526718e-05</v>
+        <v>2.369064895901829e-05</v>
       </c>
       <c r="EV15" t="n">
-        <v>2.052272611763328e-05</v>
+        <v>6.031319935573265e-05</v>
       </c>
       <c r="EW15" t="n">
-        <v>8.521159543306567e-06</v>
+        <v>2.31600170081947e-05</v>
       </c>
       <c r="EX15" t="n">
-        <v>4.251352947903797e-05</v>
+        <v>0.0002573538513388485</v>
       </c>
       <c r="EY15" t="n">
-        <v>3.711374802151113e-06</v>
+        <v>0.0001832035486586392</v>
       </c>
       <c r="EZ15" t="n">
-        <v>4.137479118071496e-05</v>
+        <v>4.149982851231471e-05</v>
       </c>
       <c r="FA15" t="n">
-        <v>3.026760896318592e-05</v>
+        <v>7.206894224509597e-05</v>
       </c>
       <c r="FB15" t="n">
-        <v>3.296140221209498e-06</v>
+        <v>7.042604556772858e-05</v>
       </c>
       <c r="FC15" t="n">
-        <v>1.668774348217994e-05</v>
+        <v>0.0002192361571360379</v>
       </c>
       <c r="FD15" t="n">
-        <v>3.294640191597864e-05</v>
+        <v>5.375863838708028e-05</v>
       </c>
       <c r="FE15" t="n">
-        <v>1.782213803380728e-05</v>
+        <v>0.0004133410402573645</v>
       </c>
       <c r="FF15" t="n">
-        <v>3.637069767137291e-06</v>
+        <v>5.782567313872278e-07</v>
       </c>
       <c r="FG15" t="n">
-        <v>1.606206569704227e-05</v>
+        <v>0.0001954740146175027</v>
       </c>
       <c r="FH15" t="n">
-        <v>3.616597678046674e-05</v>
+        <v>0.0002578626153990626</v>
       </c>
       <c r="FI15" t="n">
-        <v>2.287211282236967e-05</v>
+        <v>0.000141154756420292</v>
       </c>
       <c r="FJ15" t="n">
-        <v>2.346152905374765e-05</v>
+        <v>6.83922553434968e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>1.611143670743331e-05</v>
+        <v>0.0001891303836600855</v>
       </c>
       <c r="FL15" t="n">
-        <v>1.116368366638198e-05</v>
+        <v>0.0002186479250667617</v>
       </c>
       <c r="FM15" t="n">
-        <v>2.010842399613466e-05</v>
+        <v>5.577541378443129e-05</v>
       </c>
       <c r="FN15" t="n">
-        <v>4.39399154856801e-05</v>
+        <v>0.0001239460834767669</v>
       </c>
       <c r="FO15" t="n">
-        <v>2.286144626850728e-05</v>
+        <v>6.068305083317682e-06</v>
       </c>
       <c r="FP15" t="n">
-        <v>1.239204357261769e-05</v>
+        <v>0.0001530023582745343</v>
       </c>
       <c r="FQ15" t="n">
-        <v>7.685751188546419e-05</v>
+        <v>0.00013038631004747</v>
       </c>
       <c r="FR15" t="n">
-        <v>4.364793130662292e-05</v>
+        <v>1.128824078477919e-05</v>
       </c>
       <c r="FS15" t="n">
-        <v>8.465781320410315e-07</v>
+        <v>0.0004744056495837867</v>
       </c>
       <c r="FT15" t="n">
-        <v>1.399587563355453e-05</v>
+        <v>2.861343455151655e-05</v>
       </c>
       <c r="FU15" t="n">
-        <v>4.46884187113028e-05</v>
+        <v>0.0004335285630077124</v>
       </c>
       <c r="FV15" t="n">
-        <v>4.997764335712418e-07</v>
+        <v>0.000273186044069007</v>
       </c>
       <c r="FW15" t="n">
-        <v>6.782875425415114e-05</v>
+        <v>5.068710379418917e-05</v>
       </c>
       <c r="FX15" t="n">
-        <v>2.951921032945393e-06</v>
+        <v>0.0001207228560815565</v>
       </c>
       <c r="FY15" t="n">
-        <v>1.543589496577624e-05</v>
+        <v>7.045459642540663e-05</v>
       </c>
       <c r="FZ15" t="n">
-        <v>1.47527780427481e-05</v>
+        <v>0.0002105933090206236</v>
       </c>
       <c r="GA15" t="n">
-        <v>1.654989682720043e-05</v>
+        <v>2.326890535186976e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>6.046114776836475e-06</v>
+        <v>0.0001587430451763794</v>
       </c>
       <c r="GC15" t="n">
-        <v>1.305535988649353e-06</v>
+        <v>0.0001496007316745818</v>
       </c>
       <c r="GD15" t="n">
-        <v>3.622196891228668e-05</v>
+        <v>0.0003080392198171467</v>
       </c>
       <c r="GE15" t="n">
-        <v>3.353449210408144e-05</v>
+        <v>0.0002867106813937426</v>
       </c>
       <c r="GF15" t="n">
-        <v>3.602808646974154e-06</v>
+        <v>4.808702215086669e-06</v>
       </c>
       <c r="GG15" t="n">
-        <v>3.787269088206813e-05</v>
+        <v>0.0001312531239818782</v>
       </c>
     </row>
   </sheetData>
